--- a/resources/data/codinglist.xlsx
+++ b/resources/data/codinglist.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NETIVE\netiveUI\resources\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288"/>
   </bookViews>
   <sheets>
     <sheet name="화면목록" sheetId="1" r:id="rId1"/>
     <sheet name="원본-화면목록" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="115">
   <si>
     <t>]}</t>
   </si>
@@ -333,10 +328,6 @@
   </si>
   <si>
     <t>완료</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -487,7 +478,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yymmdd"/>
     <numFmt numFmtId="177" formatCode="yyyymmdd"/>
@@ -709,7 +700,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -734,21 +725,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </left>
       <right style="thin">
@@ -759,15 +735,6 @@
       </top>
       <bottom style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,6 +792,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -843,231 +825,222 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="11" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="12" fillId="8" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="12" fillId="8" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="9" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="8" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="9" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="8" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1077,7 +1050,28 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1146,7 +1140,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1181,7 +1175,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1394,1768 +1388,1782 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R28" sqref="R28"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:AI17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.75" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="1.75" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="74" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.75" style="73" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="74" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.75" style="73" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="74" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.75" style="8" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="25" customWidth="1"/>
-    <col min="11" max="11" width="1.75" style="25" customWidth="1"/>
-    <col min="12" max="12" width="5.5" style="25" customWidth="1"/>
-    <col min="13" max="13" width="1.75" style="18" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.75" style="27" customWidth="1"/>
-    <col min="16" max="16" width="14" style="28" customWidth="1"/>
-    <col min="17" max="17" width="1.75" style="27" customWidth="1"/>
-    <col min="18" max="18" width="14" style="28" customWidth="1"/>
-    <col min="19" max="19" width="1.75" style="27" customWidth="1"/>
-    <col min="20" max="20" width="14" style="28" customWidth="1"/>
-    <col min="21" max="21" width="1.75" style="27" customWidth="1"/>
-    <col min="22" max="22" width="14" style="28" customWidth="1"/>
-    <col min="23" max="23" width="1.75" style="27" customWidth="1"/>
-    <col min="24" max="24" width="14" style="28" customWidth="1"/>
-    <col min="25" max="25" width="1.75" style="27" customWidth="1"/>
-    <col min="26" max="26" width="14" style="28" customWidth="1"/>
-    <col min="27" max="27" width="1.75" style="27" customWidth="1"/>
-    <col min="28" max="28" width="14" style="28" customWidth="1"/>
-    <col min="29" max="29" width="1.875" style="27" customWidth="1"/>
-    <col min="30" max="30" width="14" style="28" customWidth="1"/>
-    <col min="31" max="31" width="1.875" style="22" customWidth="1"/>
-    <col min="32" max="32" width="8.75" style="29" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="1.875" style="29" customWidth="1"/>
-    <col min="34" max="34" width="8.75" style="30" customWidth="1"/>
-    <col min="35" max="35" width="1.75" style="8" customWidth="1"/>
-    <col min="36" max="39" width="39.875" style="6" customWidth="1"/>
-    <col min="40" max="16384" width="6.5" style="6"/>
+    <col min="1" max="1" width="1.69921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.09765625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="1.69921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.69921875" style="33" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.69921875" style="33" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.69921875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="20" customWidth="1"/>
+    <col min="11" max="11" width="1.69921875" style="20" customWidth="1"/>
+    <col min="12" max="12" width="5.5" style="20" customWidth="1"/>
+    <col min="13" max="13" width="1.69921875" style="13" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.69921875" style="22" customWidth="1"/>
+    <col min="16" max="16" width="14" style="23" customWidth="1"/>
+    <col min="17" max="17" width="1.69921875" style="22" customWidth="1"/>
+    <col min="18" max="18" width="14" style="23" customWidth="1"/>
+    <col min="19" max="19" width="1.69921875" style="22" customWidth="1"/>
+    <col min="20" max="20" width="14" style="23" customWidth="1"/>
+    <col min="21" max="21" width="1.69921875" style="22" customWidth="1"/>
+    <col min="22" max="22" width="14" style="23" customWidth="1"/>
+    <col min="23" max="23" width="1.69921875" style="22" customWidth="1"/>
+    <col min="24" max="24" width="14" style="23" customWidth="1"/>
+    <col min="25" max="25" width="1.69921875" style="22" customWidth="1"/>
+    <col min="26" max="26" width="14" style="23" customWidth="1"/>
+    <col min="27" max="27" width="1.69921875" style="22" customWidth="1"/>
+    <col min="28" max="28" width="14" style="23" customWidth="1"/>
+    <col min="29" max="29" width="1.8984375" style="22" customWidth="1"/>
+    <col min="30" max="30" width="14" style="23" customWidth="1"/>
+    <col min="31" max="31" width="1.8984375" style="17" customWidth="1"/>
+    <col min="32" max="32" width="8.69921875" style="24" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="1.8984375" style="24" customWidth="1"/>
+    <col min="34" max="34" width="8.69921875" style="25" customWidth="1"/>
+    <col min="35" max="35" width="1.69921875" style="3" customWidth="1"/>
+    <col min="36" max="39" width="39.8984375" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="6.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
     </row>
     <row r="2" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="45"/>
+      <c r="I2" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="68" t="s">
+      <c r="J2" s="44"/>
+      <c r="K2" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="28"/>
+    </row>
+    <row r="3" spans="1:36" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="43"/>
+      <c r="O3" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="29"/>
+    </row>
+    <row r="4" spans="1:36" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="41"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="46"/>
-    </row>
-    <row r="3" spans="1:36" s="25" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50" t="s">
+      <c r="L5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="47"/>
-    </row>
-    <row r="4" spans="1:36" s="9" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="55"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="V5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="X5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="13" t="s">
+      <c r="Y5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Z5" s="13" t="s">
+      <c r="Z5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="13" t="s">
+      <c r="AA5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AB5" s="13" t="s">
+      <c r="AB5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AC5" s="13" t="s">
+      <c r="AC5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AD5" s="13" t="s">
+      <c r="AD5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AE5" s="14" t="s">
+      <c r="AE5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14" t="s">
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AH5" s="15" t="s">
+      <c r="AH5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AI5" s="10" t="s">
+      <c r="AI5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="31" t="str">
+      <c r="B6" s="26" t="str">
         <f>'원본-화면목록'!A2</f>
         <v>완료</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="32">
         <f>'원본-화면목록'!B2</f>
         <v>44001</v>
       </c>
-      <c r="E6" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="72">
+      <c r="E6" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="32">
         <f>'원본-화면목록'!C2</f>
         <v>44001</v>
       </c>
-      <c r="G6" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="H6" s="72">
+      <c r="G6" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="32">
         <f>'원본-화면목록'!D2</f>
         <v>44001</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="16" t="str">
+      <c r="J6" s="11" t="str">
         <f>'원본-화면목록'!E2</f>
         <v>아이유</v>
       </c>
-      <c r="K6" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="L6" s="16" t="str">
+      <c r="K6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="11" t="str">
         <f>'원본-화면목록'!F2</f>
         <v>이지은</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="20" t="str">
+      <c r="N6" s="15" t="str">
         <f>'원본-화면목록'!G2</f>
         <v>P01_010000</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="20" t="str">
+      <c r="P6" s="15" t="str">
         <f>'원본-화면목록'!H2</f>
         <v>메뉴1</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="20" t="str">
+      <c r="R6" s="15" t="str">
         <f>'원본-화면목록'!I2</f>
         <v>메뉴1-1</v>
       </c>
-      <c r="S6" s="21" t="s">
+      <c r="S6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T6" s="15">
         <f>'원본-화면목록'!J2</f>
         <v>0</v>
       </c>
-      <c r="U6" s="21" t="s">
+      <c r="U6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="V6" s="20">
+      <c r="V6" s="15">
         <f>'원본-화면목록'!K2</f>
         <v>0</v>
       </c>
-      <c r="W6" s="21" t="s">
+      <c r="W6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="20">
+      <c r="X6" s="15">
         <f>'원본-화면목록'!L2</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="21" t="s">
+      <c r="Y6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Z6" s="20">
+      <c r="Z6" s="15">
         <f>'원본-화면목록'!M2</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="21" t="s">
+      <c r="AA6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AB6" s="20">
+      <c r="AB6" s="15">
         <f>'원본-화면목록'!N2</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="21" t="s">
+      <c r="AC6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AD6" s="20">
+      <c r="AD6" s="15">
         <f>'원본-화면목록'!O2</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="22" t="s">
+      <c r="AE6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AF6" s="23" t="str">
+      <c r="AF6" s="18" t="str">
         <f>'원본-화면목록'!P2</f>
         <v>/root1/aaa</v>
       </c>
-      <c r="AG6" s="22" t="s">
+      <c r="AG6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AH6" s="7">
+      <c r="AH6" s="2">
         <f>'원본-화면목록'!Q2</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="8" t="s">
+      <c r="AI6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="33" t="str">
+      <c r="B7" s="27" t="str">
         <f>'원본-화면목록'!A3</f>
         <v>대기</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="32">
         <f>'원본-화면목록'!B3</f>
         <v>43992</v>
       </c>
-      <c r="E7" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="72" t="str">
+      <c r="E7" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="32" t="str">
         <f>'원본-화면목록'!C3</f>
         <v>미정</v>
       </c>
-      <c r="G7" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" s="72" t="str">
+      <c r="G7" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="32" t="str">
         <f>'원본-화면목록'!D3</f>
         <v>미정</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="16" t="str">
+      <c r="J7" s="11" t="str">
         <f>'원본-화면목록'!E3</f>
         <v>아이유</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" s="16" t="str">
+      <c r="K7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="11" t="str">
         <f>'원본-화면목록'!F3</f>
         <v>이지은</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="20" t="str">
+      <c r="N7" s="15" t="str">
         <f>'원본-화면목록'!G3</f>
         <v>P01_020000</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="20" t="str">
+      <c r="P7" s="15" t="str">
         <f>'원본-화면목록'!H3</f>
         <v>메뉴1</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Q7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="20" t="str">
+      <c r="R7" s="15" t="str">
         <f>'원본-화면목록'!I3</f>
         <v>메뉴1-2</v>
       </c>
-      <c r="S7" s="21" t="s">
+      <c r="S7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="15">
         <f>'원본-화면목록'!J3</f>
         <v>0</v>
       </c>
-      <c r="U7" s="21" t="s">
+      <c r="U7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="V7" s="20">
+      <c r="V7" s="15">
         <f>'원본-화면목록'!K3</f>
         <v>0</v>
       </c>
-      <c r="W7" s="21" t="s">
+      <c r="W7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="20">
+      <c r="X7" s="15">
         <f>'원본-화면목록'!L3</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="21" t="s">
+      <c r="Y7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Z7" s="20">
+      <c r="Z7" s="15">
         <f>'원본-화면목록'!M3</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="21" t="s">
+      <c r="AA7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AB7" s="20">
+      <c r="AB7" s="15">
         <f>'원본-화면목록'!N3</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="21" t="s">
+      <c r="AC7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AD7" s="20">
+      <c r="AD7" s="15">
         <f>'원본-화면목록'!O3</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="22" t="s">
+      <c r="AE7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AF7" s="23" t="str">
+      <c r="AF7" s="18" t="str">
         <f>'원본-화면목록'!P3</f>
         <v>/root1</v>
       </c>
-      <c r="AG7" s="22" t="s">
+      <c r="AG7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AH7" s="7">
+      <c r="AH7" s="2">
         <f>'원본-화면목록'!Q3</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="8" t="s">
+      <c r="AI7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="33" t="str">
+      <c r="B8" s="27" t="str">
         <f>'원본-화면목록'!A4</f>
         <v>대기</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="32">
         <f>'원본-화면목록'!B4</f>
-        <v>44003</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="72" t="str">
+        <v>44001</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="32" t="str">
         <f>'원본-화면목록'!C4</f>
         <v>미정</v>
       </c>
-      <c r="G8" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="72" t="str">
+      <c r="G8" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="32" t="str">
         <f>'원본-화면목록'!D4</f>
         <v>미정</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="16" t="str">
+      <c r="J8" s="11" t="str">
         <f>'원본-화면목록'!E4</f>
         <v>아이유</v>
       </c>
-      <c r="K8" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="16" t="str">
+      <c r="K8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="11" t="str">
         <f>'원본-화면목록'!F4</f>
         <v>이지은</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="20" t="str">
+      <c r="N8" s="15" t="str">
         <f>'원본-화면목록'!G4</f>
         <v>P02_000000</v>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="O8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="20" t="str">
+      <c r="P8" s="15" t="str">
         <f>'원본-화면목록'!H4</f>
         <v>메뉴2</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="Q8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="20" t="str">
+      <c r="R8" s="15" t="str">
         <f>'원본-화면목록'!I4</f>
         <v>메뉴1-2</v>
       </c>
-      <c r="S8" s="21" t="s">
+      <c r="S8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="15">
         <f>'원본-화면목록'!J4</f>
         <v>0</v>
       </c>
-      <c r="U8" s="21" t="s">
+      <c r="U8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="V8" s="20">
+      <c r="V8" s="15">
         <f>'원본-화면목록'!K4</f>
         <v>0</v>
       </c>
-      <c r="W8" s="21" t="s">
+      <c r="W8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="X8" s="20">
+      <c r="X8" s="15">
         <f>'원본-화면목록'!L4</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="21" t="s">
+      <c r="Y8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Z8" s="20">
+      <c r="Z8" s="15">
         <f>'원본-화면목록'!M4</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="21" t="s">
+      <c r="AA8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AB8" s="20">
+      <c r="AB8" s="15">
         <f>'원본-화면목록'!N4</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="21" t="s">
+      <c r="AC8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AD8" s="20">
+      <c r="AD8" s="15">
         <f>'원본-화면목록'!O4</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="22" t="s">
+      <c r="AE8" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AF8" s="23" t="str">
+      <c r="AF8" s="18" t="str">
         <f>'원본-화면목록'!P4</f>
         <v>/root2</v>
       </c>
-      <c r="AG8" s="22" t="s">
+      <c r="AG8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AH8" s="7">
+      <c r="AH8" s="2">
         <f>'원본-화면목록'!Q4</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="8" t="s">
+      <c r="AI8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="33" t="str">
+      <c r="B9" s="27" t="str">
         <f>'원본-화면목록'!A5</f>
         <v>대기</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="32">
         <f>'원본-화면목록'!B5</f>
-        <v>44012</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="72" t="str">
+        <v>44002</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="32" t="str">
         <f>'원본-화면목록'!C5</f>
         <v>미정</v>
       </c>
-      <c r="G9" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="72" t="str">
+      <c r="G9" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="32" t="str">
         <f>'원본-화면목록'!D5</f>
         <v>미정</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="16" t="str">
+      <c r="J9" s="11" t="str">
         <f>'원본-화면목록'!E5</f>
         <v>아이유</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9" s="16" t="str">
+      <c r="K9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="11" t="str">
         <f>'원본-화면목록'!F5</f>
         <v>이지은</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="20" t="str">
+      <c r="N9" s="15" t="str">
         <f>'원본-화면목록'!G5</f>
         <v>P03_010000</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="20" t="str">
+      <c r="P9" s="15" t="str">
         <f>'원본-화면목록'!H5</f>
         <v>메뉴3</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="Q9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="20" t="str">
+      <c r="R9" s="15" t="str">
         <f>'원본-화면목록'!I5</f>
         <v>메뉴3-1</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="S9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="15">
         <f>'원본-화면목록'!J5</f>
         <v>0</v>
       </c>
-      <c r="U9" s="21" t="s">
+      <c r="U9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="V9" s="20">
+      <c r="V9" s="15">
         <f>'원본-화면목록'!K5</f>
         <v>0</v>
       </c>
-      <c r="W9" s="21" t="s">
+      <c r="W9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="20">
+      <c r="X9" s="15">
         <f>'원본-화면목록'!L5</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="21" t="s">
+      <c r="Y9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="20">
+      <c r="Z9" s="15">
         <f>'원본-화면목록'!M5</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="21" t="s">
+      <c r="AA9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AB9" s="20">
+      <c r="AB9" s="15">
         <f>'원본-화면목록'!N5</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="21" t="s">
+      <c r="AC9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AD9" s="20">
+      <c r="AD9" s="15">
         <f>'원본-화면목록'!O5</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="22" t="s">
+      <c r="AE9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AF9" s="23" t="str">
+      <c r="AF9" s="18" t="str">
         <f>'원본-화면목록'!P5</f>
         <v>/root3</v>
       </c>
-      <c r="AG9" s="22" t="s">
+      <c r="AG9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AH9" s="7">
+      <c r="AH9" s="2">
         <f>'원본-화면목록'!Q5</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="8" t="s">
+      <c r="AI9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="33" t="str">
+      <c r="B10" s="27" t="str">
         <f>'원본-화면목록'!A6</f>
         <v>대기</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="32">
         <f>'원본-화면목록'!B6</f>
-        <v>44001</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="72" t="str">
+        <v>44003</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="32" t="str">
         <f>'원본-화면목록'!C6</f>
         <v>미정</v>
       </c>
-      <c r="G10" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="72" t="str">
+      <c r="G10" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="32" t="str">
         <f>'원본-화면목록'!D6</f>
         <v>미정</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="16" t="str">
+      <c r="J10" s="11" t="str">
         <f>'원본-화면목록'!E6</f>
         <v>이지은</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="16" t="str">
+      <c r="K10" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="11" t="str">
         <f>'원본-화면목록'!F6</f>
         <v>이지은</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="20" t="str">
+      <c r="N10" s="15" t="str">
         <f>'원본-화면목록'!G6</f>
         <v>P03_020100</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="20" t="str">
+      <c r="P10" s="15" t="str">
         <f>'원본-화면목록'!H6</f>
         <v>메뉴3</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="Q10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="20" t="str">
+      <c r="R10" s="15" t="str">
         <f>'원본-화면목록'!I6</f>
         <v>메뉴3-2</v>
       </c>
-      <c r="S10" s="21" t="s">
+      <c r="S10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T10" s="20" t="str">
+      <c r="T10" s="15" t="str">
         <f>'원본-화면목록'!J6</f>
         <v>메뉴3-2-1</v>
       </c>
-      <c r="U10" s="21" t="s">
+      <c r="U10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="20">
+      <c r="V10" s="15">
         <f>'원본-화면목록'!K6</f>
         <v>0</v>
       </c>
-      <c r="W10" s="21" t="s">
+      <c r="W10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="20">
+      <c r="X10" s="15">
         <f>'원본-화면목록'!L6</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="21" t="s">
+      <c r="Y10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Z10" s="20">
+      <c r="Z10" s="15">
         <f>'원본-화면목록'!M6</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="21" t="s">
+      <c r="AA10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AB10" s="20">
+      <c r="AB10" s="15">
         <f>'원본-화면목록'!N6</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="21" t="s">
+      <c r="AC10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AD10" s="20">
+      <c r="AD10" s="15">
         <f>'원본-화면목록'!O6</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="22" t="s">
+      <c r="AE10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AF10" s="23" t="str">
+      <c r="AF10" s="18" t="str">
         <f>'원본-화면목록'!P6</f>
         <v>/root3</v>
       </c>
-      <c r="AG10" s="22" t="s">
+      <c r="AG10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AH10" s="7">
+      <c r="AH10" s="2">
         <f>'원본-화면목록'!Q6</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="8" t="s">
+      <c r="AI10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:36" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="33" t="str">
+      <c r="B11" s="27" t="str">
         <f>'원본-화면목록'!A7</f>
         <v>대기</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="32">
         <f>'원본-화면목록'!B7</f>
-        <v>44001</v>
-      </c>
-      <c r="E11" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="72" t="str">
+        <v>44004</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="32" t="str">
         <f>'원본-화면목록'!C7</f>
         <v>미정</v>
       </c>
-      <c r="G11" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="H11" s="72" t="str">
+      <c r="G11" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="32" t="str">
         <f>'원본-화면목록'!D7</f>
         <v>미정</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="16" t="str">
+      <c r="J11" s="11" t="str">
         <f>'원본-화면목록'!E7</f>
         <v>이지은</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="L11" s="16" t="str">
+      <c r="K11" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="11" t="str">
         <f>'원본-화면목록'!F7</f>
         <v>이지은</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="20" t="str">
+      <c r="N11" s="15" t="str">
         <f>'원본-화면목록'!G7</f>
         <v>P03_020201</v>
       </c>
-      <c r="O11" s="21" t="s">
+      <c r="O11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="20" t="str">
+      <c r="P11" s="15" t="str">
         <f>'원본-화면목록'!H7</f>
         <v>메뉴3</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="R11" s="20" t="str">
+      <c r="R11" s="15" t="str">
         <f>'원본-화면목록'!I7</f>
         <v>메뉴3-2</v>
       </c>
-      <c r="S11" s="21" t="s">
+      <c r="S11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T11" s="20" t="str">
+      <c r="T11" s="15" t="str">
         <f>'원본-화면목록'!J7</f>
         <v>메뉴3-2-2</v>
       </c>
-      <c r="U11" s="21" t="s">
+      <c r="U11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="V11" s="20" t="str">
+      <c r="V11" s="15" t="str">
         <f>'원본-화면목록'!K7</f>
         <v>메뉴3-2-2-1</v>
       </c>
-      <c r="W11" s="21" t="s">
+      <c r="W11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="X11" s="20">
+      <c r="X11" s="15">
         <f>'원본-화면목록'!L7</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="21" t="s">
+      <c r="Y11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Z11" s="20">
+      <c r="Z11" s="15">
         <f>'원본-화면목록'!M7</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="21" t="s">
+      <c r="AA11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AB11" s="20">
+      <c r="AB11" s="15">
         <f>'원본-화면목록'!N7</f>
         <v>0</v>
       </c>
-      <c r="AC11" s="21" t="s">
+      <c r="AC11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AD11" s="20">
+      <c r="AD11" s="15">
         <f>'원본-화면목록'!O7</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="22" t="s">
+      <c r="AE11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AF11" s="23" t="str">
+      <c r="AF11" s="18" t="str">
         <f>'원본-화면목록'!P7</f>
         <v>/root3</v>
       </c>
-      <c r="AG11" s="22" t="s">
+      <c r="AG11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AH11" s="7">
+      <c r="AH11" s="2">
         <f>'원본-화면목록'!Q7</f>
         <v>0</v>
       </c>
-      <c r="AI11" s="8" t="s">
+      <c r="AI11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:36" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="33" t="str">
+      <c r="B12" s="27" t="str">
         <f>'원본-화면목록'!A8</f>
-        <v>완료</v>
-      </c>
-      <c r="C12" s="8" t="s">
+        <v>대기</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="32">
         <f>'원본-화면목록'!B8</f>
-        <v>44001</v>
-      </c>
-      <c r="E12" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="72">
+        <v>44005</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="32">
         <f>'원본-화면목록'!C8</f>
         <v>43496</v>
       </c>
-      <c r="G12" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" s="72" t="str">
+      <c r="G12" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="32" t="str">
         <f>'원본-화면목록'!D8</f>
         <v>미정</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="16" t="str">
+      <c r="J12" s="11" t="str">
         <f>'원본-화면목록'!E8</f>
         <v>이지은</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="L12" s="16" t="str">
+      <c r="K12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="11" t="str">
         <f>'원본-화면목록'!F8</f>
         <v>이지은</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="20" t="str">
+      <c r="N12" s="15" t="str">
         <f>'원본-화면목록'!G8</f>
         <v>P04_010100</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="20" t="str">
+      <c r="P12" s="15" t="str">
         <f>'원본-화면목록'!H8</f>
         <v>메뉴4</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="Q12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="20" t="str">
+      <c r="R12" s="15" t="str">
         <f>'원본-화면목록'!I8</f>
         <v>메뉴4-1</v>
       </c>
-      <c r="S12" s="21" t="s">
+      <c r="S12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T12" s="20" t="str">
+      <c r="T12" s="15" t="str">
         <f>'원본-화면목록'!J8</f>
         <v>메뉴4-1-1</v>
       </c>
-      <c r="U12" s="21" t="s">
+      <c r="U12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="V12" s="20">
+      <c r="V12" s="15">
         <f>'원본-화면목록'!K8</f>
         <v>0</v>
       </c>
-      <c r="W12" s="21" t="s">
+      <c r="W12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="X12" s="20">
+      <c r="X12" s="15">
         <f>'원본-화면목록'!L8</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="21" t="s">
+      <c r="Y12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Z12" s="20">
+      <c r="Z12" s="15">
         <f>'원본-화면목록'!M8</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="21" t="s">
+      <c r="AA12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AB12" s="20">
+      <c r="AB12" s="15">
         <f>'원본-화면목록'!N8</f>
         <v>0</v>
       </c>
-      <c r="AC12" s="21" t="s">
+      <c r="AC12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AD12" s="20">
+      <c r="AD12" s="15">
         <f>'원본-화면목록'!O8</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="22" t="s">
+      <c r="AE12" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AF12" s="23" t="str">
+      <c r="AF12" s="18" t="str">
         <f>'원본-화면목록'!P8</f>
         <v>/root4</v>
       </c>
-      <c r="AG12" s="22" t="s">
+      <c r="AG12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AH12" s="7">
+      <c r="AH12" s="2">
         <f>'원본-화면목록'!Q8</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="8" t="s">
+      <c r="AI12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:36" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="33" t="str">
+      <c r="B13" s="27" t="str">
         <f>'원본-화면목록'!A9</f>
-        <v>진행</v>
-      </c>
-      <c r="C13" s="8" t="s">
+        <v>대기</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="32">
         <f>'원본-화면목록'!B9</f>
-        <v>44001</v>
-      </c>
-      <c r="E13" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="72">
+        <v>44006</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="32">
         <f>'원본-화면목록'!C9</f>
         <v>43496</v>
       </c>
-      <c r="G13" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" s="72" t="str">
+      <c r="G13" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="32" t="str">
         <f>'원본-화면목록'!D9</f>
         <v>미정</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="16" t="str">
+      <c r="J13" s="11" t="str">
         <f>'원본-화면목록'!E9</f>
         <v>이지은</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="16" t="str">
+      <c r="K13" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="11" t="str">
         <f>'원본-화면목록'!F9</f>
         <v>이지은</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="20" t="str">
+      <c r="N13" s="15" t="str">
         <f>'원본-화면목록'!G9</f>
         <v>P04_010200</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="20" t="str">
+      <c r="P13" s="15" t="str">
         <f>'원본-화면목록'!H9</f>
         <v>메뉴4</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="Q13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="R13" s="20" t="str">
+      <c r="R13" s="15" t="str">
         <f>'원본-화면목록'!I9</f>
         <v>메뉴4-1</v>
       </c>
-      <c r="S13" s="21" t="s">
+      <c r="S13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="20" t="str">
+      <c r="T13" s="15" t="str">
         <f>'원본-화면목록'!J9</f>
         <v>메뉴4-1-2</v>
       </c>
-      <c r="U13" s="21" t="s">
+      <c r="U13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="V13" s="20">
+      <c r="V13" s="15">
         <f>'원본-화면목록'!K9</f>
         <v>0</v>
       </c>
-      <c r="W13" s="21" t="s">
+      <c r="W13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="X13" s="20">
+      <c r="X13" s="15">
         <f>'원본-화면목록'!L9</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="21" t="s">
+      <c r="Y13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Z13" s="20">
+      <c r="Z13" s="15">
         <f>'원본-화면목록'!M9</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="21" t="s">
+      <c r="AA13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AB13" s="20">
+      <c r="AB13" s="15">
         <f>'원본-화면목록'!N9</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="21" t="s">
+      <c r="AC13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AD13" s="20">
+      <c r="AD13" s="15">
         <f>'원본-화면목록'!O9</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="22" t="s">
+      <c r="AE13" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AF13" s="23" t="str">
+      <c r="AF13" s="18" t="str">
         <f>'원본-화면목록'!P9</f>
         <v>/root4</v>
       </c>
-      <c r="AG13" s="22" t="s">
+      <c r="AG13" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AH13" s="7">
+      <c r="AH13" s="2">
         <f>'원본-화면목록'!Q9</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="8" t="s">
+      <c r="AI13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="33" t="str">
+      <c r="B14" s="27" t="str">
         <f>'원본-화면목록'!A10</f>
-        <v>진행</v>
-      </c>
-      <c r="C14" s="8" t="s">
+        <v>대기</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="32">
         <f>'원본-화면목록'!B10</f>
-        <v>44001</v>
-      </c>
-      <c r="E14" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="72">
+        <v>44007</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="32">
         <f>'원본-화면목록'!C10</f>
         <v>43496</v>
       </c>
-      <c r="G14" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="H14" s="72" t="str">
+      <c r="G14" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="32" t="str">
         <f>'원본-화면목록'!D10</f>
         <v>미정</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="16" t="str">
+      <c r="J14" s="11" t="str">
         <f>'원본-화면목록'!E10</f>
         <v>이지은</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="16" t="str">
+      <c r="K14" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="11" t="str">
         <f>'원본-화면목록'!F10</f>
         <v>이지은</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="20" t="str">
+      <c r="N14" s="15" t="str">
         <f>'원본-화면목록'!G10</f>
         <v>P04_020100</v>
       </c>
-      <c r="O14" s="21" t="s">
+      <c r="O14" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="20" t="str">
+      <c r="P14" s="15" t="str">
         <f>'원본-화면목록'!H10</f>
         <v>메뉴4</v>
       </c>
-      <c r="Q14" s="21" t="s">
+      <c r="Q14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="20" t="str">
+      <c r="R14" s="15" t="str">
         <f>'원본-화면목록'!I10</f>
         <v>메뉴4-2</v>
       </c>
-      <c r="S14" s="21" t="s">
+      <c r="S14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T14" s="20" t="str">
+      <c r="T14" s="15" t="str">
         <f>'원본-화면목록'!J10</f>
         <v>메뉴4-2-1</v>
       </c>
-      <c r="U14" s="21" t="s">
+      <c r="U14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="V14" s="20">
+      <c r="V14" s="15">
         <f>'원본-화면목록'!K10</f>
         <v>0</v>
       </c>
-      <c r="W14" s="21" t="s">
+      <c r="W14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="20">
+      <c r="X14" s="15">
         <f>'원본-화면목록'!L10</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="21" t="s">
+      <c r="Y14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Z14" s="20">
+      <c r="Z14" s="15">
         <f>'원본-화면목록'!M10</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="21" t="s">
+      <c r="AA14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AB14" s="20">
+      <c r="AB14" s="15">
         <f>'원본-화면목록'!N10</f>
         <v>0</v>
       </c>
-      <c r="AC14" s="21" t="s">
+      <c r="AC14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AD14" s="20">
+      <c r="AD14" s="15">
         <f>'원본-화면목록'!O10</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="22" t="s">
+      <c r="AE14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AF14" s="23" t="str">
+      <c r="AF14" s="18" t="str">
         <f>'원본-화면목록'!P10</f>
         <v>/root4</v>
       </c>
-      <c r="AG14" s="22" t="s">
+      <c r="AG14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AH14" s="7">
+      <c r="AH14" s="2">
         <f>'원본-화면목록'!Q10</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="8" t="s">
+      <c r="AI14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="33" t="str">
+      <c r="B15" s="27" t="str">
         <f>'원본-화면목록'!A11</f>
         <v>검수</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="72">
+      <c r="D15" s="32">
         <f>'원본-화면목록'!B11</f>
-        <v>44001</v>
-      </c>
-      <c r="E15" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="72">
+        <v>43992</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="32">
         <f>'원본-화면목록'!C11</f>
         <v>43496</v>
       </c>
-      <c r="G15" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" s="72" t="str">
+      <c r="G15" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="32" t="str">
         <f>'원본-화면목록'!D11</f>
         <v>미정</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="16" t="str">
+      <c r="J15" s="11" t="str">
         <f>'원본-화면목록'!E11</f>
         <v>아이유</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="L15" s="16" t="str">
+      <c r="K15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="11" t="str">
         <f>'원본-화면목록'!F11</f>
         <v>이지은</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="20" t="str">
+      <c r="N15" s="15" t="str">
         <f>'원본-화면목록'!G11</f>
         <v>P04_020200</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="20" t="str">
+      <c r="P15" s="15" t="str">
         <f>'원본-화면목록'!H11</f>
         <v>메뉴4</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="Q15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="R15" s="20" t="str">
+      <c r="R15" s="15" t="str">
         <f>'원본-화면목록'!I11</f>
         <v>메뉴4-2</v>
       </c>
-      <c r="S15" s="21" t="s">
+      <c r="S15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T15" s="20" t="str">
+      <c r="T15" s="15" t="str">
         <f>'원본-화면목록'!J11</f>
         <v>메뉴4-2-2</v>
       </c>
-      <c r="U15" s="21" t="s">
+      <c r="U15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="V15" s="20">
+      <c r="V15" s="15">
         <f>'원본-화면목록'!K11</f>
         <v>0</v>
       </c>
-      <c r="W15" s="21" t="s">
+      <c r="W15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="20">
+      <c r="X15" s="15">
         <f>'원본-화면목록'!L11</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="21" t="s">
+      <c r="Y15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Z15" s="20">
+      <c r="Z15" s="15">
         <f>'원본-화면목록'!M11</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="21" t="s">
+      <c r="AA15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AB15" s="20">
+      <c r="AB15" s="15">
         <f>'원본-화면목록'!N11</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="21" t="s">
+      <c r="AC15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AD15" s="20">
+      <c r="AD15" s="15">
         <f>'원본-화면목록'!O11</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="22" t="s">
+      <c r="AE15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AF15" s="23" t="str">
+      <c r="AF15" s="18" t="str">
         <f>'원본-화면목록'!P11</f>
         <v>/root4</v>
       </c>
-      <c r="AG15" s="22" t="s">
+      <c r="AG15" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AH15" s="7">
+      <c r="AH15" s="2">
         <f>'원본-화면목록'!Q11</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="8" t="s">
+      <c r="AI15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:36" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="33" t="str">
+      <c r="B16" s="27" t="str">
         <f>'원본-화면목록'!A12</f>
         <v>검수</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="72">
+      <c r="D16" s="32">
         <f>'원본-화면목록'!B12</f>
-        <v>44001</v>
-      </c>
-      <c r="E16" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="72">
+        <v>44012</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="32">
         <f>'원본-화면목록'!C12</f>
         <v>43496</v>
       </c>
-      <c r="G16" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" s="72" t="str">
+      <c r="G16" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="32" t="str">
         <f>'원본-화면목록'!D12</f>
         <v>미정</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="16" t="str">
+      <c r="J16" s="11" t="str">
         <f>'원본-화면목록'!E12</f>
         <v>아이유</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="L16" s="16" t="str">
+      <c r="K16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="11" t="str">
         <f>'원본-화면목록'!F12</f>
         <v>이지은</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="N16" s="20" t="str">
+      <c r="N16" s="15" t="str">
         <f>'원본-화면목록'!G12</f>
         <v>P05_000000</v>
       </c>
-      <c r="O16" s="21" t="s">
+      <c r="O16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="20" t="str">
+      <c r="P16" s="15" t="str">
         <f>'원본-화면목록'!H12</f>
         <v>메뉴5</v>
       </c>
-      <c r="Q16" s="21" t="s">
+      <c r="Q16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="20" t="str">
+      <c r="R16" s="15" t="str">
         <f>'원본-화면목록'!I12</f>
         <v>메뉴4-2</v>
       </c>
-      <c r="S16" s="21" t="s">
+      <c r="S16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T16" s="20">
+      <c r="T16" s="15">
         <f>'원본-화면목록'!J12</f>
         <v>0</v>
       </c>
-      <c r="U16" s="21" t="s">
+      <c r="U16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="V16" s="20">
+      <c r="V16" s="15">
         <f>'원본-화면목록'!K12</f>
         <v>0</v>
       </c>
-      <c r="W16" s="21" t="s">
+      <c r="W16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="X16" s="20">
+      <c r="X16" s="15">
         <f>'원본-화면목록'!L12</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="21" t="s">
+      <c r="Y16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Z16" s="20">
+      <c r="Z16" s="15">
         <f>'원본-화면목록'!M12</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="21" t="s">
+      <c r="AA16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AB16" s="20">
+      <c r="AB16" s="15">
         <f>'원본-화면목록'!N12</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="21" t="s">
+      <c r="AC16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AD16" s="20">
+      <c r="AD16" s="15">
         <f>'원본-화면목록'!O12</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="22" t="s">
+      <c r="AE16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AF16" s="23" t="str">
+      <c r="AF16" s="18" t="str">
         <f>'원본-화면목록'!P12</f>
         <v>/root5</v>
       </c>
-      <c r="AG16" s="22" t="s">
+      <c r="AG16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AH16" s="7">
+      <c r="AH16" s="2">
         <f>'원본-화면목록'!Q12</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="8" t="s">
+      <c r="AI16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="53"/>
-      <c r="AE17" s="53"/>
-      <c r="AF17" s="53"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="53"/>
+      <c r="A17" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="39"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A1:AI1"/>
     <mergeCell ref="O3:AD3"/>
@@ -3172,20 +3180,6 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3197,126 +3191,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="35" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="67" customWidth="1"/>
-    <col min="3" max="4" width="7.25" style="67" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="35" customWidth="1"/>
-    <col min="6" max="6" width="7" style="35" customWidth="1"/>
-    <col min="7" max="7" width="11" style="39" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="61" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.75" style="61" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="61" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="9" style="61"/>
-    <col min="16" max="16" width="14.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="39"/>
-    <col min="18" max="18" width="5.5" style="39" customWidth="1"/>
-    <col min="19" max="19" width="9" style="39"/>
-    <col min="20" max="24" width="4.625" style="42" customWidth="1"/>
-    <col min="25" max="25" width="4.75" style="62" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="39"/>
+    <col min="1" max="1" width="4.69921875" style="69" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="70" customWidth="1"/>
+    <col min="3" max="4" width="7.19921875" style="70" customWidth="1"/>
+    <col min="5" max="5" width="6.19921875" style="69" customWidth="1"/>
+    <col min="6" max="6" width="7" style="69" customWidth="1"/>
+    <col min="7" max="7" width="11" style="64" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.69921875" style="71" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.09765625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="9" style="71"/>
+    <col min="16" max="16" width="14.09765625" style="64" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="64"/>
+    <col min="18" max="18" width="5.5" style="64" customWidth="1"/>
+    <col min="19" max="19" width="9" style="64"/>
+    <col min="20" max="24" width="4.59765625" style="68" customWidth="1"/>
+    <col min="25" max="25" width="2.09765625" style="63" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="44">
+      <c r="U1" s="51">
         <v>1</v>
       </c>
-      <c r="V1" s="44">
+      <c r="V1" s="51">
         <v>2</v>
       </c>
-      <c r="W1" s="44">
+      <c r="W1" s="51">
         <v>3</v>
       </c>
-      <c r="X1" s="44">
+      <c r="X1" s="51">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A2" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="65">
+      <c r="B2" s="54">
         <v>44001</v>
       </c>
-      <c r="C2" s="65">
+      <c r="C2" s="54">
         <v>44001</v>
       </c>
-      <c r="D2" s="65">
+      <c r="D2" s="54">
         <v>44001</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="36" t="str">
+      <c r="G2" s="56" t="str">
         <f t="shared" ref="G2:G3" si="0">CONCATENATE(T2,U2,"_",V2,W2,X2)</f>
         <v>P01_010000</v>
       </c>
@@ -3332,53 +3326,53 @@
       <c r="M2" s="58"/>
       <c r="N2" s="58"/>
       <c r="O2" s="58"/>
-      <c r="P2" s="32" t="str">
+      <c r="P2" s="59" t="str">
         <f>CONCATENATE(R2,S2)</f>
         <v>/root1/aaa</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="37" t="s">
+      <c r="Q2" s="59"/>
+      <c r="R2" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="S2" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="T2" s="34" t="s">
+      <c r="S2" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="T2" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="U2" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="V2" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="W2" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="38" t="s">
+      <c r="X2" s="62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="65">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A3" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="54">
         <v>43992</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="36" t="str">
+      <c r="G3" s="56" t="str">
         <f t="shared" si="0"/>
         <v>P01_020000</v>
       </c>
@@ -3394,53 +3388,53 @@
       <c r="M3" s="58"/>
       <c r="N3" s="58"/>
       <c r="O3" s="58"/>
-      <c r="P3" s="32" t="str">
+      <c r="P3" s="59" t="str">
         <f t="shared" ref="P3:P12" si="1">CONCATENATE(R3,S3)</f>
         <v>/root1</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="37" t="s">
+      <c r="Q3" s="59"/>
+      <c r="R3" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="T3" s="34" t="s">
+      <c r="T3" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="38" t="s">
+      <c r="U3" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="38" t="s">
+      <c r="V3" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="38" t="s">
+      <c r="W3" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="38" t="s">
+      <c r="X3" s="62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="65">
-        <v>44003</v>
-      </c>
-      <c r="C4" s="65" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A4" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="54">
+        <v>44001</v>
+      </c>
+      <c r="C4" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="36" t="str">
+      <c r="G4" s="56" t="str">
         <f>CONCATENATE(T4,U4,"_",V4,W4,X4)</f>
         <v>P02_000000</v>
       </c>
@@ -3450,1234 +3444,1225 @@
       <c r="I4" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
       <c r="L4" s="58"/>
       <c r="M4" s="58"/>
       <c r="N4" s="58"/>
       <c r="O4" s="58"/>
-      <c r="P4" s="32" t="str">
+      <c r="P4" s="59" t="str">
         <f t="shared" ref="P4" si="2">CONCATENATE(R4,S4)</f>
         <v>/root2</v>
       </c>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="37" t="s">
+      <c r="Q4" s="59"/>
+      <c r="R4" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="S4" s="37" t="s">
+      <c r="S4" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="T4" s="34" t="s">
+      <c r="T4" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="38" t="s">
+      <c r="U4" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="V4" s="38" t="s">
+      <c r="V4" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="38" t="s">
+      <c r="W4" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="X4" s="38" t="s">
+      <c r="X4" s="62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="65">
-        <v>44012</v>
-      </c>
-      <c r="C5" s="65" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A5" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="54">
+        <v>44002</v>
+      </c>
+      <c r="C5" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="36" t="str">
+      <c r="G5" s="56" t="str">
         <f t="shared" ref="G5:G12" si="3">CONCATENATE(T5,U5,"_",V5,W5,X5)</f>
         <v>P03_010000</v>
       </c>
       <c r="H5" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
       <c r="L5" s="58"/>
       <c r="M5" s="58"/>
       <c r="N5" s="58"/>
       <c r="O5" s="58"/>
-      <c r="P5" s="32" t="str">
+      <c r="P5" s="59" t="str">
         <f t="shared" si="1"/>
         <v>/root3</v>
       </c>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="37" t="s">
+      <c r="Q5" s="59"/>
+      <c r="R5" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="S5" s="37" t="s">
+      <c r="S5" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="U5" s="38" t="s">
+      <c r="U5" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="V5" s="38" t="s">
+      <c r="V5" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="38" t="s">
+      <c r="W5" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="X5" s="38" t="s">
+      <c r="X5" s="62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="65">
-        <v>44001</v>
-      </c>
-      <c r="C6" s="65" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A6" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="54">
+        <v>44003</v>
+      </c>
+      <c r="C6" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="36" t="str">
+      <c r="E6" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="56" t="str">
         <f t="shared" si="3"/>
         <v>P03_020100</v>
       </c>
       <c r="H6" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="59"/>
+      <c r="K6" s="65"/>
       <c r="L6" s="58"/>
       <c r="M6" s="58"/>
       <c r="N6" s="58"/>
       <c r="O6" s="58"/>
-      <c r="P6" s="32" t="str">
+      <c r="P6" s="59" t="str">
         <f t="shared" si="1"/>
         <v>/root3</v>
       </c>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="37" t="s">
+      <c r="Q6" s="59"/>
+      <c r="R6" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="S6" s="37" t="s">
+      <c r="S6" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="T6" s="34" t="s">
+      <c r="T6" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="U6" s="38" t="s">
+      <c r="U6" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="V6" s="38" t="s">
+      <c r="V6" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="W6" s="38" t="s">
+      <c r="W6" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="X6" s="38" t="s">
+      <c r="X6" s="62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="65">
-        <v>44001</v>
-      </c>
-      <c r="C7" s="65" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A7" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="54">
+        <v>44004</v>
+      </c>
+      <c r="C7" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="36" t="str">
+      <c r="E7" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="56" t="str">
         <f t="shared" si="3"/>
         <v>P03_020201</v>
       </c>
       <c r="H7" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="59" t="s">
+      <c r="J7" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" s="65" t="s">
         <v>71</v>
       </c>
       <c r="L7" s="58"/>
       <c r="M7" s="58"/>
       <c r="N7" s="58"/>
       <c r="O7" s="58"/>
-      <c r="P7" s="32" t="str">
+      <c r="P7" s="59" t="str">
         <f t="shared" si="1"/>
         <v>/root3</v>
       </c>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="37" t="s">
+      <c r="Q7" s="59"/>
+      <c r="R7" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="S7" s="37" t="s">
+      <c r="S7" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="T7" s="34" t="s">
+      <c r="T7" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="38" t="s">
+      <c r="U7" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="38" t="s">
+      <c r="V7" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="W7" s="38" t="s">
+      <c r="W7" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="X7" s="38" t="s">
+      <c r="X7" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="Y7" s="63"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="65">
-        <v>44001</v>
-      </c>
-      <c r="C8" s="65">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A8" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="54">
+        <v>44005</v>
+      </c>
+      <c r="C8" s="54">
         <v>43496</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="36" t="str">
+      <c r="E8" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="56" t="str">
         <f t="shared" si="3"/>
         <v>P04_010100</v>
       </c>
       <c r="H8" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="60"/>
+      <c r="K8" s="66"/>
       <c r="L8" s="58"/>
       <c r="M8" s="58"/>
       <c r="N8" s="58"/>
       <c r="O8" s="58"/>
-      <c r="P8" s="32" t="str">
+      <c r="P8" s="59" t="str">
         <f t="shared" si="1"/>
         <v>/root4</v>
       </c>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="37" t="s">
+      <c r="Q8" s="59"/>
+      <c r="R8" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="S8" s="37" t="s">
+      <c r="S8" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="T8" s="34" t="s">
+      <c r="T8" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="38" t="s">
+      <c r="U8" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="V8" s="38" t="s">
+      <c r="V8" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="W8" s="38" t="s">
+      <c r="W8" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="X8" s="38" t="s">
+      <c r="X8" s="62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A9" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="65">
-        <v>44001</v>
-      </c>
-      <c r="C9" s="65">
+      <c r="B9" s="54">
+        <v>44006</v>
+      </c>
+      <c r="C9" s="54">
         <v>43496</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="36" t="str">
+      <c r="E9" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="56" t="str">
         <f t="shared" si="3"/>
         <v>P04_010200</v>
       </c>
       <c r="H9" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="60"/>
+      <c r="K9" s="66"/>
       <c r="L9" s="58"/>
       <c r="M9" s="58"/>
       <c r="N9" s="58"/>
       <c r="O9" s="58"/>
-      <c r="P9" s="32" t="str">
+      <c r="P9" s="59" t="str">
         <f t="shared" si="1"/>
         <v>/root4</v>
       </c>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="37" t="s">
+      <c r="Q9" s="59"/>
+      <c r="R9" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="S9" s="37" t="s">
+      <c r="S9" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="T9" s="34" t="s">
+      <c r="T9" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="U9" s="38" t="s">
+      <c r="U9" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="V9" s="38" t="s">
+      <c r="V9" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="W9" s="38" t="s">
+      <c r="W9" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="X9" s="38" t="s">
+      <c r="X9" s="62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A10" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="65">
-        <v>44001</v>
-      </c>
-      <c r="C10" s="65">
+      <c r="B10" s="54">
+        <v>44007</v>
+      </c>
+      <c r="C10" s="54">
         <v>43496</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="36" t="str">
+      <c r="E10" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="56" t="str">
         <f t="shared" si="3"/>
         <v>P04_020100</v>
       </c>
       <c r="H10" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="59" t="s">
+      <c r="J10" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="60"/>
+      <c r="K10" s="66"/>
       <c r="L10" s="58"/>
       <c r="M10" s="58"/>
       <c r="N10" s="58"/>
       <c r="O10" s="58"/>
-      <c r="P10" s="32" t="str">
+      <c r="P10" s="59" t="str">
         <f t="shared" si="1"/>
         <v>/root4</v>
       </c>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="37" t="s">
+      <c r="Q10" s="59"/>
+      <c r="R10" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="S10" s="37" t="s">
+      <c r="S10" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="T10" s="34" t="s">
+      <c r="T10" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="U10" s="38" t="s">
+      <c r="U10" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="V10" s="38" t="s">
+      <c r="V10" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="W10" s="38" t="s">
+      <c r="W10" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="X10" s="38" t="s">
+      <c r="X10" s="62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A11" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="54">
+        <v>43992</v>
+      </c>
+      <c r="C11" s="54">
+        <v>43496</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="65">
-        <v>44001</v>
-      </c>
-      <c r="C11" s="65">
-        <v>43496</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="36" t="str">
+      <c r="G11" s="56" t="str">
         <f t="shared" si="3"/>
         <v>P04_020200</v>
       </c>
       <c r="H11" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="59" t="s">
+      <c r="J11" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="60"/>
+      <c r="K11" s="66"/>
       <c r="L11" s="58"/>
       <c r="M11" s="58"/>
       <c r="N11" s="58"/>
       <c r="O11" s="58"/>
-      <c r="P11" s="32" t="str">
+      <c r="P11" s="59" t="str">
         <f t="shared" si="1"/>
         <v>/root4</v>
       </c>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="37" t="s">
+      <c r="Q11" s="59"/>
+      <c r="R11" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="S11" s="37" t="s">
+      <c r="S11" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="T11" s="34" t="s">
+      <c r="T11" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="U11" s="38" t="s">
+      <c r="U11" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="V11" s="38" t="s">
+      <c r="V11" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="W11" s="38" t="s">
+      <c r="W11" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="X11" s="38" t="s">
+      <c r="X11" s="62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A12" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="54">
+        <v>44012</v>
+      </c>
+      <c r="C12" s="54">
+        <v>43496</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="65">
-        <v>44001</v>
-      </c>
-      <c r="C12" s="65">
-        <v>43496</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="36" t="str">
+      <c r="G12" s="56" t="str">
         <f t="shared" si="3"/>
         <v>P05_000000</v>
       </c>
       <c r="H12" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="59"/>
-      <c r="K12" s="60"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="66"/>
       <c r="L12" s="58"/>
       <c r="M12" s="58"/>
       <c r="N12" s="58"/>
       <c r="O12" s="58"/>
-      <c r="P12" s="32" t="str">
+      <c r="P12" s="59" t="str">
         <f t="shared" si="1"/>
         <v>/root5</v>
       </c>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="37" t="s">
+      <c r="Q12" s="59"/>
+      <c r="R12" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="S12" s="37" t="s">
+      <c r="S12" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="T12" s="34" t="s">
+      <c r="T12" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="U12" s="38" t="s">
+      <c r="U12" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="V12" s="38" t="s">
+      <c r="V12" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="W12" s="38" t="s">
+      <c r="W12" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="X12" s="38" t="s">
+      <c r="X12" s="62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
+    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="53"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
       <c r="L13" s="58"/>
       <c r="M13" s="58"/>
       <c r="N13" s="58"/>
       <c r="O13" s="58"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+    </row>
+    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="53"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
       <c r="L14" s="58"/>
       <c r="M14" s="58"/>
       <c r="N14" s="58"/>
       <c r="O14" s="58"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+    </row>
+    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="53"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
       <c r="L15" s="58"/>
       <c r="M15" s="58"/>
       <c r="N15" s="58"/>
       <c r="O15" s="58"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+    </row>
+    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
       <c r="L16" s="58"/>
       <c r="M16" s="58"/>
       <c r="N16" s="58"/>
       <c r="O16" s="58"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-    </row>
-    <row r="17" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+    </row>
+    <row r="17" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="53"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
       <c r="L17" s="58"/>
       <c r="M17" s="58"/>
       <c r="N17" s="58"/>
       <c r="O17" s="58"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-    </row>
-    <row r="18" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+    </row>
+    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="53"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
       <c r="L18" s="58"/>
       <c r="M18" s="58"/>
       <c r="N18" s="58"/>
       <c r="O18" s="58"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="63"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+    </row>
+    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="53"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
       <c r="L19" s="58"/>
       <c r="M19" s="58"/>
       <c r="N19" s="58"/>
       <c r="O19" s="58"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+    </row>
+    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="53"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
       <c r="L20" s="58"/>
       <c r="M20" s="58"/>
       <c r="N20" s="58"/>
       <c r="O20" s="58"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+    </row>
+    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="53"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
       <c r="L21" s="58"/>
       <c r="M21" s="58"/>
       <c r="N21" s="58"/>
       <c r="O21" s="58"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+    </row>
+    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="53"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
       <c r="L22" s="58"/>
       <c r="M22" s="58"/>
       <c r="N22" s="58"/>
       <c r="O22" s="58"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+    </row>
+    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="53"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
       <c r="L23" s="58"/>
       <c r="M23" s="58"/>
       <c r="N23" s="58"/>
       <c r="O23" s="58"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+    </row>
+    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="53"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
       <c r="L24" s="58"/>
       <c r="M24" s="58"/>
       <c r="N24" s="58"/>
       <c r="O24" s="58"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+    </row>
+    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="53"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
       <c r="L25" s="58"/>
       <c r="M25" s="58"/>
       <c r="N25" s="58"/>
       <c r="O25" s="58"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-    </row>
-    <row r="26" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+    </row>
+    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="53"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
       <c r="L26" s="58"/>
       <c r="M26" s="58"/>
       <c r="N26" s="58"/>
       <c r="O26" s="58"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="63"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+    </row>
+    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="53"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
       <c r="L27" s="58"/>
       <c r="M27" s="58"/>
       <c r="N27" s="58"/>
       <c r="O27" s="58"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+    </row>
+    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="53"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
       <c r="L28" s="58"/>
       <c r="M28" s="58"/>
       <c r="N28" s="58"/>
       <c r="O28" s="58"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-    </row>
-    <row r="29" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+    </row>
+    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="53"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
       <c r="L29" s="58"/>
       <c r="M29" s="58"/>
       <c r="N29" s="58"/>
       <c r="O29" s="58"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="63"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+    </row>
+    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="53"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
       <c r="L30" s="58"/>
       <c r="M30" s="58"/>
       <c r="N30" s="58"/>
       <c r="O30" s="58"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+    </row>
+    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="53"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
       <c r="L31" s="58"/>
       <c r="M31" s="58"/>
       <c r="N31" s="58"/>
       <c r="O31" s="58"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-    </row>
-    <row r="32" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+    </row>
+    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="53"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
       <c r="L32" s="58"/>
       <c r="M32" s="58"/>
       <c r="N32" s="58"/>
       <c r="O32" s="58"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="63"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+    </row>
+    <row r="33" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="53"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
       <c r="L33" s="58"/>
       <c r="M33" s="58"/>
       <c r="N33" s="58"/>
       <c r="O33" s="58"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+    </row>
+    <row r="34" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="53"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
       <c r="L34" s="58"/>
       <c r="M34" s="58"/>
       <c r="N34" s="58"/>
       <c r="O34" s="58"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="38"/>
-      <c r="X34" s="38"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+    </row>
+    <row r="35" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="53"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
       <c r="L35" s="58"/>
       <c r="M35" s="58"/>
       <c r="N35" s="58"/>
       <c r="O35" s="58"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+    </row>
+    <row r="36" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="53"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
       <c r="L36" s="58"/>
       <c r="M36" s="58"/>
       <c r="N36" s="58"/>
       <c r="O36" s="58"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="62"/>
+    </row>
+    <row r="37" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="53"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
       <c r="L37" s="58"/>
       <c r="M37" s="58"/>
       <c r="N37" s="58"/>
       <c r="O37" s="58"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="62"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="62"/>
+    </row>
+    <row r="38" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="53"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
       <c r="L38" s="58"/>
       <c r="M38" s="58"/>
       <c r="N38" s="58"/>
       <c r="O38" s="58"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="62"/>
+      <c r="V38" s="62"/>
+      <c r="W38" s="62"/>
+      <c r="X38" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="대기">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="대기">
       <formula>NOT(ISERROR(SEARCH("대기",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4692,7 +4677,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data/codinglist.xlsx
+++ b/resources/data/codinglist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="169">
   <si>
     <t>]}</t>
   </si>
@@ -203,275 +203,441 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>dep</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴1-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴1-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴3-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴3-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴3-2-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴3-2-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴4-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴4-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴4-1-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴4-1-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴4-2-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴4-2-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴3-2-2-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>root1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>root2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>root3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>root4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>root5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이유</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지은</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"list":[</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enddate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>","dev":"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 개발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>d1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>d2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>d3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>d4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>d5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>d6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>","enddate":"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>d7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>d8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴구조</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지은</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>moddate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>","moddate":"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>","moddate":"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>검수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>03</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>04</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>dep</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>05</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴1-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴1-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴3-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴3-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴3-2-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴3-2-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴4-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴4-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴4-1-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴4-1-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴4-2-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴4-2-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴3-2-2-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
   <si>
     <t>root1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>root2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>root3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>root4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>root5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>대기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>검수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이유</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이지은</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"list":[</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>enddate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>","dev":"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 개발</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>d1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>d2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>d3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>d4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>d5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>d6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>","enddate":"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>d7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>d8</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>root</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>memo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>경로</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴구조</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>root1/aaa</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이지은</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>moddate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>","moddate":"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>","moddate":"</t>
+    <t>메뉴6</t>
+  </si>
+  <si>
+    <t>메뉴5-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴5-2</t>
+  </si>
+  <si>
+    <t>메뉴5-3</t>
+  </si>
+  <si>
+    <t>메뉴5-4</t>
+  </si>
+  <si>
+    <t>메뉴5-5</t>
+  </si>
+  <si>
+    <t>메뉴5-6</t>
+  </si>
+  <si>
+    <t>메뉴5-7</t>
+  </si>
+  <si>
+    <t>메뉴5-8</t>
+  </si>
+  <si>
+    <t>메뉴5-9</t>
+  </si>
+  <si>
+    <t>메뉴6-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴6-2</t>
+  </si>
+  <si>
+    <t>메뉴6-3</t>
+  </si>
+  <si>
+    <t>메뉴6-4</t>
+  </si>
+  <si>
+    <t>메뉴6-5</t>
+  </si>
+  <si>
+    <t>메뉴6-6</t>
+  </si>
+  <si>
+    <t>메뉴6-7</t>
+  </si>
+  <si>
+    <t>메뉴6-8</t>
+  </si>
+  <si>
+    <t>메뉴6-9</t>
+  </si>
+  <si>
+    <t>메뉴6-10</t>
+  </si>
+  <si>
+    <t>메뉴4-3</t>
+  </si>
+  <si>
+    <t>메뉴4-4</t>
+  </si>
+  <si>
+    <t>김개발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>박개발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이개발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>최개발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>유개발</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -825,7 +991,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -907,9 +1073,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -929,39 +1092,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="9" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1042,6 +1172,39 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="9" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
@@ -1050,7 +1213,42 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1384,11 +1582,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:AI17"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A4:AI37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
@@ -1396,11 +1594,11 @@
     <col min="1" max="1" width="1.69921875" style="3" customWidth="1"/>
     <col min="2" max="2" width="4.09765625" style="20" customWidth="1"/>
     <col min="3" max="3" width="1.69921875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.69921875" style="33" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.69921875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.69921875" style="32" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="1.69921875" style="32" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="33" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="1.69921875" style="3" customWidth="1"/>
     <col min="10" max="10" width="5.5" style="20" customWidth="1"/>
     <col min="11" max="11" width="1.69921875" style="20" customWidth="1"/>
@@ -1433,212 +1631,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
     </row>
     <row r="2" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44" t="s">
+      <c r="A2" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="70"/>
+      <c r="I2" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44" t="s">
+      <c r="L2" s="69"/>
+      <c r="M2" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44" t="s">
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44" t="s">
+      <c r="V2" s="69"/>
+      <c r="W2" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44" t="s">
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44" t="s">
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44" t="s">
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44" t="s">
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="28"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="27"/>
     </row>
     <row r="3" spans="1:36" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="35" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="42" t="s">
+      <c r="F3" s="63"/>
+      <c r="G3" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="63"/>
+      <c r="I3" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43" t="s">
+      <c r="J3" s="67"/>
+      <c r="K3" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="67"/>
+      <c r="M3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="29"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="28"/>
     </row>
-    <row r="4" spans="1:36" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="41"/>
+    <row r="4" spans="1:36" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="62"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
@@ -1650,20 +1848,20 @@
       <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="30" t="s">
+      <c r="E5" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>111</v>
+      <c r="G5" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>106</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>34</v>
@@ -1672,10 +1870,10 @@
         <v>37</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>30</v>
@@ -1745,7 +1943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1756,23 +1954,23 @@
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <f>'원본-화면목록'!B2</f>
-        <v>44001</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="32">
+        <v>44013</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="31">
         <f>'원본-화면목록'!C2</f>
-        <v>44001</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="32">
+        <v>44013</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="31">
         <f>'원본-화면목록'!D2</f>
-        <v>44001</v>
+        <v>44013</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>34</v>
@@ -1782,18 +1980,18 @@
         <v>아이유</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L6" s="11" t="str">
         <f>'원본-화면목록'!F2</f>
-        <v>이지은</v>
+        <v>김개발</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="15" t="str">
         <f>'원본-화면목록'!G2</f>
-        <v>P01_010000</v>
+        <v>P01_000000</v>
       </c>
       <c r="O6" s="16" t="s">
         <v>4</v>
@@ -1856,7 +2054,7 @@
       </c>
       <c r="AF6" s="18" t="str">
         <f>'원본-화면목록'!P2</f>
-        <v>/root1/aaa</v>
+        <v>/root1</v>
       </c>
       <c r="AG6" s="17" t="s">
         <v>43</v>
@@ -1869,34 +2067,34 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="27" t="str">
+      <c r="B7" s="26" t="str">
         <f>'원본-화면목록'!A3</f>
-        <v>대기</v>
+        <v>검수</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <f>'원본-화면목록'!B3</f>
-        <v>43992</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="32" t="str">
+        <v>44014</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="31">
         <f>'원본-화면목록'!C3</f>
-        <v>미정</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="32" t="str">
+        <v>44013</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="31">
         <f>'원본-화면목록'!D3</f>
-        <v>미정</v>
+        <v>44013</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>34</v>
@@ -1906,18 +2104,18 @@
         <v>아이유</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L7" s="11" t="str">
         <f>'원본-화면목록'!F3</f>
-        <v>이지은</v>
+        <v>김개발</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="15" t="str">
         <f>'원본-화면목록'!G3</f>
-        <v>P01_020000</v>
+        <v>P02_000000</v>
       </c>
       <c r="O7" s="16" t="s">
         <v>4</v>
@@ -1993,32 +2191,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="27" t="str">
+      <c r="B8" s="26" t="str">
         <f>'원본-화면목록'!A4</f>
         <v>대기</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <f>'원본-화면목록'!B4</f>
-        <v>44001</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="32" t="str">
+        <v>44015</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="31" t="str">
         <f>'원본-화면목록'!C4</f>
         <v>미정</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="32" t="str">
+      <c r="G8" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="31" t="str">
         <f>'원본-화면목록'!D4</f>
         <v>미정</v>
       </c>
@@ -2030,18 +2228,18 @@
         <v>아이유</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L8" s="11" t="str">
         <f>'원본-화면목록'!F4</f>
-        <v>이지은</v>
+        <v>김개발</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="15" t="str">
         <f>'원본-화면목록'!G4</f>
-        <v>P02_000000</v>
+        <v>P03_000000</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>4</v>
@@ -2117,32 +2315,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="27" t="str">
+      <c r="B9" s="26" t="str">
         <f>'원본-화면목록'!A5</f>
         <v>대기</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <f>'원본-화면목록'!B5</f>
-        <v>44002</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="32" t="str">
+        <v>44016</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="31" t="str">
         <f>'원본-화면목록'!C5</f>
         <v>미정</v>
       </c>
-      <c r="G9" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="H9" s="32" t="str">
+      <c r="G9" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="31" t="str">
         <f>'원본-화면목록'!D5</f>
         <v>미정</v>
       </c>
@@ -2154,18 +2352,18 @@
         <v>아이유</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L9" s="11" t="str">
         <f>'원본-화면목록'!F5</f>
-        <v>이지은</v>
+        <v>유개발</v>
       </c>
       <c r="M9" s="14" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="15" t="str">
         <f>'원본-화면목록'!G5</f>
-        <v>P03_010000</v>
+        <v>P04_000000</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>4</v>
@@ -2241,32 +2439,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="27" t="str">
+      <c r="B10" s="26" t="str">
         <f>'원본-화면목록'!A6</f>
         <v>대기</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <f>'원본-화면목록'!B6</f>
-        <v>44003</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="32" t="str">
+        <v>44017</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="31" t="str">
         <f>'원본-화면목록'!C6</f>
         <v>미정</v>
       </c>
-      <c r="G10" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="32" t="str">
+      <c r="G10" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="31" t="str">
         <f>'원본-화면목록'!D6</f>
         <v>미정</v>
       </c>
@@ -2278,18 +2476,18 @@
         <v>이지은</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L10" s="11" t="str">
         <f>'원본-화면목록'!F6</f>
-        <v>이지은</v>
+        <v>김개발</v>
       </c>
       <c r="M10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="15" t="str">
         <f>'원본-화면목록'!G6</f>
-        <v>P03_020100</v>
+        <v>P05_000100</v>
       </c>
       <c r="O10" s="16" t="s">
         <v>4</v>
@@ -2365,32 +2563,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="27" t="str">
+      <c r="B11" s="26" t="str">
         <f>'원본-화면목록'!A7</f>
         <v>대기</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="31">
         <f>'원본-화면목록'!B7</f>
-        <v>44004</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="32" t="str">
+        <v>44018</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="31" t="str">
         <f>'원본-화면목록'!C7</f>
         <v>미정</v>
       </c>
-      <c r="G11" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="H11" s="32" t="str">
+      <c r="G11" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="31" t="str">
         <f>'원본-화면목록'!D7</f>
         <v>미정</v>
       </c>
@@ -2402,18 +2600,18 @@
         <v>이지은</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L11" s="11" t="str">
         <f>'원본-화면목록'!F7</f>
-        <v>이지은</v>
+        <v>이개발</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>3</v>
       </c>
       <c r="N11" s="15" t="str">
         <f>'원본-화면목록'!G7</f>
-        <v>P03_020201</v>
+        <v>P06_000201</v>
       </c>
       <c r="O11" s="16" t="s">
         <v>4</v>
@@ -2489,32 +2687,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="27" t="str">
+      <c r="B12" s="26" t="str">
         <f>'원본-화면목록'!A8</f>
         <v>대기</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <f>'원본-화면목록'!B8</f>
-        <v>44005</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="32">
+        <v>44019</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="31" t="str">
         <f>'원본-화면목록'!C8</f>
-        <v>43496</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="32" t="str">
+        <v>미정</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="31" t="str">
         <f>'원본-화면목록'!D8</f>
         <v>미정</v>
       </c>
@@ -2526,18 +2724,18 @@
         <v>이지은</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L12" s="11" t="str">
         <f>'원본-화면목록'!F8</f>
-        <v>이지은</v>
+        <v>김개발</v>
       </c>
       <c r="M12" s="14" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="15" t="str">
         <f>'원본-화면목록'!G8</f>
-        <v>P04_010100</v>
+        <v>P07_000100</v>
       </c>
       <c r="O12" s="16" t="s">
         <v>4</v>
@@ -2613,32 +2811,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="27" t="str">
+      <c r="B13" s="26" t="str">
         <f>'원본-화면목록'!A9</f>
         <v>대기</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="31">
         <f>'원본-화면목록'!B9</f>
-        <v>44006</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="32">
+        <v>44020</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="31" t="str">
         <f>'원본-화면목록'!C9</f>
-        <v>43496</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="32" t="str">
+        <v>미정</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="31" t="str">
         <f>'원본-화면목록'!D9</f>
         <v>미정</v>
       </c>
@@ -2650,18 +2848,18 @@
         <v>이지은</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L13" s="11" t="str">
         <f>'원본-화면목록'!F9</f>
-        <v>이지은</v>
+        <v>최개발</v>
       </c>
       <c r="M13" s="14" t="s">
         <v>3</v>
       </c>
       <c r="N13" s="15" t="str">
         <f>'원본-화면목록'!G9</f>
-        <v>P04_010200</v>
+        <v>P08_000200</v>
       </c>
       <c r="O13" s="16" t="s">
         <v>4</v>
@@ -2737,32 +2935,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="27" t="str">
+      <c r="B14" s="26" t="str">
         <f>'원본-화면목록'!A10</f>
         <v>대기</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="31">
         <f>'원본-화면목록'!B10</f>
-        <v>44007</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="32">
+        <v>44021</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="31" t="str">
         <f>'원본-화면목록'!C10</f>
-        <v>43496</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" s="32" t="str">
+        <v>미정</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="31" t="str">
         <f>'원본-화면목록'!D10</f>
         <v>미정</v>
       </c>
@@ -2774,18 +2972,18 @@
         <v>이지은</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L14" s="11" t="str">
         <f>'원본-화면목록'!F10</f>
-        <v>이지은</v>
+        <v>김개발</v>
       </c>
       <c r="M14" s="14" t="s">
         <v>3</v>
       </c>
       <c r="N14" s="15" t="str">
         <f>'원본-화면목록'!G10</f>
-        <v>P04_020100</v>
+        <v>P09_000100</v>
       </c>
       <c r="O14" s="16" t="s">
         <v>4</v>
@@ -2861,32 +3059,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="27" t="str">
+      <c r="B15" s="26" t="str">
         <f>'원본-화면목록'!A11</f>
-        <v>검수</v>
+        <v>대기</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="31">
         <f>'원본-화면목록'!B11</f>
-        <v>43992</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="32">
+        <v>44022</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="31" t="str">
         <f>'원본-화면목록'!C11</f>
-        <v>43496</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" s="32" t="str">
+        <v>미정</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="31" t="str">
         <f>'원본-화면목록'!D11</f>
         <v>미정</v>
       </c>
@@ -2898,18 +3096,18 @@
         <v>아이유</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L15" s="11" t="str">
         <f>'원본-화면목록'!F11</f>
-        <v>이지은</v>
+        <v>김개발</v>
       </c>
       <c r="M15" s="14" t="s">
         <v>3</v>
       </c>
       <c r="N15" s="15" t="str">
         <f>'원본-화면목록'!G11</f>
-        <v>P04_020200</v>
+        <v>P10_000200</v>
       </c>
       <c r="O15" s="16" t="s">
         <v>4</v>
@@ -2985,32 +3183,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="27" t="str">
+      <c r="B16" s="26" t="str">
         <f>'원본-화면목록'!A12</f>
-        <v>검수</v>
+        <v>대기</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="31">
         <f>'원본-화면목록'!B12</f>
-        <v>44012</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="32">
+        <v>44023</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="31" t="str">
         <f>'원본-화면목록'!C12</f>
-        <v>43496</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="32" t="str">
+        <v>미정</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="31" t="str">
         <f>'원본-화면목록'!D12</f>
         <v>미정</v>
       </c>
@@ -3022,32 +3220,32 @@
         <v>아이유</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L16" s="11" t="str">
         <f>'원본-화면목록'!F12</f>
-        <v>이지은</v>
+        <v>김개발</v>
       </c>
       <c r="M16" s="14" t="s">
         <v>3</v>
       </c>
       <c r="N16" s="15" t="str">
         <f>'원본-화면목록'!G12</f>
-        <v>P05_000000</v>
+        <v>P11_000000</v>
       </c>
       <c r="O16" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P16" s="15" t="str">
         <f>'원본-화면목록'!H12</f>
-        <v>메뉴5</v>
+        <v>메뉴4</v>
       </c>
       <c r="Q16" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R16" s="15" t="str">
         <f>'원본-화면목록'!I12</f>
-        <v>메뉴4-2</v>
+        <v>메뉴4-3</v>
       </c>
       <c r="S16" s="16" t="s">
         <v>6</v>
@@ -3109,47 +3307,2527 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="39"/>
+    <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="26" t="str">
+        <f>'원본-화면목록'!A13</f>
+        <v>대기</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="31">
+        <f>'원본-화면목록'!B13</f>
+        <v>44024</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="31" t="str">
+        <f>'원본-화면목록'!C13</f>
+        <v>미정</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="31" t="str">
+        <f>'원본-화면목록'!D13</f>
+        <v>미정</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="11" t="str">
+        <f>'원본-화면목록'!E13</f>
+        <v>아이유</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" s="11" t="str">
+        <f>'원본-화면목록'!F13</f>
+        <v>김개발</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="15" t="str">
+        <f>'원본-화면목록'!G13</f>
+        <v>P12_000200</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="15" t="str">
+        <f>'원본-화면목록'!H13</f>
+        <v>메뉴4</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="15" t="str">
+        <f>'원본-화면목록'!I13</f>
+        <v>메뉴4-4</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" s="15">
+        <f>'원본-화면목록'!J13</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V17" s="15">
+        <f>'원본-화면목록'!K13</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X17" s="15">
+        <f>'원본-화면목록'!L13</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z17" s="15">
+        <f>'원본-화면목록'!M13</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB17" s="15">
+        <f>'원본-화면목록'!N13</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD17" s="15">
+        <f>'원본-화면목록'!O13</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF17" s="18" t="str">
+        <f>'원본-화면목록'!P13</f>
+        <v>/root4</v>
+      </c>
+      <c r="AG17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH17" s="2">
+        <f>'원본-화면목록'!Q13</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="26" t="str">
+        <f>'원본-화면목록'!A14</f>
+        <v>대기</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="31">
+        <f>'원본-화면목록'!B14</f>
+        <v>44025</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="31" t="str">
+        <f>'원본-화면목록'!C14</f>
+        <v>미정</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="31" t="str">
+        <f>'원본-화면목록'!D14</f>
+        <v>미정</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="11" t="str">
+        <f>'원본-화면목록'!E14</f>
+        <v>아이유</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="11" t="str">
+        <f>'원본-화면목록'!F14</f>
+        <v>박개발</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="15" t="str">
+        <f>'원본-화면목록'!G14</f>
+        <v>P13_000000</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="15" t="str">
+        <f>'원본-화면목록'!H14</f>
+        <v>메뉴5</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="15" t="str">
+        <f>'원본-화면목록'!I14</f>
+        <v>메뉴5-1</v>
+      </c>
+      <c r="S18" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T18" s="15">
+        <f>'원본-화면목록'!J14</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V18" s="15">
+        <f>'원본-화면목록'!K14</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X18" s="15">
+        <f>'원본-화면목록'!L14</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z18" s="15">
+        <f>'원본-화면목록'!M14</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB18" s="15">
+        <f>'원본-화면목록'!N14</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD18" s="15">
+        <f>'원본-화면목록'!O14</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF18" s="18" t="str">
+        <f>'원본-화면목록'!P14</f>
+        <v>/root5</v>
+      </c>
+      <c r="AG18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH18" s="2">
+        <f>'원본-화면목록'!Q14</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="26" t="str">
+        <f>'원본-화면목록'!A15</f>
+        <v>대기</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="31">
+        <f>'원본-화면목록'!B15</f>
+        <v>44026</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="31" t="str">
+        <f>'원본-화면목록'!C15</f>
+        <v>미정</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="31" t="str">
+        <f>'원본-화면목록'!D15</f>
+        <v>미정</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="11" t="str">
+        <f>'원본-화면목록'!E15</f>
+        <v>아이유</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="11" t="str">
+        <f>'원본-화면목록'!F15</f>
+        <v>박개발</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="15" t="str">
+        <f>'원본-화면목록'!G15</f>
+        <v>P14_000000</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" s="15" t="str">
+        <f>'원본-화면목록'!H15</f>
+        <v>메뉴5</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="15" t="str">
+        <f>'원본-화면목록'!I15</f>
+        <v>메뉴5-2</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="15">
+        <f>'원본-화면목록'!J15</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V19" s="15">
+        <f>'원본-화면목록'!K15</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X19" s="15">
+        <f>'원본-화면목록'!L15</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z19" s="15">
+        <f>'원본-화면목록'!M15</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB19" s="15">
+        <f>'원본-화면목록'!N15</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD19" s="15">
+        <f>'원본-화면목록'!O15</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF19" s="18" t="str">
+        <f>'원본-화면목록'!P15</f>
+        <v>/root5</v>
+      </c>
+      <c r="AG19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH19" s="2">
+        <f>'원본-화면목록'!Q15</f>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="26" t="str">
+        <f>'원본-화면목록'!A16</f>
+        <v>대기</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="31">
+        <f>'원본-화면목록'!B16</f>
+        <v>44027</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="31" t="str">
+        <f>'원본-화면목록'!C16</f>
+        <v>미정</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="31" t="str">
+        <f>'원본-화면목록'!D16</f>
+        <v>미정</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="11" t="str">
+        <f>'원본-화면목록'!E16</f>
+        <v>아이유</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="11" t="str">
+        <f>'원본-화면목록'!F16</f>
+        <v>유개발</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="15" t="str">
+        <f>'원본-화면목록'!G16</f>
+        <v>P15_000000</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="15" t="str">
+        <f>'원본-화면목록'!H16</f>
+        <v>메뉴5</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="15" t="str">
+        <f>'원본-화면목록'!I16</f>
+        <v>메뉴5-3</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="15">
+        <f>'원본-화면목록'!J16</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20" s="15">
+        <f>'원본-화면목록'!K16</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X20" s="15">
+        <f>'원본-화면목록'!L16</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z20" s="15">
+        <f>'원본-화면목록'!M16</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB20" s="15">
+        <f>'원본-화면목록'!N16</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD20" s="15">
+        <f>'원본-화면목록'!O16</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF20" s="18" t="str">
+        <f>'원본-화면목록'!P16</f>
+        <v>/root5</v>
+      </c>
+      <c r="AG20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH20" s="2">
+        <f>'원본-화면목록'!Q16</f>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="26" t="str">
+        <f>'원본-화면목록'!A17</f>
+        <v>대기</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="31">
+        <f>'원본-화면목록'!B17</f>
+        <v>44028</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="31" t="str">
+        <f>'원본-화면목록'!C17</f>
+        <v>미정</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="31" t="str">
+        <f>'원본-화면목록'!D17</f>
+        <v>미정</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="11" t="str">
+        <f>'원본-화면목록'!E17</f>
+        <v>아이유</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="11" t="str">
+        <f>'원본-화면목록'!F17</f>
+        <v>박개발</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="15" t="str">
+        <f>'원본-화면목록'!G17</f>
+        <v>P16_000000</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="15" t="str">
+        <f>'원본-화면목록'!H17</f>
+        <v>메뉴5</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="15" t="str">
+        <f>'원본-화면목록'!I17</f>
+        <v>메뉴5-4</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="15">
+        <f>'원본-화면목록'!J17</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="15">
+        <f>'원본-화면목록'!K17</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="15">
+        <f>'원본-화면목록'!L17</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z21" s="15">
+        <f>'원본-화면목록'!M17</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB21" s="15">
+        <f>'원본-화면목록'!N17</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD21" s="15">
+        <f>'원본-화면목록'!O17</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF21" s="18" t="str">
+        <f>'원본-화면목록'!P17</f>
+        <v>/root5</v>
+      </c>
+      <c r="AG21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH21" s="2">
+        <f>'원본-화면목록'!Q17</f>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="26" t="str">
+        <f>'원본-화면목록'!A18</f>
+        <v>대기</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="31">
+        <f>'원본-화면목록'!B18</f>
+        <v>44029</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="31" t="str">
+        <f>'원본-화면목록'!C18</f>
+        <v>미정</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="31" t="str">
+        <f>'원본-화면목록'!D18</f>
+        <v>미정</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="11" t="str">
+        <f>'원본-화면목록'!E18</f>
+        <v>아이유</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="11" t="str">
+        <f>'원본-화면목록'!F18</f>
+        <v>이개발</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="15" t="str">
+        <f>'원본-화면목록'!G18</f>
+        <v>P17_000000</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="15" t="str">
+        <f>'원본-화면목록'!H18</f>
+        <v>메뉴5</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="15" t="str">
+        <f>'원본-화면목록'!I18</f>
+        <v>메뉴5-5</v>
+      </c>
+      <c r="S22" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" s="15">
+        <f>'원본-화면목록'!J18</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22" s="15">
+        <f>'원본-화면목록'!K18</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="15">
+        <f>'원본-화면목록'!L18</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z22" s="15">
+        <f>'원본-화면목록'!M18</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB22" s="15">
+        <f>'원본-화면목록'!N18</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD22" s="15">
+        <f>'원본-화면목록'!O18</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF22" s="18" t="str">
+        <f>'원본-화면목록'!P18</f>
+        <v>/root5</v>
+      </c>
+      <c r="AG22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH22" s="2">
+        <f>'원본-화면목록'!Q18</f>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="26" t="str">
+        <f>'원본-화면목록'!A19</f>
+        <v>대기</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="31">
+        <f>'원본-화면목록'!B19</f>
+        <v>44030</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="31" t="str">
+        <f>'원본-화면목록'!C19</f>
+        <v>미정</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="31" t="str">
+        <f>'원본-화면목록'!D19</f>
+        <v>미정</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="11" t="str">
+        <f>'원본-화면목록'!E19</f>
+        <v>이지은</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" s="11" t="str">
+        <f>'원본-화면목록'!F19</f>
+        <v>박개발</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="15" t="str">
+        <f>'원본-화면목록'!G19</f>
+        <v>P18_000000</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="15" t="str">
+        <f>'원본-화면목록'!H19</f>
+        <v>메뉴5</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="15" t="str">
+        <f>'원본-화면목록'!I19</f>
+        <v>메뉴5-6</v>
+      </c>
+      <c r="S23" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T23" s="15">
+        <f>'원본-화면목록'!J19</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V23" s="15">
+        <f>'원본-화면목록'!K19</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X23" s="15">
+        <f>'원본-화면목록'!L19</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z23" s="15">
+        <f>'원본-화면목록'!M19</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB23" s="15">
+        <f>'원본-화면목록'!N19</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD23" s="15">
+        <f>'원본-화면목록'!O19</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF23" s="18" t="str">
+        <f>'원본-화면목록'!P19</f>
+        <v>/root5</v>
+      </c>
+      <c r="AG23" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH23" s="2">
+        <f>'원본-화면목록'!Q19</f>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="26" t="str">
+        <f>'원본-화면목록'!A20</f>
+        <v>대기</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="31">
+        <f>'원본-화면목록'!B20</f>
+        <v>44031</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="31" t="str">
+        <f>'원본-화면목록'!C20</f>
+        <v>미정</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="31" t="str">
+        <f>'원본-화면목록'!D20</f>
+        <v>미정</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="11" t="str">
+        <f>'원본-화면목록'!E20</f>
+        <v>이지은</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" s="11" t="str">
+        <f>'원본-화면목록'!F20</f>
+        <v>유개발</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="15" t="str">
+        <f>'원본-화면목록'!G20</f>
+        <v>P19_000000</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="15" t="str">
+        <f>'원본-화면목록'!H20</f>
+        <v>메뉴5</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="15" t="str">
+        <f>'원본-화면목록'!I20</f>
+        <v>메뉴5-7</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T24" s="15">
+        <f>'원본-화면목록'!J20</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V24" s="15">
+        <f>'원본-화면목록'!K20</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X24" s="15">
+        <f>'원본-화면목록'!L20</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z24" s="15">
+        <f>'원본-화면목록'!M20</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB24" s="15">
+        <f>'원본-화면목록'!N20</f>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD24" s="15">
+        <f>'원본-화면목록'!O20</f>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF24" s="18" t="str">
+        <f>'원본-화면목록'!P20</f>
+        <v>/root5</v>
+      </c>
+      <c r="AG24" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH24" s="2">
+        <f>'원본-화면목록'!Q20</f>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="26" t="str">
+        <f>'원본-화면목록'!A21</f>
+        <v>대기</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="31">
+        <f>'원본-화면목록'!B21</f>
+        <v>44032</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="31" t="str">
+        <f>'원본-화면목록'!C21</f>
+        <v>미정</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="31" t="str">
+        <f>'원본-화면목록'!D21</f>
+        <v>미정</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="11" t="str">
+        <f>'원본-화면목록'!E21</f>
+        <v>이지은</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25" s="11" t="str">
+        <f>'원본-화면목록'!F21</f>
+        <v>유개발</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="15" t="str">
+        <f>'원본-화면목록'!G21</f>
+        <v>P20_000000</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P25" s="15" t="str">
+        <f>'원본-화면목록'!H21</f>
+        <v>메뉴5</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" s="15" t="str">
+        <f>'원본-화면목록'!I21</f>
+        <v>메뉴5-8</v>
+      </c>
+      <c r="S25" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T25" s="15">
+        <f>'원본-화면목록'!J21</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V25" s="15">
+        <f>'원본-화면목록'!K21</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X25" s="15">
+        <f>'원본-화면목록'!L21</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z25" s="15">
+        <f>'원본-화면목록'!M21</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB25" s="15">
+        <f>'원본-화면목록'!N21</f>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD25" s="15">
+        <f>'원본-화면목록'!O21</f>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF25" s="18" t="str">
+        <f>'원본-화면목록'!P21</f>
+        <v>/root5</v>
+      </c>
+      <c r="AG25" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH25" s="2">
+        <f>'원본-화면목록'!Q21</f>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="26" t="str">
+        <f>'원본-화면목록'!A22</f>
+        <v>대기</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="31">
+        <f>'원본-화면목록'!B22</f>
+        <v>44033</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="31" t="str">
+        <f>'원본-화면목록'!C22</f>
+        <v>미정</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="31" t="str">
+        <f>'원본-화면목록'!D22</f>
+        <v>미정</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="11" t="str">
+        <f>'원본-화면목록'!E22</f>
+        <v>이지은</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L26" s="11" t="str">
+        <f>'원본-화면목록'!F22</f>
+        <v>박개발</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="15" t="str">
+        <f>'원본-화면목록'!G22</f>
+        <v>P21_000000</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="15" t="str">
+        <f>'원본-화면목록'!H22</f>
+        <v>메뉴5</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="15" t="str">
+        <f>'원본-화면목록'!I22</f>
+        <v>메뉴5-9</v>
+      </c>
+      <c r="S26" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T26" s="15">
+        <f>'원본-화면목록'!J22</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V26" s="15">
+        <f>'원본-화면목록'!K22</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X26" s="15">
+        <f>'원본-화면목록'!L22</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z26" s="15">
+        <f>'원본-화면목록'!M22</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB26" s="15">
+        <f>'원본-화면목록'!N22</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD26" s="15">
+        <f>'원본-화면목록'!O22</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF26" s="18" t="str">
+        <f>'원본-화면목록'!P22</f>
+        <v>/root5</v>
+      </c>
+      <c r="AG26" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH26" s="2">
+        <f>'원본-화면목록'!Q22</f>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="26" t="str">
+        <f>'원본-화면목록'!A23</f>
+        <v>대기</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="31">
+        <f>'원본-화면목록'!B23</f>
+        <v>44034</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="31" t="str">
+        <f>'원본-화면목록'!C23</f>
+        <v>미정</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="31" t="str">
+        <f>'원본-화면목록'!D23</f>
+        <v>미정</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="11" t="str">
+        <f>'원본-화면목록'!E23</f>
+        <v>이지은</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L27" s="11" t="str">
+        <f>'원본-화면목록'!F23</f>
+        <v>박개발</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="15" t="str">
+        <f>'원본-화면목록'!G23</f>
+        <v>P22_000000</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="15" t="str">
+        <f>'원본-화면목록'!H23</f>
+        <v>메뉴6</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="15" t="str">
+        <f>'원본-화면목록'!I23</f>
+        <v>메뉴6-1</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T27" s="15">
+        <f>'원본-화면목록'!J23</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V27" s="15">
+        <f>'원본-화면목록'!K23</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X27" s="15">
+        <f>'원본-화면목록'!L23</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z27" s="15">
+        <f>'원본-화면목록'!M23</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB27" s="15">
+        <f>'원본-화면목록'!N23</f>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD27" s="15">
+        <f>'원본-화면목록'!O23</f>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF27" s="18" t="str">
+        <f>'원본-화면목록'!P23</f>
+        <v>/root5</v>
+      </c>
+      <c r="AG27" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH27" s="2">
+        <f>'원본-화면목록'!Q23</f>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="26" t="str">
+        <f>'원본-화면목록'!A24</f>
+        <v>대기</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="31">
+        <f>'원본-화면목록'!B24</f>
+        <v>44035</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="31" t="str">
+        <f>'원본-화면목록'!C24</f>
+        <v>미정</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="31" t="str">
+        <f>'원본-화면목록'!D24</f>
+        <v>미정</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="11" t="str">
+        <f>'원본-화면목록'!E24</f>
+        <v>이지은</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L28" s="11" t="str">
+        <f>'원본-화면목록'!F24</f>
+        <v>박개발</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" s="15" t="str">
+        <f>'원본-화면목록'!G24</f>
+        <v>P23_000000</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P28" s="15" t="str">
+        <f>'원본-화면목록'!H24</f>
+        <v>메뉴6</v>
+      </c>
+      <c r="Q28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R28" s="15" t="str">
+        <f>'원본-화면목록'!I24</f>
+        <v>메뉴6-2</v>
+      </c>
+      <c r="S28" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T28" s="15">
+        <f>'원본-화면목록'!J24</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V28" s="15">
+        <f>'원본-화면목록'!K24</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X28" s="15">
+        <f>'원본-화면목록'!L24</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z28" s="15">
+        <f>'원본-화면목록'!M24</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB28" s="15">
+        <f>'원본-화면목록'!N24</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD28" s="15">
+        <f>'원본-화면목록'!O24</f>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF28" s="18" t="str">
+        <f>'원본-화면목록'!P24</f>
+        <v>/root5</v>
+      </c>
+      <c r="AG28" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH28" s="2">
+        <f>'원본-화면목록'!Q24</f>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="26" t="str">
+        <f>'원본-화면목록'!A25</f>
+        <v>대기</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="31">
+        <f>'원본-화면목록'!B25</f>
+        <v>44036</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="31" t="str">
+        <f>'원본-화면목록'!C25</f>
+        <v>미정</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="31" t="str">
+        <f>'원본-화면목록'!D25</f>
+        <v>미정</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="11" t="str">
+        <f>'원본-화면목록'!E25</f>
+        <v>이지은</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L29" s="11" t="str">
+        <f>'원본-화면목록'!F25</f>
+        <v>이개발</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="15" t="str">
+        <f>'원본-화면목록'!G25</f>
+        <v>P24_000000</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="15" t="str">
+        <f>'원본-화면목록'!H25</f>
+        <v>메뉴6</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="15" t="str">
+        <f>'원본-화면목록'!I25</f>
+        <v>메뉴6-3</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T29" s="15">
+        <f>'원본-화면목록'!J25</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V29" s="15">
+        <f>'원본-화면목록'!K25</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="15">
+        <f>'원본-화면목록'!L25</f>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z29" s="15">
+        <f>'원본-화면목록'!M25</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB29" s="15">
+        <f>'원본-화면목록'!N25</f>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD29" s="15">
+        <f>'원본-화면목록'!O25</f>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF29" s="18" t="str">
+        <f>'원본-화면목록'!P25</f>
+        <v>/root5</v>
+      </c>
+      <c r="AG29" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH29" s="2">
+        <f>'원본-화면목록'!Q25</f>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="26" t="str">
+        <f>'원본-화면목록'!A26</f>
+        <v>대기</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="31">
+        <f>'원본-화면목록'!B26</f>
+        <v>44037</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="31" t="str">
+        <f>'원본-화면목록'!C26</f>
+        <v>미정</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="31" t="str">
+        <f>'원본-화면목록'!D26</f>
+        <v>미정</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="11" t="str">
+        <f>'원본-화면목록'!E26</f>
+        <v>이지은</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L30" s="11" t="str">
+        <f>'원본-화면목록'!F26</f>
+        <v>이개발</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N30" s="15" t="str">
+        <f>'원본-화면목록'!G26</f>
+        <v>P25_000000</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P30" s="15" t="str">
+        <f>'원본-화면목록'!H26</f>
+        <v>메뉴6</v>
+      </c>
+      <c r="Q30" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R30" s="15" t="str">
+        <f>'원본-화면목록'!I26</f>
+        <v>메뉴6-4</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T30" s="15">
+        <f>'원본-화면목록'!J26</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V30" s="15">
+        <f>'원본-화면목록'!K26</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X30" s="15">
+        <f>'원본-화면목록'!L26</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z30" s="15">
+        <f>'원본-화면목록'!M26</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB30" s="15">
+        <f>'원본-화면목록'!N26</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD30" s="15">
+        <f>'원본-화면목록'!O26</f>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF30" s="18" t="str">
+        <f>'원본-화면목록'!P26</f>
+        <v>/root5</v>
+      </c>
+      <c r="AG30" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH30" s="2">
+        <f>'원본-화면목록'!Q26</f>
+        <v>0</v>
+      </c>
+      <c r="AI30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="26" t="str">
+        <f>'원본-화면목록'!A27</f>
+        <v>대기</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="31">
+        <f>'원본-화면목록'!B27</f>
+        <v>44038</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="31" t="str">
+        <f>'원본-화면목록'!C27</f>
+        <v>미정</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="31" t="str">
+        <f>'원본-화면목록'!D27</f>
+        <v>미정</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="11" t="str">
+        <f>'원본-화면목록'!E27</f>
+        <v>이지은</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L31" s="11" t="str">
+        <f>'원본-화면목록'!F27</f>
+        <v>이개발</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="15" t="str">
+        <f>'원본-화면목록'!G27</f>
+        <v>P26_000000</v>
+      </c>
+      <c r="O31" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P31" s="15" t="str">
+        <f>'원본-화면목록'!H27</f>
+        <v>메뉴6</v>
+      </c>
+      <c r="Q31" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R31" s="15" t="str">
+        <f>'원본-화면목록'!I27</f>
+        <v>메뉴6-5</v>
+      </c>
+      <c r="S31" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T31" s="15">
+        <f>'원본-화면목록'!J27</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V31" s="15">
+        <f>'원본-화면목록'!K27</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X31" s="15">
+        <f>'원본-화면목록'!L27</f>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z31" s="15">
+        <f>'원본-화면목록'!M27</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB31" s="15">
+        <f>'원본-화면목록'!N27</f>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD31" s="15">
+        <f>'원본-화면목록'!O27</f>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF31" s="18" t="str">
+        <f>'원본-화면목록'!P27</f>
+        <v>/root5</v>
+      </c>
+      <c r="AG31" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH31" s="2">
+        <f>'원본-화면목록'!Q27</f>
+        <v>0</v>
+      </c>
+      <c r="AI31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="26" t="str">
+        <f>'원본-화면목록'!A28</f>
+        <v>대기</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="31">
+        <f>'원본-화면목록'!B28</f>
+        <v>44039</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="31" t="str">
+        <f>'원본-화면목록'!C28</f>
+        <v>미정</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="31" t="str">
+        <f>'원본-화면목록'!D28</f>
+        <v>미정</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="11" t="str">
+        <f>'원본-화면목록'!E28</f>
+        <v>아이유</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L32" s="11" t="str">
+        <f>'원본-화면목록'!F28</f>
+        <v>유개발</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="15" t="str">
+        <f>'원본-화면목록'!G28</f>
+        <v>P27_000000</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="15" t="str">
+        <f>'원본-화면목록'!H28</f>
+        <v>메뉴6</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="15" t="str">
+        <f>'원본-화면목록'!I28</f>
+        <v>메뉴6-6</v>
+      </c>
+      <c r="S32" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T32" s="15">
+        <f>'원본-화면목록'!J28</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V32" s="15">
+        <f>'원본-화면목록'!K28</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X32" s="15">
+        <f>'원본-화면목록'!L28</f>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z32" s="15">
+        <f>'원본-화면목록'!M28</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB32" s="15">
+        <f>'원본-화면목록'!N28</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD32" s="15">
+        <f>'원본-화면목록'!O28</f>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF32" s="18" t="str">
+        <f>'원본-화면목록'!P28</f>
+        <v>/root5</v>
+      </c>
+      <c r="AG32" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH32" s="2">
+        <f>'원본-화면목록'!Q28</f>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="26" t="str">
+        <f>'원본-화면목록'!A29</f>
+        <v>대기</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="31">
+        <f>'원본-화면목록'!B29</f>
+        <v>44040</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="31" t="str">
+        <f>'원본-화면목록'!C29</f>
+        <v>미정</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="31" t="str">
+        <f>'원본-화면목록'!D29</f>
+        <v>미정</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="11" t="str">
+        <f>'원본-화면목록'!E29</f>
+        <v>아이유</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L33" s="11" t="str">
+        <f>'원본-화면목록'!F29</f>
+        <v>이개발</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="15" t="str">
+        <f>'원본-화면목록'!G29</f>
+        <v>P28_000000</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="15" t="str">
+        <f>'원본-화면목록'!H29</f>
+        <v>메뉴6</v>
+      </c>
+      <c r="Q33" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="15" t="str">
+        <f>'원본-화면목록'!I29</f>
+        <v>메뉴6-7</v>
+      </c>
+      <c r="S33" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T33" s="15">
+        <f>'원본-화면목록'!J29</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V33" s="15">
+        <f>'원본-화면목록'!K29</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X33" s="15">
+        <f>'원본-화면목록'!L29</f>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z33" s="15">
+        <f>'원본-화면목록'!M29</f>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB33" s="15">
+        <f>'원본-화면목록'!N29</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD33" s="15">
+        <f>'원본-화면목록'!O29</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF33" s="18" t="str">
+        <f>'원본-화면목록'!P29</f>
+        <v>/root5</v>
+      </c>
+      <c r="AG33" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH33" s="2">
+        <f>'원본-화면목록'!Q29</f>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="26" t="str">
+        <f>'원본-화면목록'!A30</f>
+        <v>대기</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="31">
+        <f>'원본-화면목록'!B30</f>
+        <v>44041</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="31" t="str">
+        <f>'원본-화면목록'!C30</f>
+        <v>미정</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="31" t="str">
+        <f>'원본-화면목록'!D30</f>
+        <v>미정</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="11" t="str">
+        <f>'원본-화면목록'!E30</f>
+        <v>아이유</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L34" s="11" t="str">
+        <f>'원본-화면목록'!F30</f>
+        <v>이개발</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="15" t="str">
+        <f>'원본-화면목록'!G30</f>
+        <v>P29_000000</v>
+      </c>
+      <c r="O34" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P34" s="15" t="str">
+        <f>'원본-화면목록'!H30</f>
+        <v>메뉴6</v>
+      </c>
+      <c r="Q34" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R34" s="15" t="str">
+        <f>'원본-화면목록'!I30</f>
+        <v>메뉴6-8</v>
+      </c>
+      <c r="S34" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T34" s="15">
+        <f>'원본-화면목록'!J30</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V34" s="15">
+        <f>'원본-화면목록'!K30</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X34" s="15">
+        <f>'원본-화면목록'!L30</f>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z34" s="15">
+        <f>'원본-화면목록'!M30</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB34" s="15">
+        <f>'원본-화면목록'!N30</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD34" s="15">
+        <f>'원본-화면목록'!O30</f>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF34" s="18" t="str">
+        <f>'원본-화면목록'!P30</f>
+        <v>/root5</v>
+      </c>
+      <c r="AG34" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH34" s="2">
+        <f>'원본-화면목록'!Q30</f>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="26" t="str">
+        <f>'원본-화면목록'!A31</f>
+        <v>대기</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="31">
+        <f>'원본-화면목록'!B31</f>
+        <v>44042</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="31" t="str">
+        <f>'원본-화면목록'!C31</f>
+        <v>미정</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="31" t="str">
+        <f>'원본-화면목록'!D31</f>
+        <v>미정</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" s="11" t="str">
+        <f>'원본-화면목록'!E31</f>
+        <v>아이유</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L35" s="11" t="str">
+        <f>'원본-화면목록'!F31</f>
+        <v>최개발</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="15" t="str">
+        <f>'원본-화면목록'!G31</f>
+        <v>P30_000000</v>
+      </c>
+      <c r="O35" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="15" t="str">
+        <f>'원본-화면목록'!H31</f>
+        <v>메뉴6</v>
+      </c>
+      <c r="Q35" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="15" t="str">
+        <f>'원본-화면목록'!I31</f>
+        <v>메뉴6-9</v>
+      </c>
+      <c r="S35" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T35" s="15">
+        <f>'원본-화면목록'!J31</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V35" s="15">
+        <f>'원본-화면목록'!K31</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X35" s="15">
+        <f>'원본-화면목록'!L31</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z35" s="15">
+        <f>'원본-화면목록'!M31</f>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB35" s="15">
+        <f>'원본-화면목록'!N31</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD35" s="15">
+        <f>'원본-화면목록'!O31</f>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF35" s="18" t="str">
+        <f>'원본-화면목록'!P31</f>
+        <v>/root5</v>
+      </c>
+      <c r="AG35" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH35" s="2">
+        <f>'원본-화면목록'!Q31</f>
+        <v>0</v>
+      </c>
+      <c r="AI35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="26" t="str">
+        <f>'원본-화면목록'!A32</f>
+        <v>대기</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="31">
+        <f>'원본-화면목록'!B32</f>
+        <v>44043</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="31" t="str">
+        <f>'원본-화면목록'!C32</f>
+        <v>미정</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" s="31" t="str">
+        <f>'원본-화면목록'!D32</f>
+        <v>미정</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" s="11" t="str">
+        <f>'원본-화면목록'!E32</f>
+        <v>아이유</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L36" s="11" t="str">
+        <f>'원본-화면목록'!F32</f>
+        <v>최개발</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N36" s="15" t="str">
+        <f>'원본-화면목록'!G32</f>
+        <v>P31_000000</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P36" s="15" t="str">
+        <f>'원본-화면목록'!H32</f>
+        <v>메뉴6</v>
+      </c>
+      <c r="Q36" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R36" s="15" t="str">
+        <f>'원본-화면목록'!I32</f>
+        <v>메뉴6-10</v>
+      </c>
+      <c r="S36" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T36" s="15">
+        <f>'원본-화면목록'!J32</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V36" s="15">
+        <f>'원본-화면목록'!K32</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X36" s="15">
+        <f>'원본-화면목록'!L32</f>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z36" s="15">
+        <f>'원본-화면목록'!M32</f>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB36" s="15">
+        <f>'원본-화면목록'!N32</f>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD36" s="15">
+        <f>'원본-화면목록'!O32</f>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF36" s="18" t="str">
+        <f>'원본-화면목록'!P32</f>
+        <v>/root5</v>
+      </c>
+      <c r="AG36" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH36" s="2">
+        <f>'원본-화면목록'!Q32</f>
+        <v>0</v>
+      </c>
+      <c r="AI36" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="60"/>
+      <c r="AA37" s="60"/>
+      <c r="AB37" s="60"/>
+      <c r="AC37" s="60"/>
+      <c r="AD37" s="60"/>
+      <c r="AE37" s="60"/>
+      <c r="AF37" s="60"/>
+      <c r="AG37" s="60"/>
+      <c r="AH37" s="60"/>
+      <c r="AI37" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="28">
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
@@ -3168,8 +5846,6 @@
     <mergeCell ref="A1:AI1"/>
     <mergeCell ref="O3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="A17:AI17"/>
-    <mergeCell ref="A4:AI4"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A3:B3"/>
@@ -3193,1477 +5869,2206 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="69" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="70" customWidth="1"/>
-    <col min="3" max="4" width="7.19921875" style="70" customWidth="1"/>
-    <col min="5" max="5" width="6.19921875" style="69" customWidth="1"/>
-    <col min="6" max="6" width="7" style="69" customWidth="1"/>
-    <col min="7" max="7" width="11" style="64" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="71" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.69921875" style="71" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.09765625" style="71" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="9" style="71"/>
-    <col min="16" max="16" width="14.09765625" style="64" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="64"/>
-    <col min="18" max="18" width="5.5" style="64" customWidth="1"/>
-    <col min="19" max="19" width="9" style="64"/>
-    <col min="20" max="24" width="4.59765625" style="68" customWidth="1"/>
-    <col min="25" max="25" width="2.09765625" style="63" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="64"/>
+    <col min="1" max="1" width="4.69921875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="58" customWidth="1"/>
+    <col min="3" max="4" width="7.19921875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="6.19921875" style="57" customWidth="1"/>
+    <col min="6" max="6" width="7" style="57" customWidth="1"/>
+    <col min="7" max="7" width="11" style="52" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.69921875" style="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.09765625" style="59" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="9" style="59"/>
+    <col min="16" max="16" width="6" style="52" customWidth="1"/>
+    <col min="17" max="17" width="9.3984375" style="52" customWidth="1"/>
+    <col min="18" max="18" width="1.796875" style="52" customWidth="1"/>
+    <col min="19" max="19" width="5.5" style="52" customWidth="1"/>
+    <col min="20" max="24" width="4.59765625" style="56" customWidth="1"/>
+    <col min="25" max="25" width="2.09765625" style="51" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="52" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="50" t="s">
+      <c r="S1" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="U1" s="51">
+      <c r="T1" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="39">
         <v>1</v>
       </c>
-      <c r="V1" s="51">
+      <c r="V1" s="39">
         <v>2</v>
       </c>
-      <c r="W1" s="51">
+      <c r="W1" s="39">
         <v>3</v>
       </c>
-      <c r="X1" s="51">
+      <c r="X1" s="39">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A2" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="54">
-        <v>44001</v>
-      </c>
-      <c r="C2" s="54">
-        <v>44001</v>
-      </c>
-      <c r="D2" s="54">
-        <v>44001</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="56" t="str">
+      <c r="A2" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="42">
+        <v>44013</v>
+      </c>
+      <c r="C2" s="42">
+        <v>44013</v>
+      </c>
+      <c r="D2" s="42">
+        <v>44013</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="44" t="str">
         <f t="shared" ref="G2:G3" si="0">CONCATENATE(T2,U2,"_",V2,W2,X2)</f>
-        <v>P01_010000</v>
-      </c>
-      <c r="H2" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="59" t="str">
+        <v>P01_000000</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47" t="str">
         <f>CONCATENATE(R2,S2)</f>
-        <v>/root1/aaa</v>
-      </c>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="T2" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" s="62" t="s">
+        <v>/root1</v>
+      </c>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="T2" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" s="62" t="s">
-        <v>50</v>
+      <c r="V2" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="50" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A3" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="54">
-        <v>43992</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="56" t="str">
+      <c r="A3" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="42">
+        <v>44014</v>
+      </c>
+      <c r="C3" s="42">
+        <v>44013</v>
+      </c>
+      <c r="D3" s="42">
+        <v>44013</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="44" t="str">
         <f t="shared" si="0"/>
-        <v>P01_020000</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59" t="str">
+        <v>P02_000000</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="47" t="str">
         <f t="shared" ref="P3:P12" si="1">CONCATENATE(R3,S3)</f>
         <v>/root1</v>
       </c>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="S3" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="T3" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="W3" s="62" t="s">
+      <c r="Q3" s="47"/>
+      <c r="R3" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="62" t="s">
-        <v>50</v>
+      <c r="U3" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="V3" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" s="50" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A4" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="54">
-        <v>44001</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="56" t="str">
+      <c r="A4" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="42">
+        <v>44015</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="44" t="str">
         <f>CONCATENATE(T4,U4,"_",V4,W4,X4)</f>
-        <v>P02_000000</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59" t="str">
+        <v>P03_000000</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="47" t="str">
         <f t="shared" ref="P4" si="2">CONCATENATE(R4,S4)</f>
         <v>/root2</v>
       </c>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="S4" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="T4" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" s="62" t="s">
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="X4" s="62" t="s">
-        <v>50</v>
+      <c r="U4" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="V4" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" s="50" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A5" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="54">
-        <v>44002</v>
-      </c>
-      <c r="C5" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="56" t="str">
+      <c r="A5" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="42">
+        <v>44016</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="44" t="str">
         <f t="shared" ref="G5:G12" si="3">CONCATENATE(T5,U5,"_",V5,W5,X5)</f>
-        <v>P03_010000</v>
-      </c>
-      <c r="H5" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="59" t="str">
+        <v>P04_000000</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="47" t="str">
         <f t="shared" si="1"/>
         <v>/root3</v>
       </c>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="60" t="s">
+      <c r="Q5" s="47"/>
+      <c r="R5" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="S5" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="T5" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="U5" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="W5" s="62" t="s">
+      <c r="T5" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="X5" s="62" t="s">
-        <v>50</v>
+      <c r="U5" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="V5" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W5" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X5" s="50" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="54">
-        <v>44003</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="56" t="str">
+      <c r="A6" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="42">
+        <v>44017</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>P03_020100</v>
-      </c>
-      <c r="H6" s="57" t="s">
+        <v>P05_000100</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="65"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="59" t="str">
+      <c r="K6" s="53"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="47" t="str">
         <f t="shared" si="1"/>
         <v>/root3</v>
       </c>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="60" t="s">
+      <c r="Q6" s="47"/>
+      <c r="R6" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S6" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="S6" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="T6" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="U6" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="V6" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="W6" s="62" t="s">
+      <c r="T6" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="V6" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W6" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="X6" s="62" t="s">
-        <v>50</v>
+      <c r="X6" s="50" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A7" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="54">
-        <v>44004</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="56" t="str">
+      <c r="A7" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="42">
+        <v>44018</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>P03_020201</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="59" t="str">
+        <v>P06_000201</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="47" t="str">
         <f t="shared" si="1"/>
         <v>/root3</v>
       </c>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="60" t="s">
+      <c r="Q7" s="47"/>
+      <c r="R7" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="S7" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="T7" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="U7" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="V7" s="62" t="s">
+      <c r="T7" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="V7" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W7" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="W7" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="X7" s="62" t="s">
+      <c r="X7" s="50" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A8" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="54">
-        <v>44005</v>
-      </c>
-      <c r="C8" s="54">
-        <v>43496</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="56" t="str">
+      <c r="A8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="42">
+        <v>44019</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>P04_010100</v>
-      </c>
-      <c r="H8" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="65" t="s">
+        <v>P07_000100</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="66"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="59" t="str">
+      <c r="K8" s="54"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="47" t="str">
         <f t="shared" si="1"/>
         <v>/root4</v>
       </c>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="S8" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="T8" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="U8" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="V8" s="62" t="s">
+      <c r="Q8" s="47"/>
+      <c r="R8" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="T8" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="V8" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W8" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="W8" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="X8" s="62" t="s">
-        <v>50</v>
+      <c r="X8" s="50" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A9" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="54">
-        <v>44006</v>
-      </c>
-      <c r="C9" s="54">
-        <v>43496</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="56" t="str">
+      <c r="A9" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="42">
+        <v>44020</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>P04_010200</v>
-      </c>
-      <c r="H9" s="57" t="s">
+        <v>P08_000200</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="66"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="59" t="str">
+      <c r="K9" s="54"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="47" t="str">
         <f t="shared" si="1"/>
         <v>/root4</v>
       </c>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="S9" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="T9" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="U9" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="V9" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="62" t="s">
+      <c r="Q9" s="47"/>
+      <c r="R9" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S9" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="T9" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U9" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="V9" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="X9" s="62" t="s">
-        <v>50</v>
+      <c r="X9" s="50" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A10" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="54">
-        <v>44007</v>
-      </c>
-      <c r="C10" s="54">
-        <v>43496</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="56" t="str">
+      <c r="A10" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="42">
+        <v>44021</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>P04_020100</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="65" t="s">
+        <v>P09_000100</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="66"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="59" t="str">
+      <c r="K10" s="54"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="47" t="str">
         <f t="shared" si="1"/>
         <v>/root4</v>
       </c>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="S10" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="T10" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="U10" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="V10" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="W10" s="62" t="s">
+      <c r="Q10" s="47"/>
+      <c r="R10" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S10" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="T10" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="V10" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W10" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="X10" s="62" t="s">
-        <v>50</v>
+      <c r="X10" s="50" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A11" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="54">
-        <v>43992</v>
-      </c>
-      <c r="C11" s="54">
-        <v>43496</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="56" t="str">
+      <c r="A11" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="42">
+        <v>44022</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>P04_020200</v>
-      </c>
-      <c r="H11" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="66"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="59" t="str">
+        <v>P10_000200</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="54"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="47" t="str">
         <f t="shared" si="1"/>
         <v>/root4</v>
       </c>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="S11" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="T11" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="U11" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="V11" s="62" t="s">
+      <c r="Q11" s="47"/>
+      <c r="R11" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S11" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="T11" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U11" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="V11" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W11" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="W11" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="X11" s="62" t="s">
-        <v>50</v>
+      <c r="X11" s="50" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A12" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="54">
-        <v>44012</v>
-      </c>
-      <c r="C12" s="54">
-        <v>43496</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="56" t="str">
+      <c r="A12" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="42">
+        <v>44023</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>P05_000000</v>
-      </c>
-      <c r="H12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="J12" s="65"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="59" t="str">
+        <v>P11_000000</v>
+      </c>
+      <c r="H12" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" s="53"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="47" t="str">
         <f t="shared" si="1"/>
         <v>/root5</v>
       </c>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="S12" s="60" t="s">
+      <c r="Q12" s="47"/>
+      <c r="R12" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S12" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="T12" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U12" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="V12" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W12" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X12" s="50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A13" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="42">
+        <v>44024</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="T12" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="U12" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="V12" s="62" t="s">
+      <c r="F13" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="44" t="str">
+        <f t="shared" ref="G13:G14" si="4">CONCATENATE(T13,U13,"_",V13,W13,X13)</f>
+        <v>P12_000200</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="47" t="str">
+        <f t="shared" ref="P13:P14" si="5">CONCATENATE(R13,S13)</f>
+        <v>/root4</v>
+      </c>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S13" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="T13" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="W12" s="62" t="s">
+      <c r="U13" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="V13" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W13" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="X13" s="50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A14" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="42">
+        <v>44025</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="44" t="str">
+        <f t="shared" si="4"/>
+        <v>P13_000000</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="47" t="str">
+        <f t="shared" si="5"/>
+        <v>/root5</v>
+      </c>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S14" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="T14" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="X12" s="62" t="s">
+      <c r="U14" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="V14" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W14" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X14" s="50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A15" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="42">
+        <v>44026</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="44" t="str">
+        <f t="shared" ref="G15:G32" si="6">CONCATENATE(T15,U15,"_",V15,W15,X15)</f>
+        <v>P14_000000</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="47" t="str">
+        <f t="shared" ref="P15:P32" si="7">CONCATENATE(R15,S15)</f>
+        <v>/root5</v>
+      </c>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S15" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="T15" s="49" t="s">
         <v>50</v>
       </c>
+      <c r="U15" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="V15" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W15" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X15" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A16" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="42">
+        <v>44027</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>P15_000000</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="47" t="str">
+        <f t="shared" si="7"/>
+        <v>/root5</v>
+      </c>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S16" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="T16" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U16" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="V16" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W16" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X16" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A17" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="42">
+        <v>44028</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>P16_000000</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="53"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="47" t="str">
+        <f t="shared" si="7"/>
+        <v>/root5</v>
+      </c>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S17" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="T17" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U17" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="V17" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W17" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X17" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A18" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="42">
+        <v>44029</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>P17_000000</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="47" t="str">
+        <f t="shared" si="7"/>
+        <v>/root5</v>
+      </c>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S18" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="T18" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U18" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="V18" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W18" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X18" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A19" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="42">
+        <v>44030</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>P18_000000</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="47" t="str">
+        <f t="shared" si="7"/>
+        <v>/root5</v>
+      </c>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S19" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="T19" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U19" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="V19" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W19" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X19" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A20" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="42">
+        <v>44031</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>P19_000000</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="47" t="str">
+        <f t="shared" si="7"/>
+        <v>/root5</v>
+      </c>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S20" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="T20" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U20" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="V20" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W20" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X20" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A21" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="42">
+        <v>44032</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>P20_000000</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="47" t="str">
+        <f t="shared" si="7"/>
+        <v>/root5</v>
+      </c>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S21" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="T21" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U21" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="V21" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W21" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X21" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A22" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="42">
+        <v>44033</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>P21_000000</v>
+      </c>
+      <c r="H22" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="53"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="47" t="str">
+        <f t="shared" si="7"/>
+        <v>/root5</v>
+      </c>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S22" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="T22" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U22" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="V22" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W22" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X22" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A23" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="42">
+        <v>44034</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>P22_000000</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" s="53"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="47" t="str">
+        <f t="shared" si="7"/>
+        <v>/root5</v>
+      </c>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S23" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="T23" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U23" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="V23" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W23" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X23" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A24" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="42">
+        <v>44035</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>P23_000000</v>
+      </c>
+      <c r="H24" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="J24" s="53"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="47" t="str">
+        <f t="shared" si="7"/>
+        <v>/root5</v>
+      </c>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S24" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="T24" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U24" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="V24" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W24" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X24" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A25" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="42">
+        <v>44036</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>P24_000000</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="I25" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="47" t="str">
+        <f t="shared" si="7"/>
+        <v>/root5</v>
+      </c>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S25" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="T25" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U25" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="V25" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W25" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X25" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A26" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="42">
+        <v>44037</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>P25_000000</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="I26" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" s="53"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="47" t="str">
+        <f t="shared" si="7"/>
+        <v>/root5</v>
+      </c>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S26" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="T26" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U26" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="V26" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W26" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X26" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="62"/>
-      <c r="W24" s="62"/>
-      <c r="X24" s="62"/>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A27" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="42">
+        <v>44038</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>P26_000000</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="J27" s="53"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="47" t="str">
+        <f t="shared" si="7"/>
+        <v>/root5</v>
+      </c>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S27" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="T27" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U27" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="V27" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W27" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X27" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A28" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="42">
+        <v>44039</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>P27_000000</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="J28" s="53"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="47" t="str">
+        <f t="shared" si="7"/>
+        <v>/root5</v>
+      </c>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S28" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="T28" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U28" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="V28" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W28" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X28" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="53"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="62"/>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A29" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="42">
+        <v>44040</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>P28_000000</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="I29" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" s="53"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="47" t="str">
+        <f t="shared" si="7"/>
+        <v>/root5</v>
+      </c>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S29" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="T29" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U29" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="V29" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W29" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X29" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A30" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="42">
+        <v>44041</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>P29_000000</v>
+      </c>
+      <c r="H30" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="I30" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="J30" s="53"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="47" t="str">
+        <f t="shared" si="7"/>
+        <v>/root5</v>
+      </c>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S30" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="T30" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U30" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="V30" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W30" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X30" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="62"/>
-      <c r="V28" s="62"/>
-      <c r="W28" s="62"/>
-      <c r="X28" s="62"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A31" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="42">
+        <v>44042</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>P30_000000</v>
+      </c>
+      <c r="H31" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="I31" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="J31" s="53"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="47" t="str">
+        <f t="shared" si="7"/>
+        <v>/root5</v>
+      </c>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S31" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="T31" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U31" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="V31" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W31" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X31" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="62"/>
-      <c r="W29" s="62"/>
-      <c r="X29" s="62"/>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A32" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="42">
+        <v>44043</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" s="44" t="str">
+        <f t="shared" si="6"/>
+        <v>P31_000000</v>
+      </c>
+      <c r="H32" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="I32" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="J32" s="53"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="47" t="str">
+        <f t="shared" si="7"/>
+        <v>/root5</v>
+      </c>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S32" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="T32" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U32" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="V32" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W32" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X32" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="61"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A33" s="41"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
     </row>
-    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
-      <c r="X31" s="62"/>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A34" s="41"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
     </row>
-    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="62"/>
-      <c r="X32" s="62"/>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A35" s="41"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
     </row>
-    <row r="33" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="53"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="61"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A36" s="41"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
     </row>
-    <row r="34" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="53"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="61"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
-      <c r="W34" s="62"/>
-      <c r="X34" s="62"/>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A37" s="41"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="50"/>
     </row>
-    <row r="35" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="61"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-    </row>
-    <row r="36" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="53"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="61"/>
-      <c r="U36" s="62"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-    </row>
-    <row r="37" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="61"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-    </row>
-    <row r="38" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="53"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="61"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A38" s="41"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="대기">
+  <conditionalFormatting sqref="A1:A11 A33:A1048576">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="대기">
       <formula>NOT(ISERROR(SEARCH("대기",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:A32">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="대기">
+      <formula>NOT(ISERROR(SEARCH("대기",A12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data/codinglist.xlsx
+++ b/resources/data/codinglist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="화면목록" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="202">
   <si>
     <t>]}</t>
   </si>
@@ -219,102 +219,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>메뉴1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴1-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴1-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴3-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴3-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴3-2-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴3-2-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴4-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴4-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴4-1-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴4-1-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴4-2-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴4-2-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴3-2-2-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>root1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>root2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>root3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>root4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>root5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>완료</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -549,78 +453,6 @@
     <t>31</t>
   </si>
   <si>
-    <t>root1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴6</t>
-  </si>
-  <si>
-    <t>메뉴5-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴5-2</t>
-  </si>
-  <si>
-    <t>메뉴5-3</t>
-  </si>
-  <si>
-    <t>메뉴5-4</t>
-  </si>
-  <si>
-    <t>메뉴5-5</t>
-  </si>
-  <si>
-    <t>메뉴5-6</t>
-  </si>
-  <si>
-    <t>메뉴5-7</t>
-  </si>
-  <si>
-    <t>메뉴5-8</t>
-  </si>
-  <si>
-    <t>메뉴5-9</t>
-  </si>
-  <si>
-    <t>메뉴6-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴6-2</t>
-  </si>
-  <si>
-    <t>메뉴6-3</t>
-  </si>
-  <si>
-    <t>메뉴6-4</t>
-  </si>
-  <si>
-    <t>메뉴6-5</t>
-  </si>
-  <si>
-    <t>메뉴6-6</t>
-  </si>
-  <si>
-    <t>메뉴6-7</t>
-  </si>
-  <si>
-    <t>메뉴6-8</t>
-  </si>
-  <si>
-    <t>메뉴6-9</t>
-  </si>
-  <si>
-    <t>메뉴6-10</t>
-  </si>
-  <si>
-    <t>메뉴4-3</t>
-  </si>
-  <si>
-    <t>메뉴4-4</t>
-  </si>
-  <si>
     <t>김개발</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -638,6 +470,325 @@
   </si>
   <si>
     <t>유개발</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>introduction</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Getting Started</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naming</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Typography</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Units</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Margin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contents Design</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet List</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Layout</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Components</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll Bar</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Popup</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scroll Move</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Form</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Form Layout</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date Picker</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Upload</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table Caption</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table Scroll</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table Cell Fix</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accordion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dropdown</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floating</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floating Range</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toast</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parallax Scroll</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tooltip</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON Coding List</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>naming</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>typography</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>units</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>device</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>margin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletList</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrollBar</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>popup</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrollMove</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>formLayout</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>datePicker</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileUpload</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableCaption</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableScroll</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableCellFix</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>accordion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropdown</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>floating</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>floatingRange</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>modal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>toast</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>parallaxScroll</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tab</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tooltip</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsonCodingList</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/netiveUI/html</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/components</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/memory</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/start</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/contents</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -866,7 +1017,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -947,19 +1098,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
       </left>
       <right style="thin">
@@ -970,6 +1108,67 @@
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,7 +1190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1094,92 +1293,89 @@
     <xf numFmtId="177" fontId="6" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="8" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="8" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1190,20 +1386,29 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="9" fillId="9" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1213,42 +1418,7 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1582,263 +1752,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A4:AI37"/>
+      <pane ySplit="5" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.09765625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="1.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="1.6875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="1.6875" style="3" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.69921875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="1.6875" style="32" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.69921875" style="32" customWidth="1"/>
+    <col min="7" max="7" width="1.6875" style="32" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.69921875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="1.6875" style="3" customWidth="1"/>
     <col min="10" max="10" width="5.5" style="20" customWidth="1"/>
-    <col min="11" max="11" width="1.69921875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="1.6875" style="20" customWidth="1"/>
     <col min="12" max="12" width="5.5" style="20" customWidth="1"/>
-    <col min="13" max="13" width="1.69921875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="1.6875" style="13" customWidth="1"/>
     <col min="14" max="14" width="10.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.69921875" style="22" customWidth="1"/>
+    <col min="15" max="15" width="1.6875" style="22" customWidth="1"/>
     <col min="16" max="16" width="14" style="23" customWidth="1"/>
-    <col min="17" max="17" width="1.69921875" style="22" customWidth="1"/>
+    <col min="17" max="17" width="1.6875" style="22" customWidth="1"/>
     <col min="18" max="18" width="14" style="23" customWidth="1"/>
-    <col min="19" max="19" width="1.69921875" style="22" customWidth="1"/>
+    <col min="19" max="19" width="1.6875" style="22" customWidth="1"/>
     <col min="20" max="20" width="14" style="23" customWidth="1"/>
-    <col min="21" max="21" width="1.69921875" style="22" customWidth="1"/>
+    <col min="21" max="21" width="1.6875" style="22" customWidth="1"/>
     <col min="22" max="22" width="14" style="23" customWidth="1"/>
-    <col min="23" max="23" width="1.69921875" style="22" customWidth="1"/>
+    <col min="23" max="23" width="1.6875" style="22" customWidth="1"/>
     <col min="24" max="24" width="14" style="23" customWidth="1"/>
-    <col min="25" max="25" width="1.69921875" style="22" customWidth="1"/>
+    <col min="25" max="25" width="1.6875" style="22" customWidth="1"/>
     <col min="26" max="26" width="14" style="23" customWidth="1"/>
-    <col min="27" max="27" width="1.69921875" style="22" customWidth="1"/>
+    <col min="27" max="27" width="1.6875" style="22" customWidth="1"/>
     <col min="28" max="28" width="14" style="23" customWidth="1"/>
-    <col min="29" max="29" width="1.8984375" style="22" customWidth="1"/>
+    <col min="29" max="29" width="1.875" style="22" customWidth="1"/>
     <col min="30" max="30" width="14" style="23" customWidth="1"/>
-    <col min="31" max="31" width="1.8984375" style="17" customWidth="1"/>
-    <col min="32" max="32" width="8.69921875" style="24" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="1.8984375" style="24" customWidth="1"/>
-    <col min="34" max="34" width="8.69921875" style="25" customWidth="1"/>
-    <col min="35" max="35" width="1.69921875" style="3" customWidth="1"/>
-    <col min="36" max="39" width="39.8984375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="1.875" style="17" customWidth="1"/>
+    <col min="32" max="32" width="8.6875" style="24" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="1.875" style="24" customWidth="1"/>
+    <col min="34" max="34" width="8.6875" style="25" customWidth="1"/>
+    <col min="35" max="35" width="1.6875" style="3" customWidth="1"/>
+    <col min="36" max="39" width="39.875" style="1" customWidth="1"/>
     <col min="40" max="16384" width="6.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
     </row>
     <row r="2" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="A2" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="59"/>
+      <c r="E2" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
       <c r="AJ2" s="27"/>
     </row>
-    <row r="3" spans="1:36" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="67" t="s">
+    <row r="3" spans="1:36" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="63" t="s">
+      <c r="D3" s="61"/>
+      <c r="E3" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="67" t="s">
+      <c r="F3" s="62"/>
+      <c r="G3" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="62"/>
+      <c r="I3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="68" t="s">
+      <c r="J3" s="61"/>
+      <c r="K3" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="61"/>
+      <c r="M3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
       <c r="AJ3" s="28"/>
     </row>
-    <row r="4" spans="1:36" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="62"/>
+    <row r="4" spans="1:36" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="72"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1852,16 +2022,16 @@
         <v>19</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>34</v>
@@ -1870,10 +2040,10 @@
         <v>37</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>30</v>
@@ -1956,21 +2126,21 @@
       </c>
       <c r="D6" s="31">
         <f>'원본-화면목록'!B2</f>
-        <v>44013</v>
+        <v>44124</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F6" s="31">
         <f>'원본-화면목록'!C2</f>
-        <v>44013</v>
+        <v>44124</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" s="31">
+        <v>85</v>
+      </c>
+      <c r="H6" s="31" t="str">
         <f>'원본-화면목록'!D2</f>
-        <v>44013</v>
+        <v>미정</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>34</v>
@@ -1980,7 +2150,7 @@
         <v>아이유</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L6" s="11" t="str">
         <f>'원본-화면목록'!F2</f>
@@ -1991,21 +2161,21 @@
       </c>
       <c r="N6" s="15" t="str">
         <f>'원본-화면목록'!G2</f>
-        <v>P01_000000</v>
+        <v>introduction</v>
       </c>
       <c r="O6" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P6" s="15" t="str">
         <f>'원본-화면목록'!H2</f>
-        <v>메뉴1</v>
+        <v>Getting Started</v>
       </c>
       <c r="Q6" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R6" s="15" t="str">
         <f>'원본-화면목록'!I2</f>
-        <v>메뉴1-1</v>
+        <v>introduction</v>
       </c>
       <c r="S6" s="16" t="s">
         <v>6</v>
@@ -2054,7 +2224,7 @@
       </c>
       <c r="AF6" s="18" t="str">
         <f>'원본-화면목록'!P2</f>
-        <v>/root1</v>
+        <v>/netiveUI/html/start</v>
       </c>
       <c r="AG6" s="17" t="s">
         <v>43</v>
@@ -2080,21 +2250,21 @@
       </c>
       <c r="D7" s="31">
         <f>'원본-화면목록'!B3</f>
-        <v>44014</v>
+        <v>44124</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F7" s="31">
         <f>'원본-화면목록'!C3</f>
-        <v>44013</v>
+        <v>44124</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="31">
+        <v>84</v>
+      </c>
+      <c r="H7" s="31" t="str">
         <f>'원본-화면목록'!D3</f>
-        <v>44013</v>
+        <v>미정</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>34</v>
@@ -2104,7 +2274,7 @@
         <v>아이유</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L7" s="11" t="str">
         <f>'원본-화면목록'!F3</f>
@@ -2115,21 +2285,21 @@
       </c>
       <c r="N7" s="15" t="str">
         <f>'원본-화면목록'!G3</f>
-        <v>P02_000000</v>
+        <v>naming</v>
       </c>
       <c r="O7" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P7" s="15" t="str">
         <f>'원본-화면목록'!H3</f>
-        <v>메뉴1</v>
+        <v>Getting Started</v>
       </c>
       <c r="Q7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R7" s="15" t="str">
         <f>'원본-화면목록'!I3</f>
-        <v>메뉴1-2</v>
+        <v>Naming</v>
       </c>
       <c r="S7" s="16" t="s">
         <v>6</v>
@@ -2178,7 +2348,7 @@
       </c>
       <c r="AF7" s="18" t="str">
         <f>'원본-화면목록'!P3</f>
-        <v>/root1</v>
+        <v>/netiveUI/html/start</v>
       </c>
       <c r="AG7" s="17" t="s">
         <v>43</v>
@@ -2204,17 +2374,17 @@
       </c>
       <c r="D8" s="31">
         <f>'원본-화면목록'!B4</f>
-        <v>44015</v>
+        <v>44124</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="31" t="str">
+        <v>71</v>
+      </c>
+      <c r="F8" s="31">
         <f>'원본-화면목록'!C4</f>
-        <v>미정</v>
+        <v>44124</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H8" s="31" t="str">
         <f>'원본-화면목록'!D4</f>
@@ -2228,7 +2398,7 @@
         <v>아이유</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L8" s="11" t="str">
         <f>'원본-화면목록'!F4</f>
@@ -2239,21 +2409,21 @@
       </c>
       <c r="N8" s="15" t="str">
         <f>'원본-화면목록'!G4</f>
-        <v>P03_000000</v>
+        <v>typography</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P8" s="15" t="str">
         <f>'원본-화면목록'!H4</f>
-        <v>메뉴2</v>
+        <v>Getting Started</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R8" s="15" t="str">
         <f>'원본-화면목록'!I4</f>
-        <v>메뉴1-2</v>
+        <v>Typography</v>
       </c>
       <c r="S8" s="16" t="s">
         <v>6</v>
@@ -2302,7 +2472,7 @@
       </c>
       <c r="AF8" s="18" t="str">
         <f>'원본-화면목록'!P4</f>
-        <v>/root2</v>
+        <v>/netiveUI/html/start</v>
       </c>
       <c r="AG8" s="17" t="s">
         <v>43</v>
@@ -2328,17 +2498,17 @@
       </c>
       <c r="D9" s="31">
         <f>'원본-화면목록'!B5</f>
-        <v>44016</v>
+        <v>44124</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="31" t="str">
+        <v>71</v>
+      </c>
+      <c r="F9" s="31">
         <f>'원본-화면목록'!C5</f>
-        <v>미정</v>
+        <v>44124</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H9" s="31" t="str">
         <f>'원본-화면목록'!D5</f>
@@ -2352,7 +2522,7 @@
         <v>아이유</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L9" s="11" t="str">
         <f>'원본-화면목록'!F5</f>
@@ -2363,21 +2533,21 @@
       </c>
       <c r="N9" s="15" t="str">
         <f>'원본-화면목록'!G5</f>
-        <v>P04_000000</v>
+        <v>color</v>
       </c>
       <c r="O9" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P9" s="15" t="str">
         <f>'원본-화면목록'!H5</f>
-        <v>메뉴3</v>
+        <v>Getting Started</v>
       </c>
       <c r="Q9" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R9" s="15" t="str">
         <f>'원본-화면목록'!I5</f>
-        <v>메뉴3-1</v>
+        <v>Color</v>
       </c>
       <c r="S9" s="16" t="s">
         <v>6</v>
@@ -2426,7 +2596,7 @@
       </c>
       <c r="AF9" s="18" t="str">
         <f>'원본-화면목록'!P5</f>
-        <v>/root3</v>
+        <v>/netiveUI/html/start</v>
       </c>
       <c r="AG9" s="17" t="s">
         <v>43</v>
@@ -2452,17 +2622,17 @@
       </c>
       <c r="D10" s="31">
         <f>'원본-화면목록'!B6</f>
-        <v>44017</v>
+        <v>44124</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="31" t="str">
+        <v>71</v>
+      </c>
+      <c r="F10" s="31">
         <f>'원본-화면목록'!C6</f>
-        <v>미정</v>
+        <v>44124</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H10" s="31" t="str">
         <f>'원본-화면목록'!D6</f>
@@ -2476,7 +2646,7 @@
         <v>이지은</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L10" s="11" t="str">
         <f>'원본-화면목록'!F6</f>
@@ -2487,28 +2657,28 @@
       </c>
       <c r="N10" s="15" t="str">
         <f>'원본-화면목록'!G6</f>
-        <v>P05_000100</v>
+        <v>units</v>
       </c>
       <c r="O10" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P10" s="15" t="str">
         <f>'원본-화면목록'!H6</f>
-        <v>메뉴3</v>
+        <v>Getting Started</v>
       </c>
       <c r="Q10" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R10" s="15" t="str">
         <f>'원본-화면목록'!I6</f>
-        <v>메뉴3-2</v>
+        <v>Units</v>
       </c>
       <c r="S10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T10" s="15" t="str">
+      <c r="T10" s="15">
         <f>'원본-화면목록'!J6</f>
-        <v>메뉴3-2-1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="16" t="s">
         <v>7</v>
@@ -2550,7 +2720,7 @@
       </c>
       <c r="AF10" s="18" t="str">
         <f>'원본-화면목록'!P6</f>
-        <v>/root3</v>
+        <v>/netiveUI/html/start</v>
       </c>
       <c r="AG10" s="17" t="s">
         <v>43</v>
@@ -2576,17 +2746,17 @@
       </c>
       <c r="D11" s="31">
         <f>'원본-화면목록'!B7</f>
-        <v>44018</v>
+        <v>44124</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="31" t="str">
+        <v>71</v>
+      </c>
+      <c r="F11" s="31">
         <f>'원본-화면목록'!C7</f>
-        <v>미정</v>
+        <v>44124</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H11" s="31" t="str">
         <f>'원본-화면목록'!D7</f>
@@ -2600,7 +2770,7 @@
         <v>이지은</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L11" s="11" t="str">
         <f>'원본-화면목록'!F7</f>
@@ -2611,35 +2781,35 @@
       </c>
       <c r="N11" s="15" t="str">
         <f>'원본-화면목록'!G7</f>
-        <v>P06_000201</v>
+        <v>device</v>
       </c>
       <c r="O11" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P11" s="15" t="str">
         <f>'원본-화면목록'!H7</f>
-        <v>메뉴3</v>
+        <v>Getting Started</v>
       </c>
       <c r="Q11" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R11" s="15" t="str">
         <f>'원본-화면목록'!I7</f>
-        <v>메뉴3-2</v>
+        <v>Device</v>
       </c>
       <c r="S11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T11" s="15" t="str">
+      <c r="T11" s="15">
         <f>'원본-화면목록'!J7</f>
-        <v>메뉴3-2-2</v>
+        <v>0</v>
       </c>
       <c r="U11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="V11" s="15" t="str">
+      <c r="V11" s="15">
         <f>'원본-화면목록'!K7</f>
-        <v>메뉴3-2-2-1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="16" t="s">
         <v>8</v>
@@ -2674,7 +2844,7 @@
       </c>
       <c r="AF11" s="18" t="str">
         <f>'원본-화면목록'!P7</f>
-        <v>/root3</v>
+        <v>/netiveUI/html/start</v>
       </c>
       <c r="AG11" s="17" t="s">
         <v>43</v>
@@ -2700,17 +2870,17 @@
       </c>
       <c r="D12" s="31">
         <f>'원본-화면목록'!B8</f>
-        <v>44019</v>
+        <v>44124</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="31" t="str">
+        <v>71</v>
+      </c>
+      <c r="F12" s="31">
         <f>'원본-화면목록'!C8</f>
-        <v>미정</v>
+        <v>44124</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H12" s="31" t="str">
         <f>'원본-화면목록'!D8</f>
@@ -2724,7 +2894,7 @@
         <v>이지은</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L12" s="11" t="str">
         <f>'원본-화면목록'!F8</f>
@@ -2735,28 +2905,28 @@
       </c>
       <c r="N12" s="15" t="str">
         <f>'원본-화면목록'!G8</f>
-        <v>P07_000100</v>
+        <v>margin</v>
       </c>
       <c r="O12" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P12" s="15" t="str">
         <f>'원본-화면목록'!H8</f>
-        <v>메뉴4</v>
+        <v>Getting Started</v>
       </c>
       <c r="Q12" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R12" s="15" t="str">
         <f>'원본-화면목록'!I8</f>
-        <v>메뉴4-1</v>
+        <v>Margin</v>
       </c>
       <c r="S12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T12" s="15" t="str">
+      <c r="T12" s="15">
         <f>'원본-화면목록'!J8</f>
-        <v>메뉴4-1-1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="16" t="s">
         <v>7</v>
@@ -2798,7 +2968,7 @@
       </c>
       <c r="AF12" s="18" t="str">
         <f>'원본-화면목록'!P8</f>
-        <v>/root4</v>
+        <v>/netiveUI/html/start</v>
       </c>
       <c r="AG12" s="17" t="s">
         <v>43</v>
@@ -2824,17 +2994,17 @@
       </c>
       <c r="D13" s="31">
         <f>'원본-화면목록'!B9</f>
-        <v>44020</v>
+        <v>44124</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="31" t="str">
+        <v>71</v>
+      </c>
+      <c r="F13" s="31">
         <f>'원본-화면목록'!C9</f>
-        <v>미정</v>
+        <v>44124</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H13" s="31" t="str">
         <f>'원본-화면목록'!D9</f>
@@ -2848,7 +3018,7 @@
         <v>이지은</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L13" s="11" t="str">
         <f>'원본-화면목록'!F9</f>
@@ -2859,28 +3029,28 @@
       </c>
       <c r="N13" s="15" t="str">
         <f>'원본-화면목록'!G9</f>
-        <v>P08_000200</v>
+        <v>bulletList</v>
       </c>
       <c r="O13" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P13" s="15" t="str">
         <f>'원본-화면목록'!H9</f>
-        <v>메뉴4</v>
+        <v>Contents Design</v>
       </c>
       <c r="Q13" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R13" s="15" t="str">
         <f>'원본-화면목록'!I9</f>
-        <v>메뉴4-1</v>
+        <v>Bullet List</v>
       </c>
       <c r="S13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T13" s="15" t="str">
+      <c r="T13" s="15">
         <f>'원본-화면목록'!J9</f>
-        <v>메뉴4-1-2</v>
+        <v>0</v>
       </c>
       <c r="U13" s="16" t="s">
         <v>7</v>
@@ -2922,7 +3092,7 @@
       </c>
       <c r="AF13" s="18" t="str">
         <f>'원본-화면목록'!P9</f>
-        <v>/root4</v>
+        <v>/netiveUI/html/contents</v>
       </c>
       <c r="AG13" s="17" t="s">
         <v>43</v>
@@ -2948,17 +3118,17 @@
       </c>
       <c r="D14" s="31">
         <f>'원본-화면목록'!B10</f>
-        <v>44021</v>
+        <v>44124</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="31" t="str">
+        <v>71</v>
+      </c>
+      <c r="F14" s="31">
         <f>'원본-화면목록'!C10</f>
-        <v>미정</v>
+        <v>44124</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H14" s="31" t="str">
         <f>'원본-화면목록'!D10</f>
@@ -2972,7 +3142,7 @@
         <v>이지은</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L14" s="11" t="str">
         <f>'원본-화면목록'!F10</f>
@@ -2983,28 +3153,28 @@
       </c>
       <c r="N14" s="15" t="str">
         <f>'원본-화면목록'!G10</f>
-        <v>P09_000100</v>
+        <v>button</v>
       </c>
       <c r="O14" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P14" s="15" t="str">
         <f>'원본-화면목록'!H10</f>
-        <v>메뉴4</v>
+        <v>Contents Design</v>
       </c>
       <c r="Q14" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R14" s="15" t="str">
         <f>'원본-화면목록'!I10</f>
-        <v>메뉴4-2</v>
+        <v>Button</v>
       </c>
       <c r="S14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T14" s="15" t="str">
+      <c r="T14" s="15">
         <f>'원본-화면목록'!J10</f>
-        <v>메뉴4-2-1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="16" t="s">
         <v>7</v>
@@ -3046,7 +3216,7 @@
       </c>
       <c r="AF14" s="18" t="str">
         <f>'원본-화면목록'!P10</f>
-        <v>/root4</v>
+        <v>/netiveUI/html/contents</v>
       </c>
       <c r="AG14" s="17" t="s">
         <v>43</v>
@@ -3072,17 +3242,17 @@
       </c>
       <c r="D15" s="31">
         <f>'원본-화면목록'!B11</f>
-        <v>44022</v>
+        <v>44124</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="31" t="str">
+        <v>71</v>
+      </c>
+      <c r="F15" s="31">
         <f>'원본-화면목록'!C11</f>
-        <v>미정</v>
+        <v>44124</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H15" s="31" t="str">
         <f>'원본-화면목록'!D11</f>
@@ -3096,7 +3266,7 @@
         <v>아이유</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L15" s="11" t="str">
         <f>'원본-화면목록'!F11</f>
@@ -3107,28 +3277,28 @@
       </c>
       <c r="N15" s="15" t="str">
         <f>'원본-화면목록'!G11</f>
-        <v>P10_000200</v>
+        <v>layout</v>
       </c>
       <c r="O15" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P15" s="15" t="str">
         <f>'원본-화면목록'!H11</f>
-        <v>메뉴4</v>
+        <v>Contents Design</v>
       </c>
       <c r="Q15" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R15" s="15" t="str">
         <f>'원본-화면목록'!I11</f>
-        <v>메뉴4-2</v>
+        <v>Layout</v>
       </c>
       <c r="S15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T15" s="15" t="str">
+      <c r="T15" s="15">
         <f>'원본-화면목록'!J11</f>
-        <v>메뉴4-2-2</v>
+        <v>0</v>
       </c>
       <c r="U15" s="16" t="s">
         <v>7</v>
@@ -3170,7 +3340,7 @@
       </c>
       <c r="AF15" s="18" t="str">
         <f>'원본-화면목록'!P11</f>
-        <v>/root4</v>
+        <v>/netiveUI/html/contents</v>
       </c>
       <c r="AG15" s="17" t="s">
         <v>43</v>
@@ -3196,17 +3366,17 @@
       </c>
       <c r="D16" s="31">
         <f>'원본-화면목록'!B12</f>
-        <v>44023</v>
+        <v>44124</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="31" t="str">
+        <v>71</v>
+      </c>
+      <c r="F16" s="31">
         <f>'원본-화면목록'!C12</f>
-        <v>미정</v>
+        <v>44124</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H16" s="31" t="str">
         <f>'원본-화면목록'!D12</f>
@@ -3220,7 +3390,7 @@
         <v>아이유</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L16" s="11" t="str">
         <f>'원본-화면목록'!F12</f>
@@ -3231,21 +3401,21 @@
       </c>
       <c r="N16" s="15" t="str">
         <f>'원본-화면목록'!G12</f>
-        <v>P11_000000</v>
+        <v>table</v>
       </c>
       <c r="O16" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P16" s="15" t="str">
         <f>'원본-화면목록'!H12</f>
-        <v>메뉴4</v>
+        <v>Contents Design</v>
       </c>
       <c r="Q16" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R16" s="15" t="str">
         <f>'원본-화면목록'!I12</f>
-        <v>메뉴4-3</v>
+        <v>Table</v>
       </c>
       <c r="S16" s="16" t="s">
         <v>6</v>
@@ -3294,7 +3464,7 @@
       </c>
       <c r="AF16" s="18" t="str">
         <f>'원본-화면목록'!P12</f>
-        <v>/root5</v>
+        <v>/netiveUI/html/contents</v>
       </c>
       <c r="AG16" s="17" t="s">
         <v>43</v>
@@ -3320,17 +3490,17 @@
       </c>
       <c r="D17" s="31">
         <f>'원본-화면목록'!B13</f>
-        <v>44024</v>
+        <v>44135</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F17" s="31" t="str">
         <f>'원본-화면목록'!C13</f>
         <v>미정</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H17" s="31" t="str">
         <f>'원본-화면목록'!D13</f>
@@ -3344,7 +3514,7 @@
         <v>아이유</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L17" s="11" t="str">
         <f>'원본-화면목록'!F13</f>
@@ -3355,28 +3525,28 @@
       </c>
       <c r="N17" s="15" t="str">
         <f>'원본-화면목록'!G13</f>
-        <v>P12_000200</v>
+        <v>scrollBar</v>
       </c>
       <c r="O17" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P17" s="15" t="str">
         <f>'원본-화면목록'!H13</f>
-        <v>메뉴4</v>
+        <v>Components</v>
       </c>
       <c r="Q17" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R17" s="15" t="str">
         <f>'원본-화면목록'!I13</f>
-        <v>메뉴4-4</v>
+        <v>Common</v>
       </c>
       <c r="S17" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T17" s="15">
+      <c r="T17" s="15" t="str">
         <f>'원본-화면목록'!J13</f>
-        <v>0</v>
+        <v>Scroll Bar</v>
       </c>
       <c r="U17" s="16" t="s">
         <v>7</v>
@@ -3418,7 +3588,7 @@
       </c>
       <c r="AF17" s="18" t="str">
         <f>'원본-화면목록'!P13</f>
-        <v>/root4</v>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="AG17" s="17" t="s">
         <v>43</v>
@@ -3444,17 +3614,17 @@
       </c>
       <c r="D18" s="31">
         <f>'원본-화면목록'!B14</f>
-        <v>44025</v>
+        <v>44135</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F18" s="31" t="str">
         <f>'원본-화면목록'!C14</f>
         <v>미정</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H18" s="31" t="str">
         <f>'원본-화면목록'!D14</f>
@@ -3468,7 +3638,7 @@
         <v>아이유</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L18" s="11" t="str">
         <f>'원본-화면목록'!F14</f>
@@ -3479,28 +3649,28 @@
       </c>
       <c r="N18" s="15" t="str">
         <f>'원본-화면목록'!G14</f>
-        <v>P13_000000</v>
+        <v>loading</v>
       </c>
       <c r="O18" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P18" s="15" t="str">
         <f>'원본-화면목록'!H14</f>
-        <v>메뉴5</v>
+        <v>Components</v>
       </c>
       <c r="Q18" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R18" s="15" t="str">
         <f>'원본-화면목록'!I14</f>
-        <v>메뉴5-1</v>
+        <v>Common</v>
       </c>
       <c r="S18" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T18" s="15">
+      <c r="T18" s="15" t="str">
         <f>'원본-화면목록'!J14</f>
-        <v>0</v>
+        <v>Loading</v>
       </c>
       <c r="U18" s="16" t="s">
         <v>7</v>
@@ -3542,7 +3712,7 @@
       </c>
       <c r="AF18" s="18" t="str">
         <f>'원본-화면목록'!P14</f>
-        <v>/root5</v>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="AG18" s="17" t="s">
         <v>43</v>
@@ -3568,17 +3738,17 @@
       </c>
       <c r="D19" s="31">
         <f>'원본-화면목록'!B15</f>
-        <v>44026</v>
+        <v>44135</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F19" s="31" t="str">
         <f>'원본-화면목록'!C15</f>
         <v>미정</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H19" s="31" t="str">
         <f>'원본-화면목록'!D15</f>
@@ -3592,7 +3762,7 @@
         <v>아이유</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L19" s="11" t="str">
         <f>'원본-화면목록'!F15</f>
@@ -3603,28 +3773,28 @@
       </c>
       <c r="N19" s="15" t="str">
         <f>'원본-화면목록'!G15</f>
-        <v>P14_000000</v>
+        <v>popup</v>
       </c>
       <c r="O19" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P19" s="15" t="str">
         <f>'원본-화면목록'!H15</f>
-        <v>메뉴5</v>
+        <v>Components</v>
       </c>
       <c r="Q19" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R19" s="15" t="str">
         <f>'원본-화면목록'!I15</f>
-        <v>메뉴5-2</v>
+        <v>Common</v>
       </c>
       <c r="S19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T19" s="15">
+      <c r="T19" s="15" t="str">
         <f>'원본-화면목록'!J15</f>
-        <v>0</v>
+        <v>Popup</v>
       </c>
       <c r="U19" s="16" t="s">
         <v>7</v>
@@ -3666,7 +3836,7 @@
       </c>
       <c r="AF19" s="18" t="str">
         <f>'원본-화면목록'!P15</f>
-        <v>/root5</v>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="AG19" s="17" t="s">
         <v>43</v>
@@ -3692,17 +3862,17 @@
       </c>
       <c r="D20" s="31">
         <f>'원본-화면목록'!B16</f>
-        <v>44027</v>
+        <v>44135</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F20" s="31" t="str">
         <f>'원본-화면목록'!C16</f>
         <v>미정</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H20" s="31" t="str">
         <f>'원본-화면목록'!D16</f>
@@ -3716,7 +3886,7 @@
         <v>아이유</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L20" s="11" t="str">
         <f>'원본-화면목록'!F16</f>
@@ -3727,28 +3897,28 @@
       </c>
       <c r="N20" s="15" t="str">
         <f>'원본-화면목록'!G16</f>
-        <v>P15_000000</v>
+        <v>scrollMove</v>
       </c>
       <c r="O20" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P20" s="15" t="str">
         <f>'원본-화면목록'!H16</f>
-        <v>메뉴5</v>
+        <v>Components</v>
       </c>
       <c r="Q20" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R20" s="15" t="str">
         <f>'원본-화면목록'!I16</f>
-        <v>메뉴5-3</v>
+        <v>Common</v>
       </c>
       <c r="S20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T20" s="15">
+      <c r="T20" s="15" t="str">
         <f>'원본-화면목록'!J16</f>
-        <v>0</v>
+        <v>Scroll Move</v>
       </c>
       <c r="U20" s="16" t="s">
         <v>7</v>
@@ -3790,7 +3960,7 @@
       </c>
       <c r="AF20" s="18" t="str">
         <f>'원본-화면목록'!P16</f>
-        <v>/root5</v>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="AG20" s="17" t="s">
         <v>43</v>
@@ -3816,17 +3986,17 @@
       </c>
       <c r="D21" s="31">
         <f>'원본-화면목록'!B17</f>
-        <v>44028</v>
+        <v>44135</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F21" s="31" t="str">
         <f>'원본-화면목록'!C17</f>
         <v>미정</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H21" s="31" t="str">
         <f>'원본-화면목록'!D17</f>
@@ -3840,7 +4010,7 @@
         <v>아이유</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L21" s="11" t="str">
         <f>'원본-화면목록'!F17</f>
@@ -3851,28 +4021,28 @@
       </c>
       <c r="N21" s="15" t="str">
         <f>'원본-화면목록'!G17</f>
-        <v>P16_000000</v>
+        <v>formLayout</v>
       </c>
       <c r="O21" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P21" s="15" t="str">
         <f>'원본-화면목록'!H17</f>
-        <v>메뉴5</v>
+        <v>Components</v>
       </c>
       <c r="Q21" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R21" s="15" t="str">
         <f>'원본-화면목록'!I17</f>
-        <v>메뉴5-4</v>
+        <v>Form</v>
       </c>
       <c r="S21" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T21" s="15">
+      <c r="T21" s="15" t="str">
         <f>'원본-화면목록'!J17</f>
-        <v>0</v>
+        <v>Form Layout</v>
       </c>
       <c r="U21" s="16" t="s">
         <v>7</v>
@@ -3914,7 +4084,7 @@
       </c>
       <c r="AF21" s="18" t="str">
         <f>'원본-화면목록'!P17</f>
-        <v>/root5</v>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="AG21" s="17" t="s">
         <v>43</v>
@@ -3940,17 +4110,17 @@
       </c>
       <c r="D22" s="31">
         <f>'원본-화면목록'!B18</f>
-        <v>44029</v>
+        <v>44135</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F22" s="31" t="str">
         <f>'원본-화면목록'!C18</f>
         <v>미정</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H22" s="31" t="str">
         <f>'원본-화면목록'!D18</f>
@@ -3964,7 +4134,7 @@
         <v>아이유</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L22" s="11" t="str">
         <f>'원본-화면목록'!F18</f>
@@ -3975,28 +4145,28 @@
       </c>
       <c r="N22" s="15" t="str">
         <f>'원본-화면목록'!G18</f>
-        <v>P17_000000</v>
+        <v>datePicker</v>
       </c>
       <c r="O22" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P22" s="15" t="str">
         <f>'원본-화면목록'!H18</f>
-        <v>메뉴5</v>
+        <v>Components</v>
       </c>
       <c r="Q22" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R22" s="15" t="str">
         <f>'원본-화면목록'!I18</f>
-        <v>메뉴5-5</v>
+        <v>Form</v>
       </c>
       <c r="S22" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T22" s="15">
+      <c r="T22" s="15" t="str">
         <f>'원본-화면목록'!J18</f>
-        <v>0</v>
+        <v>Date Picker</v>
       </c>
       <c r="U22" s="16" t="s">
         <v>7</v>
@@ -4038,7 +4208,7 @@
       </c>
       <c r="AF22" s="18" t="str">
         <f>'원본-화면목록'!P18</f>
-        <v>/root5</v>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="AG22" s="17" t="s">
         <v>43</v>
@@ -4064,17 +4234,17 @@
       </c>
       <c r="D23" s="31">
         <f>'원본-화면목록'!B19</f>
-        <v>44030</v>
+        <v>44135</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F23" s="31" t="str">
         <f>'원본-화면목록'!C19</f>
         <v>미정</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H23" s="31" t="str">
         <f>'원본-화면목록'!D19</f>
@@ -4088,7 +4258,7 @@
         <v>이지은</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L23" s="11" t="str">
         <f>'원본-화면목록'!F19</f>
@@ -4099,28 +4269,28 @@
       </c>
       <c r="N23" s="15" t="str">
         <f>'원본-화면목록'!G19</f>
-        <v>P18_000000</v>
+        <v>fileUpload</v>
       </c>
       <c r="O23" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P23" s="15" t="str">
         <f>'원본-화면목록'!H19</f>
-        <v>메뉴5</v>
+        <v>Components</v>
       </c>
       <c r="Q23" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R23" s="15" t="str">
         <f>'원본-화면목록'!I19</f>
-        <v>메뉴5-6</v>
+        <v>Form</v>
       </c>
       <c r="S23" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T23" s="15">
+      <c r="T23" s="15" t="str">
         <f>'원본-화면목록'!J19</f>
-        <v>0</v>
+        <v>File Upload</v>
       </c>
       <c r="U23" s="16" t="s">
         <v>7</v>
@@ -4162,7 +4332,7 @@
       </c>
       <c r="AF23" s="18" t="str">
         <f>'원본-화면목록'!P19</f>
-        <v>/root5</v>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="AG23" s="17" t="s">
         <v>43</v>
@@ -4188,17 +4358,17 @@
       </c>
       <c r="D24" s="31">
         <f>'원본-화면목록'!B20</f>
-        <v>44031</v>
+        <v>44135</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F24" s="31" t="str">
         <f>'원본-화면목록'!C20</f>
         <v>미정</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H24" s="31" t="str">
         <f>'원본-화면목록'!D20</f>
@@ -4212,7 +4382,7 @@
         <v>이지은</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L24" s="11" t="str">
         <f>'원본-화면목록'!F20</f>
@@ -4223,28 +4393,28 @@
       </c>
       <c r="N24" s="15" t="str">
         <f>'원본-화면목록'!G20</f>
-        <v>P19_000000</v>
+        <v>select</v>
       </c>
       <c r="O24" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P24" s="15" t="str">
         <f>'원본-화면목록'!H20</f>
-        <v>메뉴5</v>
+        <v>Components</v>
       </c>
       <c r="Q24" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R24" s="15" t="str">
         <f>'원본-화면목록'!I20</f>
-        <v>메뉴5-7</v>
+        <v>Form</v>
       </c>
       <c r="S24" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T24" s="15">
+      <c r="T24" s="15" t="str">
         <f>'원본-화면목록'!J20</f>
-        <v>0</v>
+        <v>Select</v>
       </c>
       <c r="U24" s="16" t="s">
         <v>7</v>
@@ -4286,7 +4456,7 @@
       </c>
       <c r="AF24" s="18" t="str">
         <f>'원본-화면목록'!P20</f>
-        <v>/root5</v>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="AG24" s="17" t="s">
         <v>43</v>
@@ -4312,17 +4482,17 @@
       </c>
       <c r="D25" s="31">
         <f>'원본-화면목록'!B21</f>
-        <v>44032</v>
+        <v>44135</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F25" s="31" t="str">
         <f>'원본-화면목록'!C21</f>
         <v>미정</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H25" s="31" t="str">
         <f>'원본-화면목록'!D21</f>
@@ -4336,7 +4506,7 @@
         <v>이지은</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L25" s="11" t="str">
         <f>'원본-화면목록'!F21</f>
@@ -4347,28 +4517,28 @@
       </c>
       <c r="N25" s="15" t="str">
         <f>'원본-화면목록'!G21</f>
-        <v>P20_000000</v>
+        <v>range</v>
       </c>
       <c r="O25" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P25" s="15" t="str">
         <f>'원본-화면목록'!H21</f>
-        <v>메뉴5</v>
+        <v>Components</v>
       </c>
       <c r="Q25" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R25" s="15" t="str">
         <f>'원본-화면목록'!I21</f>
-        <v>메뉴5-8</v>
+        <v>Form</v>
       </c>
       <c r="S25" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T25" s="15">
+      <c r="T25" s="15" t="str">
         <f>'원본-화면목록'!J21</f>
-        <v>0</v>
+        <v>Range</v>
       </c>
       <c r="U25" s="16" t="s">
         <v>7</v>
@@ -4410,7 +4580,7 @@
       </c>
       <c r="AF25" s="18" t="str">
         <f>'원본-화면목록'!P21</f>
-        <v>/root5</v>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="AG25" s="17" t="s">
         <v>43</v>
@@ -4436,17 +4606,17 @@
       </c>
       <c r="D26" s="31">
         <f>'원본-화면목록'!B22</f>
-        <v>44033</v>
+        <v>44135</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F26" s="31" t="str">
         <f>'원본-화면목록'!C22</f>
         <v>미정</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H26" s="31" t="str">
         <f>'원본-화면목록'!D22</f>
@@ -4460,7 +4630,7 @@
         <v>이지은</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L26" s="11" t="str">
         <f>'원본-화면목록'!F22</f>
@@ -4471,28 +4641,28 @@
       </c>
       <c r="N26" s="15" t="str">
         <f>'원본-화면목록'!G22</f>
-        <v>P21_000000</v>
+        <v>tableCaption</v>
       </c>
       <c r="O26" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P26" s="15" t="str">
         <f>'원본-화면목록'!H22</f>
-        <v>메뉴5</v>
+        <v>Components</v>
       </c>
       <c r="Q26" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R26" s="15" t="str">
         <f>'원본-화면목록'!I22</f>
-        <v>메뉴5-9</v>
+        <v>Table</v>
       </c>
       <c r="S26" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T26" s="15">
+      <c r="T26" s="15" t="str">
         <f>'원본-화면목록'!J22</f>
-        <v>0</v>
+        <v>Table Caption</v>
       </c>
       <c r="U26" s="16" t="s">
         <v>7</v>
@@ -4534,7 +4704,7 @@
       </c>
       <c r="AF26" s="18" t="str">
         <f>'원본-화면목록'!P22</f>
-        <v>/root5</v>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="AG26" s="17" t="s">
         <v>43</v>
@@ -4560,17 +4730,17 @@
       </c>
       <c r="D27" s="31">
         <f>'원본-화면목록'!B23</f>
-        <v>44034</v>
+        <v>44135</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F27" s="31" t="str">
         <f>'원본-화면목록'!C23</f>
         <v>미정</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H27" s="31" t="str">
         <f>'원본-화면목록'!D23</f>
@@ -4584,7 +4754,7 @@
         <v>이지은</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L27" s="11" t="str">
         <f>'원본-화면목록'!F23</f>
@@ -4595,28 +4765,28 @@
       </c>
       <c r="N27" s="15" t="str">
         <f>'원본-화면목록'!G23</f>
-        <v>P22_000000</v>
+        <v>tableScroll</v>
       </c>
       <c r="O27" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P27" s="15" t="str">
         <f>'원본-화면목록'!H23</f>
-        <v>메뉴6</v>
+        <v>Components</v>
       </c>
       <c r="Q27" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R27" s="15" t="str">
         <f>'원본-화면목록'!I23</f>
-        <v>메뉴6-1</v>
+        <v>Table</v>
       </c>
       <c r="S27" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T27" s="15">
+      <c r="T27" s="15" t="str">
         <f>'원본-화면목록'!J23</f>
-        <v>0</v>
+        <v>Table Scroll</v>
       </c>
       <c r="U27" s="16" t="s">
         <v>7</v>
@@ -4658,7 +4828,7 @@
       </c>
       <c r="AF27" s="18" t="str">
         <f>'원본-화면목록'!P23</f>
-        <v>/root5</v>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="AG27" s="17" t="s">
         <v>43</v>
@@ -4684,17 +4854,17 @@
       </c>
       <c r="D28" s="31">
         <f>'원본-화면목록'!B24</f>
-        <v>44035</v>
+        <v>44135</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F28" s="31" t="str">
         <f>'원본-화면목록'!C24</f>
         <v>미정</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H28" s="31" t="str">
         <f>'원본-화면목록'!D24</f>
@@ -4708,7 +4878,7 @@
         <v>이지은</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L28" s="11" t="str">
         <f>'원본-화면목록'!F24</f>
@@ -4719,28 +4889,28 @@
       </c>
       <c r="N28" s="15" t="str">
         <f>'원본-화면목록'!G24</f>
-        <v>P23_000000</v>
+        <v>tableCellFix</v>
       </c>
       <c r="O28" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P28" s="15" t="str">
         <f>'원본-화면목록'!H24</f>
-        <v>메뉴6</v>
+        <v>Components</v>
       </c>
       <c r="Q28" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R28" s="15" t="str">
         <f>'원본-화면목록'!I24</f>
-        <v>메뉴6-2</v>
+        <v>Table</v>
       </c>
       <c r="S28" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T28" s="15">
+      <c r="T28" s="15" t="str">
         <f>'원본-화면목록'!J24</f>
-        <v>0</v>
+        <v>Table Cell Fix</v>
       </c>
       <c r="U28" s="16" t="s">
         <v>7</v>
@@ -4782,7 +4952,7 @@
       </c>
       <c r="AF28" s="18" t="str">
         <f>'원본-화면목록'!P24</f>
-        <v>/root5</v>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="AG28" s="17" t="s">
         <v>43</v>
@@ -4808,17 +4978,17 @@
       </c>
       <c r="D29" s="31">
         <f>'원본-화면목록'!B25</f>
-        <v>44036</v>
+        <v>44135</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F29" s="31" t="str">
         <f>'원본-화면목록'!C25</f>
         <v>미정</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H29" s="31" t="str">
         <f>'원본-화면목록'!D25</f>
@@ -4832,7 +5002,7 @@
         <v>이지은</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L29" s="11" t="str">
         <f>'원본-화면목록'!F25</f>
@@ -4843,28 +5013,28 @@
       </c>
       <c r="N29" s="15" t="str">
         <f>'원본-화면목록'!G25</f>
-        <v>P24_000000</v>
+        <v>accordion</v>
       </c>
       <c r="O29" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P29" s="15" t="str">
         <f>'원본-화면목록'!H25</f>
-        <v>메뉴6</v>
+        <v>Components</v>
       </c>
       <c r="Q29" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R29" s="15" t="str">
         <f>'원본-화면목록'!I25</f>
-        <v>메뉴6-3</v>
+        <v>Layout</v>
       </c>
       <c r="S29" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T29" s="15">
+      <c r="T29" s="15" t="str">
         <f>'원본-화면목록'!J25</f>
-        <v>0</v>
+        <v>Accordion</v>
       </c>
       <c r="U29" s="16" t="s">
         <v>7</v>
@@ -4906,7 +5076,7 @@
       </c>
       <c r="AF29" s="18" t="str">
         <f>'원본-화면목록'!P25</f>
-        <v>/root5</v>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="AG29" s="17" t="s">
         <v>43</v>
@@ -4932,17 +5102,17 @@
       </c>
       <c r="D30" s="31">
         <f>'원본-화면목록'!B26</f>
-        <v>44037</v>
+        <v>44135</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F30" s="31" t="str">
         <f>'원본-화면목록'!C26</f>
         <v>미정</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H30" s="31" t="str">
         <f>'원본-화면목록'!D26</f>
@@ -4956,7 +5126,7 @@
         <v>이지은</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L30" s="11" t="str">
         <f>'원본-화면목록'!F26</f>
@@ -4967,28 +5137,28 @@
       </c>
       <c r="N30" s="15" t="str">
         <f>'원본-화면목록'!G26</f>
-        <v>P25_000000</v>
+        <v>dropdown</v>
       </c>
       <c r="O30" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P30" s="15" t="str">
         <f>'원본-화면목록'!H26</f>
-        <v>메뉴6</v>
+        <v>Components</v>
       </c>
       <c r="Q30" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R30" s="15" t="str">
         <f>'원본-화면목록'!I26</f>
-        <v>메뉴6-4</v>
+        <v>Layout</v>
       </c>
       <c r="S30" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T30" s="15">
+      <c r="T30" s="15" t="str">
         <f>'원본-화면목록'!J26</f>
-        <v>0</v>
+        <v>Dropdown</v>
       </c>
       <c r="U30" s="16" t="s">
         <v>7</v>
@@ -5030,7 +5200,7 @@
       </c>
       <c r="AF30" s="18" t="str">
         <f>'원본-화면목록'!P26</f>
-        <v>/root5</v>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="AG30" s="17" t="s">
         <v>43</v>
@@ -5056,17 +5226,17 @@
       </c>
       <c r="D31" s="31">
         <f>'원본-화면목록'!B27</f>
-        <v>44038</v>
+        <v>44135</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F31" s="31" t="str">
         <f>'원본-화면목록'!C27</f>
         <v>미정</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H31" s="31" t="str">
         <f>'원본-화면목록'!D27</f>
@@ -5080,7 +5250,7 @@
         <v>이지은</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L31" s="11" t="str">
         <f>'원본-화면목록'!F27</f>
@@ -5091,28 +5261,28 @@
       </c>
       <c r="N31" s="15" t="str">
         <f>'원본-화면목록'!G27</f>
-        <v>P26_000000</v>
+        <v>floating</v>
       </c>
       <c r="O31" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P31" s="15" t="str">
         <f>'원본-화면목록'!H27</f>
-        <v>메뉴6</v>
+        <v>Components</v>
       </c>
       <c r="Q31" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R31" s="15" t="str">
         <f>'원본-화면목록'!I27</f>
-        <v>메뉴6-5</v>
+        <v>Layout</v>
       </c>
       <c r="S31" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T31" s="15">
+      <c r="T31" s="15" t="str">
         <f>'원본-화면목록'!J27</f>
-        <v>0</v>
+        <v>Floating</v>
       </c>
       <c r="U31" s="16" t="s">
         <v>7</v>
@@ -5154,7 +5324,7 @@
       </c>
       <c r="AF31" s="18" t="str">
         <f>'원본-화면목록'!P27</f>
-        <v>/root5</v>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="AG31" s="17" t="s">
         <v>43</v>
@@ -5180,17 +5350,17 @@
       </c>
       <c r="D32" s="31">
         <f>'원본-화면목록'!B28</f>
-        <v>44039</v>
+        <v>44135</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F32" s="31" t="str">
         <f>'원본-화면목록'!C28</f>
         <v>미정</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H32" s="31" t="str">
         <f>'원본-화면목록'!D28</f>
@@ -5204,7 +5374,7 @@
         <v>아이유</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L32" s="11" t="str">
         <f>'원본-화면목록'!F28</f>
@@ -5215,28 +5385,28 @@
       </c>
       <c r="N32" s="15" t="str">
         <f>'원본-화면목록'!G28</f>
-        <v>P27_000000</v>
+        <v>floatingRange</v>
       </c>
       <c r="O32" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P32" s="15" t="str">
         <f>'원본-화면목록'!H28</f>
-        <v>메뉴6</v>
+        <v>Components</v>
       </c>
       <c r="Q32" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R32" s="15" t="str">
         <f>'원본-화면목록'!I28</f>
-        <v>메뉴6-6</v>
+        <v>Layout</v>
       </c>
       <c r="S32" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T32" s="15">
+      <c r="T32" s="15" t="str">
         <f>'원본-화면목록'!J28</f>
-        <v>0</v>
+        <v>Floating Range</v>
       </c>
       <c r="U32" s="16" t="s">
         <v>7</v>
@@ -5278,7 +5448,7 @@
       </c>
       <c r="AF32" s="18" t="str">
         <f>'원본-화면목록'!P28</f>
-        <v>/root5</v>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="AG32" s="17" t="s">
         <v>43</v>
@@ -5304,17 +5474,17 @@
       </c>
       <c r="D33" s="31">
         <f>'원본-화면목록'!B29</f>
-        <v>44040</v>
+        <v>44135</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F33" s="31" t="str">
         <f>'원본-화면목록'!C29</f>
         <v>미정</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H33" s="31" t="str">
         <f>'원본-화면목록'!D29</f>
@@ -5328,7 +5498,7 @@
         <v>아이유</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L33" s="11" t="str">
         <f>'원본-화면목록'!F29</f>
@@ -5339,28 +5509,28 @@
       </c>
       <c r="N33" s="15" t="str">
         <f>'원본-화면목록'!G29</f>
-        <v>P28_000000</v>
+        <v>modal</v>
       </c>
       <c r="O33" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P33" s="15" t="str">
         <f>'원본-화면목록'!H29</f>
-        <v>메뉴6</v>
+        <v>Components</v>
       </c>
       <c r="Q33" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R33" s="15" t="str">
         <f>'원본-화면목록'!I29</f>
-        <v>메뉴6-7</v>
+        <v>Layout</v>
       </c>
       <c r="S33" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T33" s="15">
+      <c r="T33" s="15" t="str">
         <f>'원본-화면목록'!J29</f>
-        <v>0</v>
+        <v>Modal</v>
       </c>
       <c r="U33" s="16" t="s">
         <v>7</v>
@@ -5402,7 +5572,7 @@
       </c>
       <c r="AF33" s="18" t="str">
         <f>'원본-화면목록'!P29</f>
-        <v>/root5</v>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="AG33" s="17" t="s">
         <v>43</v>
@@ -5428,17 +5598,17 @@
       </c>
       <c r="D34" s="31">
         <f>'원본-화면목록'!B30</f>
-        <v>44041</v>
+        <v>44135</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F34" s="31" t="str">
         <f>'원본-화면목록'!C30</f>
         <v>미정</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H34" s="31" t="str">
         <f>'원본-화면목록'!D30</f>
@@ -5452,7 +5622,7 @@
         <v>아이유</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L34" s="11" t="str">
         <f>'원본-화면목록'!F30</f>
@@ -5463,28 +5633,28 @@
       </c>
       <c r="N34" s="15" t="str">
         <f>'원본-화면목록'!G30</f>
-        <v>P29_000000</v>
+        <v>toast</v>
       </c>
       <c r="O34" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P34" s="15" t="str">
         <f>'원본-화면목록'!H30</f>
-        <v>메뉴6</v>
+        <v>Components</v>
       </c>
       <c r="Q34" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R34" s="15" t="str">
         <f>'원본-화면목록'!I30</f>
-        <v>메뉴6-8</v>
+        <v>Layout</v>
       </c>
       <c r="S34" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T34" s="15">
+      <c r="T34" s="15" t="str">
         <f>'원본-화면목록'!J30</f>
-        <v>0</v>
+        <v>Toast</v>
       </c>
       <c r="U34" s="16" t="s">
         <v>7</v>
@@ -5526,7 +5696,7 @@
       </c>
       <c r="AF34" s="18" t="str">
         <f>'원본-화면목록'!P30</f>
-        <v>/root5</v>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="AG34" s="17" t="s">
         <v>43</v>
@@ -5552,17 +5722,17 @@
       </c>
       <c r="D35" s="31">
         <f>'원본-화면목록'!B31</f>
-        <v>44042</v>
+        <v>44135</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F35" s="31" t="str">
         <f>'원본-화면목록'!C31</f>
         <v>미정</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H35" s="31" t="str">
         <f>'원본-화면목록'!D31</f>
@@ -5576,7 +5746,7 @@
         <v>아이유</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L35" s="11" t="str">
         <f>'원본-화면목록'!F31</f>
@@ -5587,28 +5757,28 @@
       </c>
       <c r="N35" s="15" t="str">
         <f>'원본-화면목록'!G31</f>
-        <v>P30_000000</v>
+        <v>parallaxScroll</v>
       </c>
       <c r="O35" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P35" s="15" t="str">
         <f>'원본-화면목록'!H31</f>
-        <v>메뉴6</v>
+        <v>Components</v>
       </c>
       <c r="Q35" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R35" s="15" t="str">
         <f>'원본-화면목록'!I31</f>
-        <v>메뉴6-9</v>
+        <v>Layout</v>
       </c>
       <c r="S35" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T35" s="15">
+      <c r="T35" s="15" t="str">
         <f>'원본-화면목록'!J31</f>
-        <v>0</v>
+        <v>Parallax Scroll</v>
       </c>
       <c r="U35" s="16" t="s">
         <v>7</v>
@@ -5650,7 +5820,7 @@
       </c>
       <c r="AF35" s="18" t="str">
         <f>'원본-화면목록'!P31</f>
-        <v>/root5</v>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="AG35" s="17" t="s">
         <v>43</v>
@@ -5676,17 +5846,17 @@
       </c>
       <c r="D36" s="31">
         <f>'원본-화면목록'!B32</f>
-        <v>44043</v>
+        <v>44135</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F36" s="31" t="str">
         <f>'원본-화면목록'!C32</f>
         <v>미정</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H36" s="31" t="str">
         <f>'원본-화면목록'!D32</f>
@@ -5700,7 +5870,7 @@
         <v>아이유</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="L36" s="11" t="str">
         <f>'원본-화면목록'!F32</f>
@@ -5711,28 +5881,28 @@
       </c>
       <c r="N36" s="15" t="str">
         <f>'원본-화면목록'!G32</f>
-        <v>P31_000000</v>
+        <v>tab</v>
       </c>
       <c r="O36" s="16" t="s">
         <v>4</v>
       </c>
       <c r="P36" s="15" t="str">
         <f>'원본-화면목록'!H32</f>
-        <v>메뉴6</v>
+        <v>Components</v>
       </c>
       <c r="Q36" s="16" t="s">
         <v>5</v>
       </c>
       <c r="R36" s="15" t="str">
         <f>'원본-화면목록'!I32</f>
-        <v>메뉴6-10</v>
+        <v>Layout</v>
       </c>
       <c r="S36" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T36" s="15">
+      <c r="T36" s="15" t="str">
         <f>'원본-화면목록'!J32</f>
-        <v>0</v>
+        <v>Tab</v>
       </c>
       <c r="U36" s="16" t="s">
         <v>7</v>
@@ -5774,7 +5944,7 @@
       </c>
       <c r="AF36" s="18" t="str">
         <f>'원본-화면목록'!P32</f>
-        <v>/root5</v>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="AG36" s="17" t="s">
         <v>43</v>
@@ -5787,61 +5957,421 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
-      <c r="U37" s="60"/>
-      <c r="V37" s="60"/>
-      <c r="W37" s="60"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="60"/>
-      <c r="Z37" s="60"/>
-      <c r="AA37" s="60"/>
-      <c r="AB37" s="60"/>
-      <c r="AC37" s="60"/>
-      <c r="AD37" s="60"/>
-      <c r="AE37" s="60"/>
-      <c r="AF37" s="60"/>
-      <c r="AG37" s="60"/>
-      <c r="AH37" s="60"/>
-      <c r="AI37" s="60"/>
+    <row r="37" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="26" t="str">
+        <f>'원본-화면목록'!A33</f>
+        <v>대기</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="31">
+        <f>'원본-화면목록'!B33</f>
+        <v>44135</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="31" t="str">
+        <f>'원본-화면목록'!C33</f>
+        <v>미정</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="31" t="str">
+        <f>'원본-화면목록'!D33</f>
+        <v>미정</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" s="11" t="str">
+        <f>'원본-화면목록'!E33</f>
+        <v>아이유</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="11" t="str">
+        <f>'원본-화면목록'!F33</f>
+        <v>최개발</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N37" s="15" t="str">
+        <f>'원본-화면목록'!G33</f>
+        <v>tooltip</v>
+      </c>
+      <c r="O37" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P37" s="15" t="str">
+        <f>'원본-화면목록'!H33</f>
+        <v>Components</v>
+      </c>
+      <c r="Q37" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R37" s="15" t="str">
+        <f>'원본-화면목록'!I33</f>
+        <v>Layout</v>
+      </c>
+      <c r="S37" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T37" s="15" t="str">
+        <f>'원본-화면목록'!J33</f>
+        <v>Tooltip</v>
+      </c>
+      <c r="U37" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V37" s="15">
+        <f>'원본-화면목록'!K33</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X37" s="15">
+        <f>'원본-화면목록'!L33</f>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z37" s="15">
+        <f>'원본-화면목록'!M33</f>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB37" s="15">
+        <f>'원본-화면목록'!N33</f>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD37" s="15">
+        <f>'원본-화면목록'!O33</f>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF37" s="18" t="str">
+        <f>'원본-화면목록'!P33</f>
+        <v>/netiveUI/html/components</v>
+      </c>
+      <c r="AG37" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH37" s="2">
+        <f>'원본-화면목록'!Q33</f>
+        <v>0</v>
+      </c>
+      <c r="AI37" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="26" t="str">
+        <f>'원본-화면목록'!A34</f>
+        <v>대기</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="31">
+        <f>'원본-화면목록'!B34</f>
+        <v>44135</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="31" t="str">
+        <f>'원본-화면목록'!C34</f>
+        <v>미정</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="31" t="str">
+        <f>'원본-화면목록'!D34</f>
+        <v>미정</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J38" s="11" t="str">
+        <f>'원본-화면목록'!E34</f>
+        <v>아이유</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L38" s="11" t="str">
+        <f>'원본-화면목록'!F34</f>
+        <v>최개발</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="15" t="str">
+        <f>'원본-화면목록'!G34</f>
+        <v>jsonCodingList</v>
+      </c>
+      <c r="O38" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P38" s="15" t="str">
+        <f>'원본-화면목록'!H34</f>
+        <v>Components</v>
+      </c>
+      <c r="Q38" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R38" s="15" t="str">
+        <f>'원본-화면목록'!I34</f>
+        <v>Item</v>
+      </c>
+      <c r="S38" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T38" s="15" t="str">
+        <f>'원본-화면목록'!J34</f>
+        <v>JSON Coding List</v>
+      </c>
+      <c r="U38" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V38" s="15">
+        <f>'원본-화면목록'!K34</f>
+        <v>0</v>
+      </c>
+      <c r="W38" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X38" s="15">
+        <f>'원본-화면목록'!L34</f>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z38" s="15">
+        <f>'원본-화면목록'!M34</f>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB38" s="15">
+        <f>'원본-화면목록'!N34</f>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD38" s="15">
+        <f>'원본-화면목록'!O34</f>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF38" s="18" t="str">
+        <f>'원본-화면목록'!P34</f>
+        <v>/netiveUI/html/components</v>
+      </c>
+      <c r="AG38" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH38" s="2">
+        <f>'원본-화면목록'!Q34</f>
+        <v>0</v>
+      </c>
+      <c r="AI38" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="26" t="str">
+        <f>'원본-화면목록'!A35</f>
+        <v>대기</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="31">
+        <f>'원본-화면목록'!B35</f>
+        <v>44135</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="31" t="str">
+        <f>'원본-화면목록'!C35</f>
+        <v>미정</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="31" t="str">
+        <f>'원본-화면목록'!D35</f>
+        <v>미정</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J39" s="11" t="str">
+        <f>'원본-화면목록'!E35</f>
+        <v>아이유</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L39" s="11" t="str">
+        <f>'원본-화면목록'!F35</f>
+        <v>최개발</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N39" s="15" t="str">
+        <f>'원본-화면목록'!G35</f>
+        <v>issue</v>
+      </c>
+      <c r="O39" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P39" s="15" t="str">
+        <f>'원본-화면목록'!H35</f>
+        <v>Memory</v>
+      </c>
+      <c r="Q39" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="R39" s="15" t="str">
+        <f>'원본-화면목록'!I35</f>
+        <v>Issue</v>
+      </c>
+      <c r="S39" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T39" s="15">
+        <f>'원본-화면목록'!J35</f>
+        <v>0</v>
+      </c>
+      <c r="U39" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V39" s="15">
+        <f>'원본-화면목록'!K35</f>
+        <v>0</v>
+      </c>
+      <c r="W39" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X39" s="15">
+        <f>'원본-화면목록'!L35</f>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z39" s="15">
+        <f>'원본-화면목록'!M35</f>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB39" s="15">
+        <f>'원본-화면목록'!N35</f>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD39" s="15">
+        <f>'원본-화면목록'!O35</f>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF39" s="18" t="str">
+        <f>'원본-화면목록'!P35</f>
+        <v>/netiveUI/html/memory</v>
+      </c>
+      <c r="AG39" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH39" s="2">
+        <f>'원본-화면목록'!Q35</f>
+        <v>0</v>
+      </c>
+      <c r="AI39" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="68"/>
+      <c r="AC40" s="68"/>
+      <c r="AD40" s="68"/>
+      <c r="AE40" s="68"/>
+      <c r="AF40" s="68"/>
+      <c r="AG40" s="68"/>
+      <c r="AH40" s="68"/>
+      <c r="AI40" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
+  <mergeCells count="30">
+    <mergeCell ref="A40:AI40"/>
+    <mergeCell ref="A4:AI4"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A1:AI1"/>
     <mergeCell ref="O3:AD3"/>
@@ -5856,6 +6386,20 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5865,35 +6409,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="57" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="58" customWidth="1"/>
-    <col min="3" max="4" width="7.19921875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="6.19921875" style="57" customWidth="1"/>
-    <col min="6" max="6" width="7" style="57" customWidth="1"/>
+    <col min="1" max="1" width="4.6875" style="56" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="57" customWidth="1"/>
+    <col min="3" max="4" width="7.1875" style="57" customWidth="1"/>
+    <col min="5" max="5" width="6.1875" style="56" customWidth="1"/>
+    <col min="6" max="6" width="7" style="56" customWidth="1"/>
     <col min="7" max="7" width="11" style="52" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="59" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.69921875" style="59" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.09765625" style="59" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="9" style="59"/>
-    <col min="16" max="16" width="6" style="52" customWidth="1"/>
-    <col min="17" max="17" width="9.3984375" style="52" customWidth="1"/>
-    <col min="18" max="18" width="1.796875" style="52" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="58" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6875" style="58" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="58" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="3.4375" style="58" customWidth="1"/>
+    <col min="16" max="16" width="18.25" style="52" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.375" style="52" customWidth="1"/>
+    <col min="18" max="18" width="2.3125" style="52" customWidth="1"/>
     <col min="19" max="19" width="5.5" style="52" customWidth="1"/>
-    <col min="20" max="24" width="4.59765625" style="56" customWidth="1"/>
-    <col min="25" max="25" width="2.09765625" style="51" customWidth="1"/>
+    <col min="20" max="24" width="4.625" style="55" customWidth="1"/>
+    <col min="25" max="25" width="2.125" style="51" customWidth="1"/>
     <col min="26" max="16384" width="9" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" s="40" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="34" t="s">
         <v>13</v>
       </c>
@@ -5904,7 +6448,7 @@
         <v>33</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>37</v>
@@ -5967,34 +6511,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A2" s="41" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B2" s="42">
-        <v>44013</v>
+        <v>44124</v>
       </c>
       <c r="C2" s="42">
-        <v>44013</v>
-      </c>
-      <c r="D2" s="42">
-        <v>44013</v>
+        <v>44124</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>49</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="44" t="str">
-        <f t="shared" ref="G2:G3" si="0">CONCATENATE(T2,U2,"_",V2,W2,X2)</f>
-        <v>P01_000000</v>
+        <v>117</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>122</v>
       </c>
       <c r="H2" s="45" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="J2" s="46"/>
       <c r="K2" s="46"/>
@@ -6004,14 +6547,14 @@
       <c r="O2" s="46"/>
       <c r="P2" s="47" t="str">
         <f>CONCATENATE(R2,S2)</f>
-        <v>/root1</v>
+        <v>/netiveUI/html/start</v>
       </c>
       <c r="Q2" s="47"/>
       <c r="R2" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S2" s="48" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="T2" s="49" t="s">
         <v>50</v>
@@ -6029,34 +6572,33 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A3" s="41" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B3" s="42">
-        <v>44014</v>
+        <v>44124</v>
       </c>
       <c r="C3" s="42">
-        <v>44013</v>
-      </c>
-      <c r="D3" s="42">
-        <v>44013</v>
+        <v>44124</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>49</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F3" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="G3" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v>P02_000000</v>
-      </c>
       <c r="H3" s="45" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="I3" s="46" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="J3" s="45"/>
       <c r="K3" s="46"/>
@@ -6065,21 +6607,21 @@
       <c r="N3" s="46"/>
       <c r="O3" s="46"/>
       <c r="P3" s="47" t="str">
-        <f t="shared" ref="P3:P12" si="1">CONCATENATE(R3,S3)</f>
-        <v>/root1</v>
+        <f t="shared" ref="P3:P12" si="0">CONCATENATE(R3,S3)</f>
+        <v>/netiveUI/html/start</v>
       </c>
       <c r="Q3" s="47"/>
       <c r="R3" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S3" s="48" t="s">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="T3" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U3" s="50" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="V3" s="50" t="s">
         <v>48</v>
@@ -6091,34 +6633,33 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A4" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B4" s="42">
-        <v>44015</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>49</v>
+        <v>44124</v>
+      </c>
+      <c r="C4" s="42">
+        <v>44124</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="G4" s="44" t="str">
-        <f>CONCATENATE(T4,U4,"_",V4,W4,X4)</f>
-        <v>P03_000000</v>
+        <v>117</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>165</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="J4" s="53"/>
       <c r="K4" s="53"/>
@@ -6127,21 +6668,21 @@
       <c r="N4" s="46"/>
       <c r="O4" s="46"/>
       <c r="P4" s="47" t="str">
-        <f t="shared" ref="P4" si="2">CONCATENATE(R4,S4)</f>
-        <v>/root2</v>
+        <f t="shared" ref="P4" si="1">CONCATENATE(R4,S4)</f>
+        <v>/netiveUI/html/start</v>
       </c>
       <c r="Q4" s="47"/>
       <c r="R4" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S4" s="48" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="T4" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U4" s="50" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="V4" s="50" t="s">
         <v>48</v>
@@ -6153,34 +6694,33 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A5" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B5" s="42">
-        <v>44016</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>49</v>
+        <v>44124</v>
+      </c>
+      <c r="C5" s="42">
+        <v>44124</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="G5" s="44" t="str">
-        <f t="shared" ref="G5:G12" si="3">CONCATENATE(T5,U5,"_",V5,W5,X5)</f>
-        <v>P04_000000</v>
+        <v>121</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>166</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="I5" s="53" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="J5" s="53"/>
       <c r="K5" s="53"/>
@@ -6189,21 +6729,21 @@
       <c r="N5" s="46"/>
       <c r="O5" s="46"/>
       <c r="P5" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>/root3</v>
+        <f t="shared" si="0"/>
+        <v>/netiveUI/html/start</v>
       </c>
       <c r="Q5" s="47"/>
       <c r="R5" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S5" s="48" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="T5" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U5" s="50" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="V5" s="50" t="s">
         <v>48</v>
@@ -6215,59 +6755,56 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A6" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B6" s="42">
-        <v>44017</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>49</v>
+        <v>44124</v>
+      </c>
+      <c r="C6" s="42">
+        <v>44124</v>
       </c>
       <c r="D6" s="42" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="G6" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v>P05_000100</v>
+        <v>117</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>167</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>58</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="J6" s="53"/>
       <c r="K6" s="53"/>
       <c r="L6" s="46"/>
       <c r="M6" s="46"/>
       <c r="N6" s="46"/>
       <c r="O6" s="46"/>
       <c r="P6" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>/root3</v>
+        <f t="shared" si="0"/>
+        <v>/netiveUI/html/start</v>
       </c>
       <c r="Q6" s="47"/>
       <c r="R6" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S6" s="48" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="T6" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U6" s="50" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="V6" s="50" t="s">
         <v>48</v>
@@ -6279,61 +6816,56 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A7" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B7" s="42">
-        <v>44018</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>49</v>
+        <v>44124</v>
+      </c>
+      <c r="C7" s="42">
+        <v>44124</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v>P06_000201</v>
+        <v>119</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>168</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="53" t="s">
-        <v>68</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
       <c r="L7" s="46"/>
       <c r="M7" s="46"/>
       <c r="N7" s="46"/>
       <c r="O7" s="46"/>
       <c r="P7" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>/root3</v>
+        <f t="shared" si="0"/>
+        <v>/netiveUI/html/start</v>
       </c>
       <c r="Q7" s="47"/>
       <c r="R7" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S7" s="48" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="T7" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U7" s="50" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="V7" s="50" t="s">
         <v>48</v>
@@ -6345,59 +6877,56 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A8" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B8" s="42">
-        <v>44019</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>49</v>
+        <v>44124</v>
+      </c>
+      <c r="C8" s="42">
+        <v>44124</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="G8" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v>P07_000100</v>
+        <v>117</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>169</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="53" t="s">
-        <v>64</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="J8" s="53"/>
       <c r="K8" s="54"/>
       <c r="L8" s="46"/>
       <c r="M8" s="46"/>
       <c r="N8" s="46"/>
       <c r="O8" s="46"/>
       <c r="P8" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>/root4</v>
+        <f t="shared" si="0"/>
+        <v>/netiveUI/html/start</v>
       </c>
       <c r="Q8" s="47"/>
       <c r="R8" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S8" s="48" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="T8" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U8" s="50" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="V8" s="50" t="s">
         <v>48</v>
@@ -6409,59 +6938,56 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A9" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B9" s="42">
-        <v>44020</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>49</v>
+        <v>44124</v>
+      </c>
+      <c r="C9" s="42">
+        <v>44124</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="G9" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v>P08_000200</v>
+        <v>120</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>170</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="53" t="s">
-        <v>63</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="J9" s="53"/>
       <c r="K9" s="54"/>
       <c r="L9" s="46"/>
       <c r="M9" s="46"/>
       <c r="N9" s="46"/>
       <c r="O9" s="46"/>
       <c r="P9" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>/root4</v>
+        <f t="shared" si="0"/>
+        <v>/netiveUI/html/contents</v>
       </c>
       <c r="Q9" s="47"/>
       <c r="R9" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S9" s="48" t="s">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="T9" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U9" s="50" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="V9" s="50" t="s">
         <v>48</v>
@@ -6473,59 +6999,56 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A10" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B10" s="42">
-        <v>44021</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>49</v>
+        <v>44124</v>
+      </c>
+      <c r="C10" s="42">
+        <v>44124</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v>P09_000100</v>
+        <v>117</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>171</v>
       </c>
       <c r="H10" s="45" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="53" t="s">
-        <v>65</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="J10" s="53"/>
       <c r="K10" s="54"/>
       <c r="L10" s="46"/>
       <c r="M10" s="46"/>
       <c r="N10" s="46"/>
       <c r="O10" s="46"/>
       <c r="P10" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>/root4</v>
+        <f t="shared" si="0"/>
+        <v>/netiveUI/html/contents</v>
       </c>
       <c r="Q10" s="47"/>
       <c r="R10" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S10" s="48" t="s">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="T10" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U10" s="50" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="V10" s="50" t="s">
         <v>48</v>
@@ -6537,59 +7060,56 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A11" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B11" s="42">
-        <v>44022</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>49</v>
+        <v>44124</v>
+      </c>
+      <c r="C11" s="42">
+        <v>44124</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="G11" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v>P10_000200</v>
+        <v>117</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>172</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="53" t="s">
-        <v>66</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="J11" s="53"/>
       <c r="K11" s="54"/>
       <c r="L11" s="46"/>
       <c r="M11" s="46"/>
       <c r="N11" s="46"/>
       <c r="O11" s="46"/>
       <c r="P11" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>/root4</v>
+        <f t="shared" si="0"/>
+        <v>/netiveUI/html/contents</v>
       </c>
       <c r="Q11" s="47"/>
       <c r="R11" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S11" s="48" t="s">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="T11" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U11" s="50" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="V11" s="50" t="s">
         <v>48</v>
@@ -6601,34 +7121,33 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A12" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B12" s="42">
-        <v>44023</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>49</v>
+        <v>44124</v>
+      </c>
+      <c r="C12" s="42">
+        <v>44124</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="G12" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v>P11_000000</v>
+        <v>117</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>173</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="I12" s="53" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="J12" s="53"/>
       <c r="K12" s="54"/>
@@ -6637,21 +7156,21 @@
       <c r="N12" s="46"/>
       <c r="O12" s="46"/>
       <c r="P12" s="47" t="str">
-        <f t="shared" si="1"/>
-        <v>/root5</v>
+        <f t="shared" si="0"/>
+        <v>/netiveUI/html/contents</v>
       </c>
       <c r="Q12" s="47"/>
       <c r="R12" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S12" s="48" t="s">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="T12" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U12" s="50" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="V12" s="50" t="s">
         <v>48</v>
@@ -6663,12 +7182,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A13" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B13" s="42">
-        <v>44024</v>
+        <v>44135</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>49</v>
@@ -6677,43 +7196,44 @@
         <v>49</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="G13" s="44" t="str">
-        <f t="shared" ref="G13:G14" si="4">CONCATENATE(T13,U13,"_",V13,W13,X13)</f>
-        <v>P12_000200</v>
+        <v>117</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>174</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="I13" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="J13" s="53"/>
+        <v>137</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>138</v>
+      </c>
       <c r="K13" s="54"/>
       <c r="L13" s="46"/>
       <c r="M13" s="46"/>
       <c r="N13" s="46"/>
       <c r="O13" s="46"/>
       <c r="P13" s="47" t="str">
-        <f t="shared" ref="P13:P14" si="5">CONCATENATE(R13,S13)</f>
-        <v>/root4</v>
+        <f t="shared" ref="P13:P14" si="2">CONCATENATE(R13,S13)</f>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="Q13" s="47"/>
       <c r="R13" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S13" s="48" t="s">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="T13" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U13" s="50" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="V13" s="50" t="s">
         <v>48</v>
@@ -6725,12 +7245,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A14" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B14" s="42">
-        <v>44025</v>
+        <v>44135</v>
       </c>
       <c r="C14" s="42" t="s">
         <v>49</v>
@@ -6739,43 +7259,44 @@
         <v>49</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G14" s="44" t="str">
-        <f t="shared" si="4"/>
-        <v>P13_000000</v>
+        <v>118</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>175</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="I14" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="J14" s="53"/>
+        <v>137</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>139</v>
+      </c>
       <c r="K14" s="54"/>
       <c r="L14" s="46"/>
       <c r="M14" s="46"/>
       <c r="N14" s="46"/>
       <c r="O14" s="46"/>
       <c r="P14" s="47" t="str">
-        <f t="shared" si="5"/>
-        <v>/root5</v>
+        <f t="shared" si="2"/>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="Q14" s="47"/>
       <c r="R14" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S14" s="48" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="T14" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U14" s="50" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="V14" s="50" t="s">
         <v>48</v>
@@ -6787,12 +7308,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A15" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B15" s="42">
-        <v>44026</v>
+        <v>44135</v>
       </c>
       <c r="C15" s="42" t="s">
         <v>49</v>
@@ -6801,43 +7322,44 @@
         <v>49</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G15" s="44" t="str">
-        <f t="shared" ref="G15:G32" si="6">CONCATENATE(T15,U15,"_",V15,W15,X15)</f>
-        <v>P14_000000</v>
+        <v>118</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>176</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="J15" s="53"/>
+        <v>137</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>140</v>
+      </c>
       <c r="K15" s="54"/>
       <c r="L15" s="46"/>
       <c r="M15" s="46"/>
       <c r="N15" s="46"/>
       <c r="O15" s="46"/>
       <c r="P15" s="47" t="str">
-        <f t="shared" ref="P15:P32" si="7">CONCATENATE(R15,S15)</f>
-        <v>/root5</v>
+        <f t="shared" ref="P15:P32" si="3">CONCATENATE(R15,S15)</f>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="Q15" s="47"/>
       <c r="R15" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S15" s="48" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="T15" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U15" s="50" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="V15" s="50" t="s">
         <v>48</v>
@@ -6849,12 +7371,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A16" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B16" s="42">
-        <v>44027</v>
+        <v>44135</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>49</v>
@@ -6863,43 +7385,44 @@
         <v>49</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="G16" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>P15_000000</v>
+        <v>121</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>177</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="I16" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="J16" s="53"/>
+        <v>137</v>
+      </c>
+      <c r="J16" s="53" t="s">
+        <v>141</v>
+      </c>
       <c r="K16" s="54"/>
       <c r="L16" s="46"/>
       <c r="M16" s="46"/>
       <c r="N16" s="46"/>
       <c r="O16" s="46"/>
       <c r="P16" s="47" t="str">
-        <f t="shared" si="7"/>
-        <v>/root5</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="Q16" s="47"/>
       <c r="R16" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S16" s="48" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="T16" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U16" s="50" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="V16" s="50" t="s">
         <v>48</v>
@@ -6911,12 +7434,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A17" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B17" s="42">
-        <v>44028</v>
+        <v>44135</v>
       </c>
       <c r="C17" s="42" t="s">
         <v>49</v>
@@ -6925,43 +7448,44 @@
         <v>49</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G17" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>P16_000000</v>
+        <v>118</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>178</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="I17" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="J17" s="53"/>
+        <v>142</v>
+      </c>
+      <c r="J17" s="53" t="s">
+        <v>143</v>
+      </c>
       <c r="K17" s="54"/>
       <c r="L17" s="46"/>
       <c r="M17" s="46"/>
       <c r="N17" s="46"/>
       <c r="O17" s="46"/>
       <c r="P17" s="47" t="str">
-        <f t="shared" si="7"/>
-        <v>/root5</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="Q17" s="47"/>
       <c r="R17" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S17" s="48" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="T17" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U17" s="50" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="V17" s="50" t="s">
         <v>48</v>
@@ -6973,12 +7497,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A18" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B18" s="42">
-        <v>44029</v>
+        <v>44135</v>
       </c>
       <c r="C18" s="42" t="s">
         <v>49</v>
@@ -6987,43 +7511,44 @@
         <v>49</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="G18" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>P17_000000</v>
+        <v>119</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>179</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="I18" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="J18" s="53"/>
+        <v>142</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>144</v>
+      </c>
       <c r="K18" s="54"/>
       <c r="L18" s="46"/>
       <c r="M18" s="46"/>
       <c r="N18" s="46"/>
       <c r="O18" s="46"/>
       <c r="P18" s="47" t="str">
-        <f t="shared" si="7"/>
-        <v>/root5</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="Q18" s="47"/>
       <c r="R18" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S18" s="48" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="T18" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U18" s="50" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="V18" s="50" t="s">
         <v>48</v>
@@ -7035,12 +7560,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A19" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B19" s="42">
-        <v>44030</v>
+        <v>44135</v>
       </c>
       <c r="C19" s="42" t="s">
         <v>49</v>
@@ -7049,43 +7574,44 @@
         <v>49</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>P18_000000</v>
+        <v>118</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>180</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="I19" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="J19" s="53"/>
+        <v>142</v>
+      </c>
+      <c r="J19" s="53" t="s">
+        <v>145</v>
+      </c>
       <c r="K19" s="54"/>
       <c r="L19" s="46"/>
       <c r="M19" s="46"/>
       <c r="N19" s="46"/>
       <c r="O19" s="46"/>
       <c r="P19" s="47" t="str">
-        <f t="shared" si="7"/>
-        <v>/root5</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="Q19" s="47"/>
       <c r="R19" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S19" s="48" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="T19" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U19" s="50" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="V19" s="50" t="s">
         <v>48</v>
@@ -7097,12 +7623,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A20" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B20" s="42">
-        <v>44031</v>
+        <v>44135</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>49</v>
@@ -7111,43 +7637,44 @@
         <v>49</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="G20" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>P19_000000</v>
+        <v>121</v>
+      </c>
+      <c r="G20" s="53" t="s">
+        <v>181</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="J20" s="53"/>
+        <v>142</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>146</v>
+      </c>
       <c r="K20" s="54"/>
       <c r="L20" s="46"/>
       <c r="M20" s="46"/>
       <c r="N20" s="46"/>
       <c r="O20" s="46"/>
       <c r="P20" s="47" t="str">
-        <f t="shared" si="7"/>
-        <v>/root5</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="Q20" s="47"/>
       <c r="R20" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S20" s="48" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="T20" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U20" s="50" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="V20" s="50" t="s">
         <v>48</v>
@@ -7159,12 +7686,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A21" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B21" s="42">
-        <v>44032</v>
+        <v>44135</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>49</v>
@@ -7173,43 +7700,44 @@
         <v>49</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>P20_000000</v>
+        <v>121</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>182</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="I21" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="J21" s="53"/>
+        <v>142</v>
+      </c>
+      <c r="J21" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="K21" s="54"/>
       <c r="L21" s="46"/>
       <c r="M21" s="46"/>
       <c r="N21" s="46"/>
       <c r="O21" s="46"/>
       <c r="P21" s="47" t="str">
-        <f t="shared" si="7"/>
-        <v>/root5</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="Q21" s="47"/>
       <c r="R21" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S21" s="48" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="T21" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U21" s="50" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="V21" s="50" t="s">
         <v>48</v>
@@ -7221,12 +7749,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A22" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B22" s="42">
-        <v>44033</v>
+        <v>44135</v>
       </c>
       <c r="C22" s="42" t="s">
         <v>49</v>
@@ -7235,43 +7763,44 @@
         <v>49</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G22" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>P21_000000</v>
+        <v>118</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>183</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="I22" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="J22" s="53"/>
+        <v>135</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>148</v>
+      </c>
       <c r="K22" s="54"/>
       <c r="L22" s="46"/>
       <c r="M22" s="46"/>
       <c r="N22" s="46"/>
       <c r="O22" s="46"/>
       <c r="P22" s="47" t="str">
-        <f t="shared" si="7"/>
-        <v>/root5</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="Q22" s="47"/>
       <c r="R22" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S22" s="48" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="T22" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U22" s="50" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="V22" s="50" t="s">
         <v>48</v>
@@ -7283,12 +7812,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A23" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B23" s="42">
-        <v>44034</v>
+        <v>44135</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>49</v>
@@ -7297,43 +7826,44 @@
         <v>49</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G23" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>P22_000000</v>
+        <v>118</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>184</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I23" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="J23" s="53"/>
+        <v>135</v>
+      </c>
+      <c r="J23" s="53" t="s">
+        <v>149</v>
+      </c>
       <c r="K23" s="54"/>
       <c r="L23" s="46"/>
       <c r="M23" s="46"/>
       <c r="N23" s="46"/>
       <c r="O23" s="46"/>
       <c r="P23" s="47" t="str">
-        <f t="shared" si="7"/>
-        <v>/root5</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="Q23" s="47"/>
       <c r="R23" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S23" s="48" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="T23" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U23" s="50" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="V23" s="50" t="s">
         <v>48</v>
@@ -7345,12 +7875,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A24" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B24" s="42">
-        <v>44035</v>
+        <v>44135</v>
       </c>
       <c r="C24" s="42" t="s">
         <v>49</v>
@@ -7359,43 +7889,44 @@
         <v>49</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>P23_000000</v>
+        <v>118</v>
+      </c>
+      <c r="G24" s="53" t="s">
+        <v>185</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I24" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="J24" s="53"/>
+        <v>135</v>
+      </c>
+      <c r="J24" s="53" t="s">
+        <v>150</v>
+      </c>
       <c r="K24" s="54"/>
       <c r="L24" s="46"/>
       <c r="M24" s="46"/>
       <c r="N24" s="46"/>
       <c r="O24" s="46"/>
       <c r="P24" s="47" t="str">
-        <f t="shared" si="7"/>
-        <v>/root5</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="Q24" s="47"/>
       <c r="R24" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S24" s="48" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="T24" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U24" s="50" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="V24" s="50" t="s">
         <v>48</v>
@@ -7407,12 +7938,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A25" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B25" s="42">
-        <v>44036</v>
+        <v>44135</v>
       </c>
       <c r="C25" s="42" t="s">
         <v>49</v>
@@ -7421,43 +7952,44 @@
         <v>49</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="G25" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>P24_000000</v>
+        <v>119</v>
+      </c>
+      <c r="G25" s="53" t="s">
+        <v>186</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I25" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="J25" s="53"/>
+        <v>134</v>
+      </c>
+      <c r="J25" s="53" t="s">
+        <v>151</v>
+      </c>
       <c r="K25" s="54"/>
       <c r="L25" s="46"/>
       <c r="M25" s="46"/>
       <c r="N25" s="46"/>
       <c r="O25" s="46"/>
       <c r="P25" s="47" t="str">
-        <f t="shared" si="7"/>
-        <v>/root5</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="Q25" s="47"/>
       <c r="R25" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S25" s="48" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="T25" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U25" s="50" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="V25" s="50" t="s">
         <v>48</v>
@@ -7469,12 +8001,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A26" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B26" s="42">
-        <v>44037</v>
+        <v>44135</v>
       </c>
       <c r="C26" s="42" t="s">
         <v>49</v>
@@ -7483,43 +8015,44 @@
         <v>49</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="G26" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>P25_000000</v>
+        <v>119</v>
+      </c>
+      <c r="G26" s="53" t="s">
+        <v>187</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I26" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="J26" s="53"/>
+        <v>134</v>
+      </c>
+      <c r="J26" s="53" t="s">
+        <v>152</v>
+      </c>
       <c r="K26" s="54"/>
       <c r="L26" s="46"/>
       <c r="M26" s="46"/>
       <c r="N26" s="46"/>
       <c r="O26" s="46"/>
       <c r="P26" s="47" t="str">
-        <f t="shared" si="7"/>
-        <v>/root5</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="Q26" s="47"/>
       <c r="R26" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S26" s="48" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="T26" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U26" s="50" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="V26" s="50" t="s">
         <v>48</v>
@@ -7531,12 +8064,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A27" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B27" s="42">
-        <v>44038</v>
+        <v>44135</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>49</v>
@@ -7545,43 +8078,44 @@
         <v>49</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="G27" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>P26_000000</v>
+        <v>119</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>188</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I27" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="J27" s="53"/>
+        <v>134</v>
+      </c>
+      <c r="J27" s="53" t="s">
+        <v>153</v>
+      </c>
       <c r="K27" s="54"/>
       <c r="L27" s="46"/>
       <c r="M27" s="46"/>
       <c r="N27" s="46"/>
       <c r="O27" s="46"/>
       <c r="P27" s="47" t="str">
-        <f t="shared" si="7"/>
-        <v>/root5</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="Q27" s="47"/>
       <c r="R27" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S27" s="48" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="T27" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U27" s="50" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="V27" s="50" t="s">
         <v>48</v>
@@ -7593,12 +8127,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A28" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B28" s="42">
-        <v>44039</v>
+        <v>44135</v>
       </c>
       <c r="C28" s="42" t="s">
         <v>49</v>
@@ -7607,43 +8141,44 @@
         <v>49</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="G28" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>P27_000000</v>
+        <v>121</v>
+      </c>
+      <c r="G28" s="53" t="s">
+        <v>189</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I28" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="J28" s="53"/>
+        <v>134</v>
+      </c>
+      <c r="J28" s="53" t="s">
+        <v>154</v>
+      </c>
       <c r="K28" s="54"/>
       <c r="L28" s="46"/>
       <c r="M28" s="46"/>
       <c r="N28" s="46"/>
       <c r="O28" s="46"/>
       <c r="P28" s="47" t="str">
-        <f t="shared" si="7"/>
-        <v>/root5</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="Q28" s="47"/>
       <c r="R28" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S28" s="48" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="T28" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U28" s="50" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="V28" s="50" t="s">
         <v>48</v>
@@ -7655,12 +8190,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A29" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B29" s="42">
-        <v>44040</v>
+        <v>44135</v>
       </c>
       <c r="C29" s="42" t="s">
         <v>49</v>
@@ -7669,43 +8204,44 @@
         <v>49</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F29" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>P28_000000</v>
+        <v>119</v>
+      </c>
+      <c r="G29" s="53" t="s">
+        <v>190</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I29" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="J29" s="53"/>
+        <v>134</v>
+      </c>
+      <c r="J29" s="53" t="s">
+        <v>155</v>
+      </c>
       <c r="K29" s="54"/>
       <c r="L29" s="46"/>
       <c r="M29" s="46"/>
       <c r="N29" s="46"/>
       <c r="O29" s="46"/>
       <c r="P29" s="47" t="str">
-        <f t="shared" si="7"/>
-        <v>/root5</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="Q29" s="47"/>
       <c r="R29" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S29" s="48" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="T29" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U29" s="50" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="V29" s="50" t="s">
         <v>48</v>
@@ -7717,12 +8253,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A30" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B30" s="42">
-        <v>44041</v>
+        <v>44135</v>
       </c>
       <c r="C30" s="42" t="s">
         <v>49</v>
@@ -7731,43 +8267,44 @@
         <v>49</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="G30" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>P29_000000</v>
+        <v>119</v>
+      </c>
+      <c r="G30" s="53" t="s">
+        <v>191</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I30" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="J30" s="53"/>
+        <v>134</v>
+      </c>
+      <c r="J30" s="53" t="s">
+        <v>156</v>
+      </c>
       <c r="K30" s="54"/>
       <c r="L30" s="46"/>
       <c r="M30" s="46"/>
       <c r="N30" s="46"/>
       <c r="O30" s="46"/>
       <c r="P30" s="47" t="str">
-        <f t="shared" si="7"/>
-        <v>/root5</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="Q30" s="47"/>
       <c r="R30" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S30" s="48" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="T30" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U30" s="50" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="V30" s="50" t="s">
         <v>48</v>
@@ -7779,12 +8316,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A31" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B31" s="42">
-        <v>44042</v>
+        <v>44135</v>
       </c>
       <c r="C31" s="42" t="s">
         <v>49</v>
@@ -7793,43 +8330,44 @@
         <v>49</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F31" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="G31" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>P30_000000</v>
+        <v>120</v>
+      </c>
+      <c r="G31" s="53" t="s">
+        <v>192</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I31" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="J31" s="53"/>
+        <v>134</v>
+      </c>
+      <c r="J31" s="53" t="s">
+        <v>157</v>
+      </c>
       <c r="K31" s="54"/>
       <c r="L31" s="46"/>
       <c r="M31" s="46"/>
       <c r="N31" s="46"/>
       <c r="O31" s="46"/>
       <c r="P31" s="47" t="str">
-        <f t="shared" si="7"/>
-        <v>/root5</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="Q31" s="47"/>
       <c r="R31" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S31" s="48" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="T31" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U31" s="50" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="V31" s="50" t="s">
         <v>48</v>
@@ -7841,12 +8379,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.6">
       <c r="A32" s="41" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B32" s="42">
-        <v>44043</v>
+        <v>44135</v>
       </c>
       <c r="C32" s="42" t="s">
         <v>49</v>
@@ -7855,43 +8393,44 @@
         <v>49</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="G32" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>P31_000000</v>
+        <v>120</v>
+      </c>
+      <c r="G32" s="53" t="s">
+        <v>193</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I32" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="J32" s="53"/>
+        <v>134</v>
+      </c>
+      <c r="J32" s="53" t="s">
+        <v>158</v>
+      </c>
       <c r="K32" s="54"/>
       <c r="L32" s="46"/>
       <c r="M32" s="46"/>
       <c r="N32" s="46"/>
       <c r="O32" s="46"/>
       <c r="P32" s="47" t="str">
-        <f t="shared" si="7"/>
-        <v>/root5</v>
+        <f t="shared" si="3"/>
+        <v>/netiveUI/html/components</v>
       </c>
       <c r="Q32" s="47"/>
       <c r="R32" s="48" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="S32" s="48" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="T32" s="49" t="s">
         <v>50</v>
       </c>
       <c r="U32" s="50" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="V32" s="50" t="s">
         <v>48</v>
@@ -7903,172 +8442,208 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A33" s="41"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A33" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="42">
+        <v>44135</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="H33" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="I33" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="J33" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="K33" s="54"/>
       <c r="L33" s="46"/>
       <c r="M33" s="46"/>
       <c r="N33" s="46"/>
       <c r="O33" s="46"/>
-      <c r="P33" s="47"/>
+      <c r="P33" s="47" t="str">
+        <f t="shared" ref="P33:P35" si="4">CONCATENATE(R33,S33)</f>
+        <v>/netiveUI/html/components</v>
+      </c>
       <c r="Q33" s="47"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
+      <c r="R33" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="S33" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="T33" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U33" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="V33" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W33" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X33" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A34" s="41"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A34" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="42">
+        <v>44135</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="H34" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="I34" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="J34" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="K34" s="54"/>
       <c r="L34" s="46"/>
       <c r="M34" s="46"/>
       <c r="N34" s="46"/>
       <c r="O34" s="46"/>
-      <c r="P34" s="47"/>
+      <c r="P34" s="47" t="str">
+        <f t="shared" si="4"/>
+        <v>/netiveUI/html/components</v>
+      </c>
       <c r="Q34" s="47"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
+      <c r="R34" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="S34" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="T34" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U34" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="V34" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W34" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X34" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A35" s="41"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="53"/>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.6">
+      <c r="A35" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="42">
+        <v>44135</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="I35" s="53" t="s">
+        <v>163</v>
+      </c>
       <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
+      <c r="K35" s="54"/>
       <c r="L35" s="46"/>
       <c r="M35" s="46"/>
       <c r="N35" s="46"/>
       <c r="O35" s="46"/>
-      <c r="P35" s="47"/>
+      <c r="P35" s="47" t="str">
+        <f t="shared" si="4"/>
+        <v>/netiveUI/html/memory</v>
+      </c>
       <c r="Q35" s="47"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A36" s="41"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A37" s="41"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="50"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A38" s="41"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="49"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="50"/>
+      <c r="R35" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="S35" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="T35" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="U35" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="V35" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="W35" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="X35" s="50" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A11 A33:A1048576">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="대기">
+  <conditionalFormatting sqref="A1:A11 A36:A1048576">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="대기">
       <formula>NOT(ISERROR(SEARCH("대기",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A32">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="대기">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="대기">
       <formula>NOT(ISERROR(SEARCH("대기",A12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:A35">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="대기">
+      <formula>NOT(ISERROR(SEARCH("대기",A33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8082,7 +8657,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data/codinglist.xlsx
+++ b/resources/data/codinglist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="화면목록" sheetId="1" r:id="rId1"/>
@@ -752,10 +752,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>parallaxScroll</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>tab</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -789,6 +785,10 @@
   </si>
   <si>
     <t>/contents</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>parallax</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1368,30 +1368,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="9" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1410,6 +1386,30 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="9" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
@@ -1418,14 +1418,7 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1754,7 +1747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
@@ -1801,212 +1794,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
     </row>
     <row r="2" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="66" t="s">
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66" t="s">
+      <c r="F2" s="72"/>
+      <c r="G2" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="59" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59" t="s">
+      <c r="J2" s="71"/>
+      <c r="K2" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59" t="s">
+      <c r="L2" s="71"/>
+      <c r="M2" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59" t="s">
+      <c r="N2" s="71"/>
+      <c r="O2" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59" t="s">
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59" t="s">
+      <c r="R2" s="71"/>
+      <c r="S2" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59" t="s">
+      <c r="T2" s="71"/>
+      <c r="U2" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59" t="s">
+      <c r="V2" s="71"/>
+      <c r="W2" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59" t="s">
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59" t="s">
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59" t="s">
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59" t="s">
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59" t="s">
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="71"/>
       <c r="AJ2" s="27"/>
     </row>
     <row r="3" spans="1:36" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="69"/>
+      <c r="E3" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="61" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61" t="s">
+      <c r="J3" s="69"/>
+      <c r="K3" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="65" t="s">
+      <c r="L3" s="69"/>
+      <c r="M3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="65"/>
-      <c r="O3" s="64" t="s">
+      <c r="N3" s="70"/>
+      <c r="O3" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="60" t="s">
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60" t="s">
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
       <c r="AJ3" s="28"/>
     </row>
     <row r="4" spans="1:36" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="72"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="64"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.6">
       <c r="A5" s="5" t="s">
@@ -5757,7 +5750,7 @@
       </c>
       <c r="N35" s="15" t="str">
         <f>'원본-화면목록'!G31</f>
-        <v>parallaxScroll</v>
+        <v>parallax</v>
       </c>
       <c r="O35" s="16" t="s">
         <v>4</v>
@@ -6330,46 +6323,60 @@
       </c>
     </row>
     <row r="40" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="68"/>
-      <c r="U40" s="68"/>
-      <c r="V40" s="68"/>
-      <c r="W40" s="68"/>
-      <c r="X40" s="68"/>
-      <c r="Y40" s="68"/>
-      <c r="Z40" s="68"/>
-      <c r="AA40" s="68"/>
-      <c r="AB40" s="68"/>
-      <c r="AC40" s="68"/>
-      <c r="AD40" s="68"/>
-      <c r="AE40" s="68"/>
-      <c r="AF40" s="68"/>
-      <c r="AG40" s="68"/>
-      <c r="AH40" s="68"/>
-      <c r="AI40" s="69"/>
+      <c r="A40" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="60"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="60"/>
+      <c r="X40" s="60"/>
+      <c r="Y40" s="60"/>
+      <c r="Z40" s="60"/>
+      <c r="AA40" s="60"/>
+      <c r="AB40" s="60"/>
+      <c r="AC40" s="60"/>
+      <c r="AD40" s="60"/>
+      <c r="AE40" s="60"/>
+      <c r="AF40" s="60"/>
+      <c r="AG40" s="60"/>
+      <c r="AH40" s="60"/>
+      <c r="AI40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="A40:AI40"/>
     <mergeCell ref="A4:AI4"/>
     <mergeCell ref="G3:H3"/>
@@ -6386,20 +6393,6 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6411,9 +6404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:O1048576"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -6551,10 +6544,10 @@
       </c>
       <c r="Q2" s="47"/>
       <c r="R2" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S2" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T2" s="49" t="s">
         <v>50</v>
@@ -6612,10 +6605,10 @@
       </c>
       <c r="Q3" s="47"/>
       <c r="R3" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S3" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T3" s="49" t="s">
         <v>50</v>
@@ -6673,10 +6666,10 @@
       </c>
       <c r="Q4" s="47"/>
       <c r="R4" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S4" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T4" s="49" t="s">
         <v>50</v>
@@ -6734,10 +6727,10 @@
       </c>
       <c r="Q5" s="47"/>
       <c r="R5" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S5" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T5" s="49" t="s">
         <v>50</v>
@@ -6795,10 +6788,10 @@
       </c>
       <c r="Q6" s="47"/>
       <c r="R6" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S6" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T6" s="49" t="s">
         <v>50</v>
@@ -6856,10 +6849,10 @@
       </c>
       <c r="Q7" s="47"/>
       <c r="R7" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S7" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T7" s="49" t="s">
         <v>50</v>
@@ -6917,10 +6910,10 @@
       </c>
       <c r="Q8" s="47"/>
       <c r="R8" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S8" s="48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T8" s="49" t="s">
         <v>50</v>
@@ -6978,10 +6971,10 @@
       </c>
       <c r="Q9" s="47"/>
       <c r="R9" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S9" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T9" s="49" t="s">
         <v>50</v>
@@ -7039,10 +7032,10 @@
       </c>
       <c r="Q10" s="47"/>
       <c r="R10" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S10" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T10" s="49" t="s">
         <v>50</v>
@@ -7100,10 +7093,10 @@
       </c>
       <c r="Q11" s="47"/>
       <c r="R11" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S11" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T11" s="49" t="s">
         <v>50</v>
@@ -7161,10 +7154,10 @@
       </c>
       <c r="Q12" s="47"/>
       <c r="R12" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S12" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T12" s="49" t="s">
         <v>50</v>
@@ -7224,10 +7217,10 @@
       </c>
       <c r="Q13" s="47"/>
       <c r="R13" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S13" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S13" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T13" s="49" t="s">
         <v>50</v>
@@ -7287,10 +7280,10 @@
       </c>
       <c r="Q14" s="47"/>
       <c r="R14" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S14" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S14" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T14" s="49" t="s">
         <v>50</v>
@@ -7350,10 +7343,10 @@
       </c>
       <c r="Q15" s="47"/>
       <c r="R15" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S15" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S15" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T15" s="49" t="s">
         <v>50</v>
@@ -7413,10 +7406,10 @@
       </c>
       <c r="Q16" s="47"/>
       <c r="R16" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S16" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S16" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T16" s="49" t="s">
         <v>50</v>
@@ -7476,10 +7469,10 @@
       </c>
       <c r="Q17" s="47"/>
       <c r="R17" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S17" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S17" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T17" s="49" t="s">
         <v>50</v>
@@ -7539,10 +7532,10 @@
       </c>
       <c r="Q18" s="47"/>
       <c r="R18" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S18" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S18" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T18" s="49" t="s">
         <v>50</v>
@@ -7602,10 +7595,10 @@
       </c>
       <c r="Q19" s="47"/>
       <c r="R19" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S19" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S19" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T19" s="49" t="s">
         <v>50</v>
@@ -7665,10 +7658,10 @@
       </c>
       <c r="Q20" s="47"/>
       <c r="R20" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S20" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S20" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T20" s="49" t="s">
         <v>50</v>
@@ -7728,10 +7721,10 @@
       </c>
       <c r="Q21" s="47"/>
       <c r="R21" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S21" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S21" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T21" s="49" t="s">
         <v>50</v>
@@ -7791,10 +7784,10 @@
       </c>
       <c r="Q22" s="47"/>
       <c r="R22" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S22" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S22" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T22" s="49" t="s">
         <v>50</v>
@@ -7854,10 +7847,10 @@
       </c>
       <c r="Q23" s="47"/>
       <c r="R23" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S23" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S23" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T23" s="49" t="s">
         <v>50</v>
@@ -7917,10 +7910,10 @@
       </c>
       <c r="Q24" s="47"/>
       <c r="R24" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S24" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S24" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T24" s="49" t="s">
         <v>50</v>
@@ -7980,10 +7973,10 @@
       </c>
       <c r="Q25" s="47"/>
       <c r="R25" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S25" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S25" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T25" s="49" t="s">
         <v>50</v>
@@ -8043,10 +8036,10 @@
       </c>
       <c r="Q26" s="47"/>
       <c r="R26" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S26" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S26" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T26" s="49" t="s">
         <v>50</v>
@@ -8106,10 +8099,10 @@
       </c>
       <c r="Q27" s="47"/>
       <c r="R27" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S27" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S27" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T27" s="49" t="s">
         <v>50</v>
@@ -8169,10 +8162,10 @@
       </c>
       <c r="Q28" s="47"/>
       <c r="R28" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S28" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S28" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T28" s="49" t="s">
         <v>50</v>
@@ -8232,10 +8225,10 @@
       </c>
       <c r="Q29" s="47"/>
       <c r="R29" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S29" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S29" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T29" s="49" t="s">
         <v>50</v>
@@ -8295,10 +8288,10 @@
       </c>
       <c r="Q30" s="47"/>
       <c r="R30" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S30" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S30" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T30" s="49" t="s">
         <v>50</v>
@@ -8336,7 +8329,7 @@
         <v>120</v>
       </c>
       <c r="G31" s="53" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="H31" s="45" t="s">
         <v>136</v>
@@ -8358,10 +8351,10 @@
       </c>
       <c r="Q31" s="47"/>
       <c r="R31" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S31" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S31" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T31" s="49" t="s">
         <v>50</v>
@@ -8399,7 +8392,7 @@
         <v>120</v>
       </c>
       <c r="G32" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H32" s="45" t="s">
         <v>136</v>
@@ -8421,10 +8414,10 @@
       </c>
       <c r="Q32" s="47"/>
       <c r="R32" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S32" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S32" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T32" s="49" t="s">
         <v>50</v>
@@ -8462,7 +8455,7 @@
         <v>120</v>
       </c>
       <c r="G33" s="53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H33" s="45" t="s">
         <v>136</v>
@@ -8484,10 +8477,10 @@
       </c>
       <c r="Q33" s="47"/>
       <c r="R33" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S33" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S33" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T33" s="49" t="s">
         <v>50</v>
@@ -8525,7 +8518,7 @@
         <v>120</v>
       </c>
       <c r="G34" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H34" s="45" t="s">
         <v>136</v>
@@ -8547,10 +8540,10 @@
       </c>
       <c r="Q34" s="47"/>
       <c r="R34" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="S34" s="48" t="s">
         <v>197</v>
-      </c>
-      <c r="S34" s="48" t="s">
-        <v>198</v>
       </c>
       <c r="T34" s="49" t="s">
         <v>50</v>
@@ -8588,7 +8581,7 @@
         <v>120</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H35" s="45" t="s">
         <v>162</v>
@@ -8608,10 +8601,10 @@
       </c>
       <c r="Q35" s="47"/>
       <c r="R35" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S35" s="48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T35" s="49" t="s">
         <v>50</v>
